--- a/result/NCDC_weather_data/stations_imputed/51886099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/51886099999.xlsx
@@ -569,7 +569,9 @@
       <c r="M2" t="n">
         <v>2.109204</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>11.13700330726257</v>
+      </c>
       <c r="O2" t="n">
         <v>76.28</v>
       </c>
@@ -579,7 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -625,7 +629,9 @@
       <c r="M3" t="n">
         <v>1.491876</v>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>11.13700330726257</v>
+      </c>
       <c r="O3" t="n">
         <v>69.80000000000001</v>
       </c>
@@ -635,7 +641,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -681,7 +689,9 @@
       <c r="M4" t="n">
         <v>2.212092</v>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>11.13700330726257</v>
+      </c>
       <c r="O4" t="n">
         <v>84.02</v>
       </c>
@@ -691,7 +701,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -737,7 +749,9 @@
       <c r="M5" t="n">
         <v>2.31498</v>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>11.13700330726257</v>
+      </c>
       <c r="O5" t="n">
         <v>84.02</v>
       </c>
@@ -747,7 +761,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -793,7 +809,9 @@
       <c r="M6" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>11.13700330726257</v>
+      </c>
       <c r="O6" t="n">
         <v>81.14</v>
       </c>
@@ -803,7 +821,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -861,7 +881,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -919,7 +941,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
-      <c r="R8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -977,7 +1001,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
-      <c r="R9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1035,7 +1061,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1093,7 +1121,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1151,7 +1181,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
-      <c r="R12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1209,7 +1241,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1267,7 +1301,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1325,7 +1361,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1383,7 +1421,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1441,7 +1481,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
-      <c r="R17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1499,7 +1541,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
-      <c r="R18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1557,7 +1601,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1615,7 +1661,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1673,7 +1721,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
-      <c r="R21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1731,7 +1781,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
-      <c r="R22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1789,7 +1841,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
-      <c r="R23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1847,7 +1901,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
-      <c r="R24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1905,7 +1961,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
-      <c r="R25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1963,7 +2021,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
-      <c r="R26" t="inlineStr"/>
+      <c r="R26" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2021,7 +2081,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2079,7 +2141,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
-      <c r="R28" t="inlineStr"/>
+      <c r="R28" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2137,7 +2201,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
-      <c r="R29" t="inlineStr"/>
+      <c r="R29" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2195,7 +2261,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
-      <c r="R30" t="inlineStr"/>
+      <c r="R30" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2253,7 +2321,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2311,7 +2381,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2369,7 +2441,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2427,7 +2501,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2485,7 +2561,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2543,7 +2621,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2601,7 +2681,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
-      <c r="R37" t="inlineStr"/>
+      <c r="R37" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2659,7 +2741,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2717,7 +2801,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
-      <c r="R39" t="inlineStr"/>
+      <c r="R39" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2775,7 +2861,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2833,7 +2921,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
-      <c r="R41" t="inlineStr"/>
+      <c r="R41" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2891,7 +2981,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2949,7 +3041,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
-      <c r="R43" t="inlineStr"/>
+      <c r="R43" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3007,7 +3101,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
-      <c r="R44" t="inlineStr"/>
+      <c r="R44" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3065,7 +3161,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
-      <c r="R45" t="inlineStr"/>
+      <c r="R45" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3123,7 +3221,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
-      <c r="R46" t="inlineStr"/>
+      <c r="R46" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3181,7 +3281,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
-      <c r="R47" t="inlineStr"/>
+      <c r="R47" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3239,7 +3341,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
-      <c r="R48" t="inlineStr"/>
+      <c r="R48" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3297,7 +3401,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
-      <c r="R49" t="inlineStr"/>
+      <c r="R49" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3355,7 +3461,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
-      <c r="R50" t="inlineStr"/>
+      <c r="R50" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3413,7 +3521,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3471,7 +3581,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
-      <c r="R52" t="inlineStr"/>
+      <c r="R52" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3529,7 +3641,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
-      <c r="R53" t="inlineStr"/>
+      <c r="R53" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3587,7 +3701,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
-      <c r="R54" t="inlineStr"/>
+      <c r="R54" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3645,7 +3761,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
-      <c r="R55" t="inlineStr"/>
+      <c r="R55" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3703,7 +3821,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
-      <c r="R56" t="inlineStr"/>
+      <c r="R56" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3761,7 +3881,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
-      <c r="R57" t="inlineStr"/>
+      <c r="R57" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3819,7 +3941,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
-      <c r="R58" t="inlineStr"/>
+      <c r="R58" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3877,7 +4001,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
-      <c r="R59" t="inlineStr"/>
+      <c r="R59" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3935,7 +4061,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
-      <c r="R60" t="inlineStr"/>
+      <c r="R60" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3993,7 +4121,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
-      <c r="R61" t="inlineStr"/>
+      <c r="R61" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4051,7 +4181,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
-      <c r="R62" t="inlineStr"/>
+      <c r="R62" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4109,7 +4241,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
-      <c r="R63" t="inlineStr"/>
+      <c r="R63" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4167,7 +4301,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
-      <c r="R64" t="inlineStr"/>
+      <c r="R64" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4225,7 +4361,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
-      <c r="R65" t="inlineStr"/>
+      <c r="R65" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4283,7 +4421,9 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
-      <c r="R66" t="inlineStr"/>
+      <c r="R66" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4341,7 +4481,9 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
-      <c r="R67" t="inlineStr"/>
+      <c r="R67" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -4399,7 +4541,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
-      <c r="R68" t="inlineStr"/>
+      <c r="R68" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -4457,7 +4601,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
-      <c r="R69" t="inlineStr"/>
+      <c r="R69" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4515,7 +4661,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
-      <c r="R70" t="inlineStr"/>
+      <c r="R70" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -4573,7 +4721,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
-      <c r="R71" t="inlineStr"/>
+      <c r="R71" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -4631,7 +4781,9 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
-      <c r="R72" t="inlineStr"/>
+      <c r="R72" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -4689,7 +4841,9 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
-      <c r="R73" t="inlineStr"/>
+      <c r="R73" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -4747,7 +4901,9 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
-      <c r="R74" t="inlineStr"/>
+      <c r="R74" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4805,7 +4961,9 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
-      <c r="R75" t="inlineStr"/>
+      <c r="R75" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4863,7 +5021,9 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
-      <c r="R76" t="inlineStr"/>
+      <c r="R76" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -4921,7 +5081,9 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
-      <c r="R77" t="inlineStr"/>
+      <c r="R77" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -4979,7 +5141,9 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
-      <c r="R78" t="inlineStr"/>
+      <c r="R78" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -5037,7 +5201,9 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
-      <c r="R79" t="inlineStr"/>
+      <c r="R79" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -5095,7 +5261,9 @@
       <c r="Q80" t="n">
         <v>0</v>
       </c>
-      <c r="R80" t="inlineStr"/>
+      <c r="R80" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -5153,7 +5321,9 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
-      <c r="R81" t="inlineStr"/>
+      <c r="R81" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -5211,7 +5381,9 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
-      <c r="R82" t="inlineStr"/>
+      <c r="R82" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -5269,7 +5441,9 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
-      <c r="R83" t="inlineStr"/>
+      <c r="R83" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -5327,7 +5501,9 @@
       <c r="Q84" t="n">
         <v>0</v>
       </c>
-      <c r="R84" t="inlineStr"/>
+      <c r="R84" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -5385,7 +5561,9 @@
       <c r="Q85" t="n">
         <v>0</v>
       </c>
-      <c r="R85" t="inlineStr"/>
+      <c r="R85" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -5443,7 +5621,9 @@
       <c r="Q86" t="n">
         <v>0</v>
       </c>
-      <c r="R86" t="inlineStr"/>
+      <c r="R86" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -5501,7 +5681,9 @@
       <c r="Q87" t="n">
         <v>0</v>
       </c>
-      <c r="R87" t="inlineStr"/>
+      <c r="R87" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -5559,7 +5741,9 @@
       <c r="Q88" t="n">
         <v>0</v>
       </c>
-      <c r="R88" t="inlineStr"/>
+      <c r="R88" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -5617,7 +5801,9 @@
       <c r="Q89" t="n">
         <v>0</v>
       </c>
-      <c r="R89" t="inlineStr"/>
+      <c r="R89" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -5675,7 +5861,9 @@
       <c r="Q90" t="n">
         <v>0</v>
       </c>
-      <c r="R90" t="inlineStr"/>
+      <c r="R90" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -5733,7 +5921,9 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
-      <c r="R91" t="inlineStr"/>
+      <c r="R91" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -5791,7 +5981,9 @@
       <c r="Q92" t="n">
         <v>0</v>
       </c>
-      <c r="R92" t="inlineStr"/>
+      <c r="R92" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -5849,7 +6041,9 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
-      <c r="R93" t="inlineStr"/>
+      <c r="R93" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -5907,7 +6101,9 @@
       <c r="Q94" t="n">
         <v>0</v>
       </c>
-      <c r="R94" t="inlineStr"/>
+      <c r="R94" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -5965,7 +6161,9 @@
       <c r="Q95" t="n">
         <v>0</v>
       </c>
-      <c r="R95" t="inlineStr"/>
+      <c r="R95" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -6023,7 +6221,9 @@
       <c r="Q96" t="n">
         <v>0</v>
       </c>
-      <c r="R96" t="inlineStr"/>
+      <c r="R96" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -6081,7 +6281,9 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
-      <c r="R97" t="inlineStr"/>
+      <c r="R97" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -6139,7 +6341,9 @@
       <c r="Q98" t="n">
         <v>0</v>
       </c>
-      <c r="R98" t="inlineStr"/>
+      <c r="R98" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -6197,7 +6401,9 @@
       <c r="Q99" t="n">
         <v>0</v>
       </c>
-      <c r="R99" t="inlineStr"/>
+      <c r="R99" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -6255,7 +6461,9 @@
       <c r="Q100" t="n">
         <v>0</v>
       </c>
-      <c r="R100" t="inlineStr"/>
+      <c r="R100" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -6313,7 +6521,9 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
-      <c r="R101" t="inlineStr"/>
+      <c r="R101" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -6371,7 +6581,9 @@
       <c r="Q102" t="n">
         <v>0</v>
       </c>
-      <c r="R102" t="inlineStr"/>
+      <c r="R102" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -6429,7 +6641,9 @@
       <c r="Q103" t="n">
         <v>0</v>
       </c>
-      <c r="R103" t="inlineStr"/>
+      <c r="R103" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -6487,7 +6701,9 @@
       <c r="Q104" t="n">
         <v>0</v>
       </c>
-      <c r="R104" t="inlineStr"/>
+      <c r="R104" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -6545,7 +6761,9 @@
       <c r="Q105" t="n">
         <v>0</v>
       </c>
-      <c r="R105" t="inlineStr"/>
+      <c r="R105" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -6603,7 +6821,9 @@
       <c r="Q106" t="n">
         <v>0</v>
       </c>
-      <c r="R106" t="inlineStr"/>
+      <c r="R106" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -6661,7 +6881,9 @@
       <c r="Q107" t="n">
         <v>0</v>
       </c>
-      <c r="R107" t="inlineStr"/>
+      <c r="R107" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -6719,7 +6941,9 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
-      <c r="R108" t="inlineStr"/>
+      <c r="R108" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -6777,7 +7001,9 @@
       <c r="Q109" t="n">
         <v>0</v>
       </c>
-      <c r="R109" t="inlineStr"/>
+      <c r="R109" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -6835,7 +7061,9 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
-      <c r="R110" t="inlineStr"/>
+      <c r="R110" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -6893,7 +7121,9 @@
       <c r="Q111" t="n">
         <v>0</v>
       </c>
-      <c r="R111" t="inlineStr"/>
+      <c r="R111" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -6951,7 +7181,9 @@
       <c r="Q112" t="n">
         <v>0</v>
       </c>
-      <c r="R112" t="inlineStr"/>
+      <c r="R112" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -7009,7 +7241,9 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
-      <c r="R113" t="inlineStr"/>
+      <c r="R113" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -7067,7 +7301,9 @@
       <c r="Q114" t="n">
         <v>0</v>
       </c>
-      <c r="R114" t="inlineStr"/>
+      <c r="R114" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -7125,7 +7361,9 @@
       <c r="Q115" t="n">
         <v>0</v>
       </c>
-      <c r="R115" t="inlineStr"/>
+      <c r="R115" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -7183,7 +7421,9 @@
       <c r="Q116" t="n">
         <v>0</v>
       </c>
-      <c r="R116" t="inlineStr"/>
+      <c r="R116" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">

--- a/result/NCDC_weather_data/stations_imputed/51886099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/51886099999.xlsx
@@ -557,7 +557,7 @@
         <v>-13.61111111111111</v>
       </c>
       <c r="H2" t="n">
-        <v>-14.3</v>
+        <v>-25.72222222222222</v>
       </c>
       <c r="I2" t="n">
         <v>103.91</v>
@@ -590,7 +590,7 @@
         <v>0.01016</v>
       </c>
       <c r="S2" t="n">
-        <v>94.52991596364096</v>
+        <v>35.31545306669435</v>
       </c>
     </row>
     <row r="3">
@@ -620,7 +620,7 @@
         <v>-12.72222222222222</v>
       </c>
       <c r="H3" t="n">
-        <v>-12.9</v>
+        <v>-24.94444444444445</v>
       </c>
       <c r="I3" t="n">
         <v>103.55</v>
@@ -653,7 +653,7 @@
         <v>0.01016</v>
       </c>
       <c r="S3" t="n">
-        <v>98.57293980944087</v>
+        <v>35.25266252839368</v>
       </c>
     </row>
     <row r="4">
@@ -683,7 +683,7 @@
         <v>-9.888888888888889</v>
       </c>
       <c r="H4" t="n">
-        <v>-8</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="I4" t="n">
         <v>103.2</v>
@@ -716,7 +716,7 @@
         <v>0.01016</v>
       </c>
       <c r="S4" t="n">
-        <v>115.9195462825111</v>
+        <v>35.8236882788241</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         <v>-10.72222222222222</v>
       </c>
       <c r="H5" t="n">
-        <v>-5.2</v>
+        <v>-20.66666666666667</v>
       </c>
       <c r="I5" t="n">
         <v>102.83</v>
@@ -779,7 +779,7 @@
         <v>0.01016</v>
       </c>
       <c r="S5" t="n">
-        <v>153.4700530106439</v>
+        <v>43.82845933192097</v>
       </c>
     </row>
     <row r="6">
@@ -809,7 +809,7 @@
         <v>-10.16666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>-6.1</v>
+        <v>-21.16666666666667</v>
       </c>
       <c r="I6" t="n">
         <v>103.07</v>
@@ -842,7 +842,7 @@
         <v>0.01016</v>
       </c>
       <c r="S6" t="n">
-        <v>137.1460145395621</v>
+        <v>40.15917538933742</v>
       </c>
     </row>
     <row r="7">
@@ -872,7 +872,7 @@
         <v>-8.166666666666666</v>
       </c>
       <c r="H7" t="n">
-        <v>-5.7</v>
+        <v>-20.94444444444445</v>
       </c>
       <c r="I7" t="n">
         <v>102.9</v>
@@ -905,7 +905,7 @@
         <v>0.01016</v>
       </c>
       <c r="S7" t="n">
-        <v>120.8825292253323</v>
+        <v>35.00395628086898</v>
       </c>
     </row>
     <row r="8">
@@ -935,7 +935,7 @@
         <v>-6.666666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.9</v>
+        <v>-18.27777777777778</v>
       </c>
       <c r="I8" t="n">
         <v>102.97</v>
@@ -968,7 +968,7 @@
         <v>0.01016</v>
       </c>
       <c r="S8" t="n">
-        <v>154.0094611092325</v>
+        <v>39.19573209992063</v>
       </c>
     </row>
     <row r="9">
@@ -998,7 +998,7 @@
         <v>-8.5</v>
       </c>
       <c r="H9" t="n">
-        <v>-3.6</v>
+        <v>-19.77777777777778</v>
       </c>
       <c r="I9" t="n">
         <v>103.04</v>
@@ -1031,7 +1031,7 @@
         <v>0.01016</v>
       </c>
       <c r="S9" t="n">
-        <v>145.3489440394097</v>
+        <v>39.73418600232052</v>
       </c>
     </row>
     <row r="10">
@@ -1061,7 +1061,7 @@
         <v>-9.277777777777779</v>
       </c>
       <c r="H10" t="n">
-        <v>-6.2</v>
+        <v>-21.22222222222222</v>
       </c>
       <c r="I10" t="n">
         <v>103.08</v>
@@ -1094,7 +1094,7 @@
         <v>0.01016</v>
       </c>
       <c r="S10" t="n">
-        <v>126.9036177360323</v>
+        <v>37.26421274983435</v>
       </c>
     </row>
     <row r="11">
@@ -1124,7 +1124,7 @@
         <v>-9.611111111111112</v>
       </c>
       <c r="H11" t="n">
-        <v>-7.3</v>
+        <v>-21.83333333333333</v>
       </c>
       <c r="I11" t="n">
         <v>103.06</v>
@@ -1157,7 +1157,7 @@
         <v>0.01016</v>
       </c>
       <c r="S11" t="n">
-        <v>119.7214560312928</v>
+        <v>36.26483369290603</v>
       </c>
     </row>
     <row r="12">
@@ -1187,7 +1187,7 @@
         <v>-10.11111111111111</v>
       </c>
       <c r="H12" t="n">
-        <v>-5.2</v>
+        <v>-20.66666666666667</v>
       </c>
       <c r="I12" t="n">
         <v>103.17</v>
@@ -1220,7 +1220,7 @@
         <v>0.01016</v>
       </c>
       <c r="S12" t="n">
-        <v>146.2191786594101</v>
+        <v>41.75773188125751</v>
       </c>
     </row>
     <row r="13">
@@ -1250,7 +1250,7 @@
         <v>-8.944444444444446</v>
       </c>
       <c r="H13" t="n">
-        <v>-3.6</v>
+        <v>-19.77777777777778</v>
       </c>
       <c r="I13" t="n">
         <v>103</v>
@@ -1283,7 +1283,7 @@
         <v>0.01016</v>
       </c>
       <c r="S13" t="n">
-        <v>150.4799972455344</v>
+        <v>41.13686714202445</v>
       </c>
     </row>
     <row r="14">
@@ -1313,7 +1313,7 @@
         <v>-8.833333333333332</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.5</v>
+        <v>-21.38888888888889</v>
       </c>
       <c r="I14" t="n">
         <v>102.56</v>
@@ -1346,7 +1346,7 @@
         <v>0.01016</v>
       </c>
       <c r="S14" t="n">
-        <v>119.783371754923</v>
+        <v>35.47104872994066</v>
       </c>
     </row>
     <row r="15">
@@ -1376,7 +1376,7 @@
         <v>-10.11111111111111</v>
       </c>
       <c r="H15" t="n">
-        <v>-10.9</v>
+        <v>-23.83333333333333</v>
       </c>
       <c r="I15" t="n">
         <v>103.01</v>
@@ -1409,7 +1409,7 @@
         <v>0.01016</v>
       </c>
       <c r="S15" t="n">
-        <v>93.9388527323942</v>
+        <v>31.6118844440815</v>
       </c>
     </row>
     <row r="16">
@@ -1439,7 +1439,7 @@
         <v>-9.777777777777779</v>
       </c>
       <c r="H16" t="n">
-        <v>-10.3</v>
+        <v>-23.5</v>
       </c>
       <c r="I16" t="n">
         <v>103.51</v>
@@ -1472,7 +1472,7 @@
         <v>0.01016</v>
       </c>
       <c r="S16" t="n">
-        <v>95.96130427308077</v>
+        <v>31.7190680013086</v>
       </c>
     </row>
     <row r="17">
@@ -1502,7 +1502,7 @@
         <v>-11.38888888888889</v>
       </c>
       <c r="H17" t="n">
-        <v>-16.7</v>
+        <v>-27.05555555555556</v>
       </c>
       <c r="I17" t="n">
         <v>103.99</v>
@@ -1535,7 +1535,7 @@
         <v>0.01016</v>
       </c>
       <c r="S17" t="n">
-        <v>64.78525601040128</v>
+        <v>26.13893408918652</v>
       </c>
     </row>
     <row r="18">
@@ -1565,7 +1565,7 @@
         <v>-11.61111111111111</v>
       </c>
       <c r="H18" t="n">
-        <v>-16.9</v>
+        <v>-27.16666666666667</v>
       </c>
       <c r="I18" t="n">
         <v>103.94</v>
@@ -1598,7 +1598,7 @@
         <v>0.01016</v>
       </c>
       <c r="S18" t="n">
-        <v>64.85137922245823</v>
+        <v>26.33714374249084</v>
       </c>
     </row>
     <row r="19">
@@ -1628,7 +1628,7 @@
         <v>-12.22222222222222</v>
       </c>
       <c r="H19" t="n">
-        <v>-16.4</v>
+        <v>-26.88888888888889</v>
       </c>
       <c r="I19" t="n">
         <v>103.55</v>
@@ -1661,7 +1661,7 @@
         <v>0.01016</v>
       </c>
       <c r="S19" t="n">
-        <v>71.01782770010655</v>
+        <v>28.37513393647167</v>
       </c>
     </row>
     <row r="20">
@@ -1691,7 +1691,7 @@
         <v>-11.94444444444444</v>
       </c>
       <c r="H20" t="n">
-        <v>-16</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="I20" t="n">
         <v>102.81</v>
@@ -1724,7 +1724,7 @@
         <v>0.01016</v>
       </c>
       <c r="S20" t="n">
-        <v>71.80292673565194</v>
+        <v>28.31956461848146</v>
       </c>
     </row>
     <row r="21">
@@ -1754,7 +1754,7 @@
         <v>-9.611111111111112</v>
       </c>
       <c r="H21" t="n">
-        <v>-14.2</v>
+        <v>-25.66666666666667</v>
       </c>
       <c r="I21" t="n">
         <v>102.28</v>
@@ -1787,7 +1787,7 @@
         <v>0.01016</v>
       </c>
       <c r="S21" t="n">
-        <v>69.20106693420526</v>
+        <v>25.77158384759556</v>
       </c>
     </row>
     <row r="22">
@@ -1817,7 +1817,7 @@
         <v>-8.277777777777777</v>
       </c>
       <c r="H22" t="n">
-        <v>-8</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="I22" t="n">
         <v>101.85</v>
@@ -1850,7 +1850,7 @@
         <v>0.01016</v>
       </c>
       <c r="S22" t="n">
-        <v>102.1810080537526</v>
+        <v>31.57794089024927</v>
       </c>
     </row>
     <row r="23">
@@ -1880,7 +1880,7 @@
         <v>-11</v>
       </c>
       <c r="H23" t="n">
-        <v>-16.6</v>
+        <v>-27</v>
       </c>
       <c r="I23" t="n">
         <v>102.5</v>
@@ -1913,7 +1913,7 @@
         <v>0.01016</v>
       </c>
       <c r="S23" t="n">
-        <v>63.33469590123379</v>
+        <v>25.47050778154512</v>
       </c>
     </row>
     <row r="24">
@@ -1943,7 +1943,7 @@
         <v>-12.27777777777778</v>
       </c>
       <c r="H24" t="n">
-        <v>-20.2</v>
+        <v>-29</v>
       </c>
       <c r="I24" t="n">
         <v>102.95</v>
@@ -1976,7 +1976,7 @@
         <v>0.01016</v>
       </c>
       <c r="S24" t="n">
-        <v>51.67568341657272</v>
+        <v>23.44100400609407</v>
       </c>
     </row>
     <row r="25">
@@ -2006,7 +2006,7 @@
         <v>-11.83333333333333</v>
       </c>
       <c r="H25" t="n">
-        <v>-15.5</v>
+        <v>-26.38888888888889</v>
       </c>
       <c r="I25" t="n">
         <v>102.67</v>
@@ -2039,7 +2039,7 @@
         <v>0.01016</v>
       </c>
       <c r="S25" t="n">
-        <v>74.1795518985472</v>
+        <v>28.79001729386439</v>
       </c>
     </row>
     <row r="26">
@@ -2069,7 +2069,7 @@
         <v>-9</v>
       </c>
       <c r="H26" t="n">
-        <v>-8.6</v>
+        <v>-22.55555555555556</v>
       </c>
       <c r="I26" t="n">
         <v>102.2</v>
@@ -2102,7 +2102,7 @@
         <v>0.01016</v>
       </c>
       <c r="S26" t="n">
-        <v>103.1737440729977</v>
+        <v>32.44217269629024</v>
       </c>
     </row>
     <row r="27">
@@ -2132,7 +2132,7 @@
         <v>-9.722222222222223</v>
       </c>
       <c r="H27" t="n">
-        <v>-14.7</v>
+        <v>-25.94444444444445</v>
       </c>
       <c r="I27" t="n">
         <v>102.56</v>
@@ -2165,7 +2165,7 @@
         <v>0.01016</v>
       </c>
       <c r="S27" t="n">
-        <v>67.00410343188624</v>
+        <v>25.35044445901011</v>
       </c>
     </row>
     <row r="28">
@@ -2195,7 +2195,7 @@
         <v>-11.55555555555556</v>
       </c>
       <c r="H28" t="n">
-        <v>-13.8</v>
+        <v>-25.44444444444444</v>
       </c>
       <c r="I28" t="n">
         <v>103.2</v>
@@ -2228,7 +2228,7 @@
         <v>0.01016</v>
       </c>
       <c r="S28" t="n">
-        <v>83.42193286866204</v>
+        <v>30.68030062731804</v>
       </c>
     </row>
     <row r="29">
@@ -2258,7 +2258,7 @@
         <v>-13.44444444444444</v>
       </c>
       <c r="H29" t="n">
-        <v>-16.4</v>
+        <v>-26.88888888888889</v>
       </c>
       <c r="I29" t="n">
         <v>103.25</v>
@@ -2291,7 +2291,7 @@
         <v>0.01016</v>
       </c>
       <c r="S29" t="n">
-        <v>78.3956018706177</v>
+        <v>31.32291954215531</v>
       </c>
     </row>
     <row r="30">
@@ -2321,7 +2321,7 @@
         <v>-12</v>
       </c>
       <c r="H30" t="n">
-        <v>-18.7</v>
+        <v>-28.16666666666667</v>
       </c>
       <c r="I30" t="n">
         <v>102.99</v>
@@ -2354,7 +2354,7 @@
         <v>0.01016</v>
       </c>
       <c r="S30" t="n">
-        <v>57.46808887083653</v>
+        <v>24.77378856180676</v>
       </c>
     </row>
     <row r="31">
@@ -2384,7 +2384,7 @@
         <v>-11.38888888888889</v>
       </c>
       <c r="H31" t="n">
-        <v>-21.5</v>
+        <v>-29.72222222222222</v>
       </c>
       <c r="I31" t="n">
         <v>102.96</v>
@@ -2417,7 +2417,7 @@
         <v>0.01016</v>
       </c>
       <c r="S31" t="n">
-        <v>42.98675936705756</v>
+        <v>20.39843444260293</v>
       </c>
     </row>
     <row r="32">
@@ -2447,7 +2447,7 @@
         <v>-9.555555555555555</v>
       </c>
       <c r="H32" t="n">
-        <v>-6.1</v>
+        <v>-21.16666666666667</v>
       </c>
       <c r="I32" t="n">
         <v>102.64</v>
@@ -2480,7 +2480,7 @@
         <v>0.01016</v>
       </c>
       <c r="S32" t="n">
-        <v>130.6964317791617</v>
+        <v>38.27060483092537</v>
       </c>
     </row>
     <row r="33">
@@ -2510,7 +2510,7 @@
         <v>-11.44444444444445</v>
       </c>
       <c r="H33" t="n">
-        <v>-10.4</v>
+        <v>-23.55555555555556</v>
       </c>
       <c r="I33" t="n">
         <v>103.1</v>
@@ -2543,7 +2543,7 @@
         <v>0.01016</v>
       </c>
       <c r="S33" t="n">
-        <v>108.6626683227154</v>
+        <v>36.0244015157084</v>
       </c>
     </row>
     <row r="34">
@@ -2573,7 +2573,7 @@
         <v>-12.11111111111111</v>
       </c>
       <c r="H34" t="n">
-        <v>-13.7</v>
+        <v>-25.38888888888889</v>
       </c>
       <c r="I34" t="n">
         <v>103</v>
@@ -2606,7 +2606,7 @@
         <v>0.01016</v>
       </c>
       <c r="S34" t="n">
-        <v>87.93528193523288</v>
+        <v>32.23927150338014</v>
       </c>
     </row>
     <row r="35">
@@ -2636,7 +2636,7 @@
         <v>-10.72222222222222</v>
       </c>
       <c r="H35" t="n">
-        <v>-13.7</v>
+        <v>-25.38888888888889</v>
       </c>
       <c r="I35" t="n">
         <v>103.08</v>
@@ -2669,7 +2669,7 @@
         <v>0.01016</v>
       </c>
       <c r="S35" t="n">
-        <v>78.70079314099338</v>
+        <v>28.85367717900322</v>
       </c>
     </row>
     <row r="36">
@@ -2699,7 +2699,7 @@
         <v>-10.44444444444444</v>
       </c>
       <c r="H36" t="n">
-        <v>-9.5</v>
+        <v>-23.05555555555556</v>
       </c>
       <c r="I36" t="n">
         <v>102.71</v>
@@ -2732,7 +2732,7 @@
         <v>0.01016</v>
       </c>
       <c r="S36" t="n">
-        <v>107.7360192888058</v>
+        <v>34.77883072061474</v>
       </c>
     </row>
     <row r="37">
@@ -2762,7 +2762,7 @@
         <v>-11.77777777777778</v>
       </c>
       <c r="H37" t="n">
-        <v>-6.2</v>
+        <v>-21.22222222222222</v>
       </c>
       <c r="I37" t="n">
         <v>102.78</v>
@@ -2795,7 +2795,7 @@
         <v>0.01016</v>
       </c>
       <c r="S37" t="n">
-        <v>154.7199907781816</v>
+        <v>45.43226391703991</v>
       </c>
     </row>
     <row r="38">
@@ -2825,7 +2825,7 @@
         <v>-12.16666666666667</v>
       </c>
       <c r="H38" t="n">
-        <v>-13.5</v>
+        <v>-25.27777777777778</v>
       </c>
       <c r="I38" t="n">
         <v>102.46</v>
@@ -2858,7 +2858,7 @@
         <v>0.01016</v>
       </c>
       <c r="S38" t="n">
-        <v>89.77872063539056</v>
+        <v>32.71046860036135</v>
       </c>
     </row>
     <row r="39">
@@ -2888,7 +2888,7 @@
         <v>-10.05555555555556</v>
       </c>
       <c r="H39" t="n">
-        <v>-11.2</v>
+        <v>-24</v>
       </c>
       <c r="I39" t="n">
         <v>102.63</v>
@@ -2921,7 +2921,7 @@
         <v>0.01016</v>
       </c>
       <c r="S39" t="n">
-        <v>91.31981123778881</v>
+        <v>31.0088691514232</v>
       </c>
     </row>
     <row r="40">
@@ -2951,7 +2951,7 @@
         <v>-9.111111111111111</v>
       </c>
       <c r="H40" t="n">
-        <v>-4.2</v>
+        <v>-20.11111111111111</v>
       </c>
       <c r="I40" t="n">
         <v>102.58</v>
@@ -2984,7 +2984,7 @@
         <v>0.01016</v>
       </c>
       <c r="S40" t="n">
-        <v>145.7517493134695</v>
+        <v>40.49793497727045</v>
       </c>
     </row>
     <row r="41">
@@ -3014,7 +3014,7 @@
         <v>-10.16666666666667</v>
       </c>
       <c r="H41" t="n">
-        <v>-6.9</v>
+        <v>-21.61111111111111</v>
       </c>
       <c r="I41" t="n">
         <v>102.29</v>
@@ -3047,7 +3047,7 @@
         <v>0.01016</v>
       </c>
       <c r="S41" t="n">
-        <v>128.9938288294937</v>
+        <v>38.63228575418734</v>
       </c>
     </row>
     <row r="42">
@@ -3077,7 +3077,7 @@
         <v>-8.777777777777779</v>
       </c>
       <c r="H42" t="n">
-        <v>-7.1</v>
+        <v>-21.72222222222222</v>
       </c>
       <c r="I42" t="n">
         <v>102.38</v>
@@ -3110,7 +3110,7 @@
         <v>0.01016</v>
       </c>
       <c r="S42" t="n">
-        <v>113.8939192991882</v>
+        <v>34.30398555789254</v>
       </c>
     </row>
     <row r="43">
@@ -3140,7 +3140,7 @@
         <v>-9.777777777777779</v>
       </c>
       <c r="H43" t="n">
-        <v>-8.6</v>
+        <v>-22.55555555555556</v>
       </c>
       <c r="I43" t="n">
         <v>102.75</v>
@@ -3173,7 +3173,7 @@
         <v>0.01016</v>
       </c>
       <c r="S43" t="n">
-        <v>109.669707809874</v>
+        <v>34.48477742362742</v>
       </c>
     </row>
     <row r="44">
@@ -3203,7 +3203,7 @@
         <v>-7.166666666666666</v>
       </c>
       <c r="H44" t="n">
-        <v>-9.9</v>
+        <v>-23.27777777777778</v>
       </c>
       <c r="I44" t="n">
         <v>102.48</v>
@@ -3236,7 +3236,7 @@
         <v>0.01016</v>
       </c>
       <c r="S44" t="n">
-        <v>80.81360446204806</v>
+        <v>26.39725861291284</v>
       </c>
     </row>
     <row r="45">
@@ -3266,7 +3266,7 @@
         <v>-6.777777777777778</v>
       </c>
       <c r="H45" t="n">
-        <v>-4.4</v>
+        <v>-20.22222222222222</v>
       </c>
       <c r="I45" t="n">
         <v>102.48</v>
@@ -3299,7 +3299,7 @@
         <v>0.01016</v>
       </c>
       <c r="S45" t="n">
-        <v>119.8120533548983</v>
+        <v>33.47254087423295</v>
       </c>
     </row>
     <row r="46">
@@ -3329,7 +3329,7 @@
         <v>-5.444444444444445</v>
       </c>
       <c r="H46" t="n">
-        <v>-5.5</v>
+        <v>-20.83333333333334</v>
       </c>
       <c r="I46" t="n">
         <v>102.26</v>
@@ -3362,7 +3362,7 @@
         <v>0.01016</v>
       </c>
       <c r="S46" t="n">
-        <v>99.57899048284651</v>
+        <v>28.67528355435828</v>
       </c>
     </row>
     <row r="47">
@@ -3392,7 +3392,7 @@
         <v>-5.944444444444445</v>
       </c>
       <c r="H47" t="n">
-        <v>-9.199999999999999</v>
+        <v>-22.88888888888889</v>
       </c>
       <c r="I47" t="n">
         <v>101.89</v>
@@ -3425,7 +3425,7 @@
         <v>0.01016</v>
       </c>
       <c r="S47" t="n">
-        <v>77.75050121718509</v>
+        <v>24.87919687114216</v>
       </c>
     </row>
     <row r="48">
@@ -3455,7 +3455,7 @@
         <v>-4.777777777777779</v>
       </c>
       <c r="H48" t="n">
-        <v>-12.3</v>
+        <v>-24.61111111111111</v>
       </c>
       <c r="I48" t="n">
         <v>101.46</v>
@@ -3488,7 +3488,7 @@
         <v>0.01016</v>
       </c>
       <c r="S48" t="n">
-        <v>55.63211752972379</v>
+        <v>19.53217506530004</v>
       </c>
     </row>
     <row r="49">
@@ -3518,7 +3518,7 @@
         <v>-8.277777777777777</v>
       </c>
       <c r="H49" t="n">
-        <v>-11.3</v>
+        <v>-24.05555555555555</v>
       </c>
       <c r="I49" t="n">
         <v>102.12</v>
@@ -3551,7 +3551,7 @@
         <v>0.01016</v>
       </c>
       <c r="S49" t="n">
-        <v>78.81403149509833</v>
+        <v>26.84315176127231</v>
       </c>
     </row>
     <row r="50">
@@ -3581,7 +3581,7 @@
         <v>-10.16666666666667</v>
       </c>
       <c r="H50" t="n">
-        <v>-13.5</v>
+        <v>-25.27777777777778</v>
       </c>
       <c r="I50" t="n">
         <v>103.35</v>
@@ -3614,7 +3614,7 @@
         <v>0.01016</v>
       </c>
       <c r="S50" t="n">
-        <v>76.54854807679101</v>
+        <v>27.89011539202171</v>
       </c>
     </row>
     <row r="51">
@@ -3644,7 +3644,7 @@
         <v>-10.77777777777778</v>
       </c>
       <c r="H51" t="n">
-        <v>-16.6</v>
+        <v>-27</v>
       </c>
       <c r="I51" t="n">
         <v>103.48</v>
@@ -3677,7 +3677,7 @@
         <v>0.01016</v>
       </c>
       <c r="S51" t="n">
-        <v>62.2253363910574</v>
+        <v>25.02437080031539</v>
       </c>
     </row>
     <row r="52">
@@ -3707,7 +3707,7 @@
         <v>-10.11111111111111</v>
       </c>
       <c r="H52" t="n">
-        <v>-11.5</v>
+        <v>-24.16666666666667</v>
       </c>
       <c r="I52" t="n">
         <v>103.14</v>
@@ -3740,7 +3740,7 @@
         <v>0.01016</v>
       </c>
       <c r="S52" t="n">
-        <v>89.55064213531745</v>
+        <v>30.68473892143057</v>
       </c>
     </row>
     <row r="53">
@@ -3770,7 +3770,7 @@
         <v>-10.11111111111111</v>
       </c>
       <c r="H53" t="n">
-        <v>-14.1</v>
+        <v>-25.61111111111111</v>
       </c>
       <c r="I53" t="n">
         <v>103.46</v>
@@ -3803,7 +3803,7 @@
         <v>0.01016</v>
       </c>
       <c r="S53" t="n">
-        <v>72.57400782446459</v>
+        <v>26.94289257918009</v>
       </c>
     </row>
     <row r="54">
@@ -3833,7 +3833,7 @@
         <v>-9.055555555555557</v>
       </c>
       <c r="H54" t="n">
-        <v>-23.3</v>
+        <v>-30.72222222222222</v>
       </c>
       <c r="I54" t="n">
         <v>103.01</v>
@@ -3866,7 +3866,7 @@
         <v>0.01016</v>
       </c>
       <c r="S54" t="n">
-        <v>30.50743753644419</v>
+        <v>15.43096662145178</v>
       </c>
     </row>
     <row r="55">
@@ -3896,7 +3896,7 @@
         <v>-8.444444444444445</v>
       </c>
       <c r="H55" t="n">
-        <v>-25</v>
+        <v>-31.66666666666667</v>
       </c>
       <c r="I55" t="n">
         <v>103.11</v>
@@ -3929,7 +3929,7 @@
         <v>0.01016</v>
       </c>
       <c r="S55" t="n">
-        <v>24.98389304855744</v>
+        <v>13.4436524113789</v>
       </c>
     </row>
     <row r="56">
@@ -3959,7 +3959,7 @@
         <v>-7.111111111111112</v>
       </c>
       <c r="H56" t="n">
-        <v>-21.8</v>
+        <v>-29.88888888888889</v>
       </c>
       <c r="I56" t="n">
         <v>102.99</v>
@@ -3992,7 +3992,7 @@
         <v>0.01016</v>
       </c>
       <c r="S56" t="n">
-        <v>29.94054265714231</v>
+        <v>14.35792889858283</v>
       </c>
     </row>
     <row r="57">
@@ -4022,7 +4022,7 @@
         <v>-6.000000000000001</v>
       </c>
       <c r="H57" t="n">
-        <v>-21.7</v>
+        <v>-29.83333333333334</v>
       </c>
       <c r="I57" t="n">
         <v>102.87</v>
@@ -4055,7 +4055,7 @@
         <v>0.01016</v>
       </c>
       <c r="S57" t="n">
-        <v>27.73818660746315</v>
+        <v>13.25514923734234</v>
       </c>
     </row>
     <row r="58">
@@ -4085,7 +4085,7 @@
         <v>-5.88888888888889</v>
       </c>
       <c r="H58" t="n">
-        <v>-19.8</v>
+        <v>-28.77777777777778</v>
       </c>
       <c r="I58" t="n">
         <v>102.29</v>
@@ -4118,7 +4118,7 @@
         <v>0.01016</v>
       </c>
       <c r="S58" t="n">
-        <v>32.43059335804379</v>
+        <v>14.51100284656998</v>
       </c>
     </row>
     <row r="59">
@@ -4148,7 +4148,7 @@
         <v>-5</v>
       </c>
       <c r="H59" t="n">
-        <v>-9.4</v>
+        <v>-23</v>
       </c>
       <c r="I59" t="n">
         <v>102.4</v>
@@ -4181,7 +4181,7 @@
         <v>0.01016</v>
       </c>
       <c r="S59" t="n">
-        <v>71.2427555338474</v>
+        <v>22.93080460465528</v>
       </c>
     </row>
     <row r="60">
@@ -4211,7 +4211,7 @@
         <v>-4.833333333333333</v>
       </c>
       <c r="H60" t="n">
-        <v>-1.6</v>
+        <v>-18.66666666666667</v>
       </c>
       <c r="I60" t="n">
         <v>102.66</v>
@@ -4244,7 +4244,7 @@
         <v>0.01016</v>
       </c>
       <c r="S60" t="n">
-        <v>127.2479599061325</v>
+        <v>32.98226890767394</v>
       </c>
     </row>
     <row r="61">
@@ -4274,7 +4274,7 @@
         <v>-3.611111111111111</v>
       </c>
       <c r="H61" t="n">
-        <v>-5</v>
+        <v>-20.55555555555556</v>
       </c>
       <c r="I61" t="n">
         <v>102.31</v>
@@ -4307,7 +4307,7 @@
         <v>0.01016</v>
       </c>
       <c r="S61" t="n">
-        <v>90.08206913018162</v>
+        <v>25.5843598430375</v>
       </c>
     </row>
     <row r="62">
@@ -4337,7 +4337,7 @@
         <v>-4.888888888888889</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>-17.77777777777778</v>
       </c>
       <c r="I62" t="n">
         <v>102.54</v>
@@ -4370,7 +4370,7 @@
         <v>0.01016</v>
       </c>
       <c r="S62" t="n">
-        <v>143.6255789143615</v>
+        <v>35.71349908777756</v>
       </c>
     </row>
     <row r="63">
@@ -4400,7 +4400,7 @@
         <v>-3.222222222222223</v>
       </c>
       <c r="H63" t="n">
-        <v>-4.7</v>
+        <v>-20.38888888888889</v>
       </c>
       <c r="I63" t="n">
         <v>102.45</v>
@@ -4433,7 +4433,7 @@
         <v>0.01016</v>
       </c>
       <c r="S63" t="n">
-        <v>89.51047466443538</v>
+        <v>25.21322326128212</v>
       </c>
     </row>
     <row r="64">
@@ -4463,7 +4463,7 @@
         <v>-2.944444444444445</v>
       </c>
       <c r="H64" t="n">
-        <v>-8</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="I64" t="n">
         <v>102.26</v>
@@ -4496,7 +4496,7 @@
         <v>0.01016</v>
       </c>
       <c r="S64" t="n">
-        <v>68.11513761730988</v>
+        <v>21.05025024101445</v>
       </c>
     </row>
     <row r="65">
@@ -4526,7 +4526,7 @@
         <v>-2.777777777777778</v>
       </c>
       <c r="H65" t="n">
-        <v>-8.6</v>
+        <v>-22.55555555555556</v>
       </c>
       <c r="I65" t="n">
         <v>102.41</v>
@@ -4559,7 +4559,7 @@
         <v>0.01016</v>
       </c>
       <c r="S65" t="n">
-        <v>64.20932128442581</v>
+        <v>20.19011627945861</v>
       </c>
     </row>
     <row r="66">
@@ -4589,7 +4589,7 @@
         <v>-1.222222222222222</v>
       </c>
       <c r="H66" t="n">
-        <v>-12.2</v>
+        <v>-24.55555555555556</v>
       </c>
       <c r="I66" t="n">
         <v>102.42</v>
@@ -4622,7 +4622,7 @@
         <v>0.01016</v>
       </c>
       <c r="S66" t="n">
-        <v>43.04731739958152</v>
+        <v>15.06756231730999</v>
       </c>
     </row>
     <row r="67">
@@ -4652,7 +4652,7 @@
         <v>3.277777777777777</v>
       </c>
       <c r="H67" t="n">
-        <v>-7.2</v>
+        <v>-21.77777777777778</v>
       </c>
       <c r="I67" t="n">
         <v>101.29</v>
@@ -4685,7 +4685,7 @@
         <v>0.01016</v>
       </c>
       <c r="S67" t="n">
-        <v>46.15805629649158</v>
+        <v>13.94201343371207</v>
       </c>
     </row>
     <row r="68">
@@ -4715,7 +4715,7 @@
         <v>3.555555555555555</v>
       </c>
       <c r="H68" t="n">
-        <v>4.8</v>
+        <v>-15.11111111111111</v>
       </c>
       <c r="I68" t="n">
         <v>101.39</v>
@@ -4748,7 +4748,7 @@
         <v>0.01016</v>
       </c>
       <c r="S68" t="n">
-        <v>109.1207644523958</v>
+        <v>24.08890609120532</v>
       </c>
     </row>
     <row r="69">
@@ -4778,7 +4778,7 @@
         <v>5</v>
       </c>
       <c r="H69" t="n">
-        <v>1.6</v>
+        <v>-16.88888888888889</v>
       </c>
       <c r="I69" t="n">
         <v>101.03</v>
@@ -4811,7 +4811,7 @@
         <v>0.01016</v>
       </c>
       <c r="S69" t="n">
-        <v>78.64828501596077</v>
+        <v>18.77875127317153</v>
       </c>
     </row>
     <row r="70">
@@ -4841,7 +4841,7 @@
         <v>5.611111111111112</v>
       </c>
       <c r="H70" t="n">
-        <v>-5.4</v>
+        <v>-20.77777777777778</v>
       </c>
       <c r="I70" t="n">
         <v>100.88</v>
@@ -4874,7 +4874,7 @@
         <v>0.01016</v>
       </c>
       <c r="S70" t="n">
-        <v>44.98882503447776</v>
+        <v>12.91934360444676</v>
       </c>
     </row>
     <row r="71">
@@ -4904,7 +4904,7 @@
         <v>4.111111111111111</v>
       </c>
       <c r="H71" t="n">
-        <v>-10.2</v>
+        <v>-23.44444444444445</v>
       </c>
       <c r="I71" t="n">
         <v>101.25</v>
@@ -4937,7 +4937,7 @@
         <v>0.01016</v>
       </c>
       <c r="S71" t="n">
-        <v>34.44113667486492</v>
+        <v>11.35040825075316</v>
       </c>
     </row>
     <row r="72">
@@ -4967,7 +4967,7 @@
         <v>6.777777777777779</v>
       </c>
       <c r="H72" t="n">
-        <v>-10.9</v>
+        <v>-23.83333333333333</v>
       </c>
       <c r="I72" t="n">
         <v>100.76</v>
@@ -5000,7 +5000,7 @@
         <v>0.01016</v>
       </c>
       <c r="S72" t="n">
-        <v>27.07483479900994</v>
+        <v>9.111102851629269</v>
       </c>
     </row>
     <row r="73">
@@ -5030,7 +5030,7 @@
         <v>7.222222222222222</v>
       </c>
       <c r="H73" t="n">
-        <v>9.6</v>
+        <v>-12.44444444444444</v>
       </c>
       <c r="I73" t="n">
         <v>101.18</v>
@@ -5063,7 +5063,7 @@
         <v>0.01016</v>
       </c>
       <c r="S73" t="n">
-        <v>117.494468783899</v>
+        <v>23.20768891959072</v>
       </c>
     </row>
     <row r="74">
@@ -5093,7 +5093,7 @@
         <v>6.277777777777777</v>
       </c>
       <c r="H74" t="n">
-        <v>10.9</v>
+        <v>-11.72222222222222</v>
       </c>
       <c r="I74" t="n">
         <v>101.29</v>
@@ -5126,7 +5126,7 @@
         <v>0.01016</v>
       </c>
       <c r="S74" t="n">
-        <v>136.749304320542</v>
+        <v>26.24294473694538</v>
       </c>
     </row>
     <row r="75">
@@ -5156,7 +5156,7 @@
         <v>4.111111111111111</v>
       </c>
       <c r="H75" t="n">
-        <v>14.3</v>
+        <v>-9.833333333333334</v>
       </c>
       <c r="I75" t="n">
         <v>101.12</v>
@@ -5189,7 +5189,7 @@
         <v>0.01016</v>
       </c>
       <c r="S75" t="n">
-        <v>198.7279884186277</v>
+        <v>35.45241866127301</v>
       </c>
     </row>
     <row r="76">
@@ -5219,7 +5219,7 @@
         <v>4.388888888888888</v>
       </c>
       <c r="H76" t="n">
-        <v>10.6</v>
+        <v>-11.88888888888889</v>
       </c>
       <c r="I76" t="n">
         <v>101.31</v>
@@ -5252,7 +5252,7 @@
         <v>0.01016</v>
       </c>
       <c r="S76" t="n">
-        <v>152.847536629948</v>
+        <v>29.52680280733804</v>
       </c>
     </row>
     <row r="77">
@@ -5282,7 +5282,7 @@
         <v>8.722222222222225</v>
       </c>
       <c r="H77" t="n">
-        <v>3.4</v>
+        <v>-15.88888888888889</v>
       </c>
       <c r="I77" t="n">
         <v>100.9</v>
@@ -5315,7 +5315,7 @@
         <v>0.01016</v>
       </c>
       <c r="S77" t="n">
-        <v>69.23069980318357</v>
+        <v>15.80967857138979</v>
       </c>
     </row>
     <row r="78">
@@ -5345,7 +5345,7 @@
         <v>11.61111111111111</v>
       </c>
       <c r="H78" t="n">
-        <v>-6</v>
+        <v>-21.11111111111111</v>
       </c>
       <c r="I78" t="n">
         <v>99.97999999999999</v>
@@ -5378,7 +5378,7 @@
         <v>0.01016</v>
       </c>
       <c r="S78" t="n">
-        <v>28.63239915426075</v>
+        <v>8.36074015260413</v>
       </c>
     </row>
     <row r="79">
@@ -5408,7 +5408,7 @@
         <v>8.888888888888889</v>
       </c>
       <c r="H79" t="n">
-        <v>1.4</v>
+        <v>-17</v>
       </c>
       <c r="I79" t="n">
         <v>99.83</v>
@@ -5441,7 +5441,7 @@
         <v>0.01016</v>
       </c>
       <c r="S79" t="n">
-        <v>59.37437828956599</v>
+        <v>14.24811999159442</v>
       </c>
     </row>
     <row r="80">
@@ -5471,7 +5471,7 @@
         <v>5.277777777777778</v>
       </c>
       <c r="H80" t="n">
-        <v>16.1</v>
+        <v>-8.833333333333332</v>
       </c>
       <c r="I80" t="n">
         <v>100.39</v>
@@ -5504,7 +5504,7 @@
         <v>0.01016</v>
       </c>
       <c r="S80" t="n">
-        <v>205.6490124149425</v>
+        <v>35.34543444824803</v>
       </c>
     </row>
     <row r="81">
@@ -5534,7 +5534,7 @@
         <v>4.777777777777779</v>
       </c>
       <c r="H81" t="n">
-        <v>15.6</v>
+        <v>-9.111111111111111</v>
       </c>
       <c r="I81" t="n">
         <v>101.05</v>
@@ -5567,7 +5567,7 @@
         <v>0.01016</v>
       </c>
       <c r="S81" t="n">
-        <v>206.2351565904552</v>
+        <v>35.8115403629944</v>
       </c>
     </row>
     <row r="82">
@@ -5597,7 +5597,7 @@
         <v>4.944444444444444</v>
       </c>
       <c r="H82" t="n">
-        <v>-1</v>
+        <v>-18.33333333333334</v>
       </c>
       <c r="I82" t="n">
         <v>101.33</v>
@@ -5630,7 +5630,7 @@
         <v>0.01016</v>
       </c>
       <c r="S82" t="n">
-        <v>65.40788111775599</v>
+        <v>16.68978193257691</v>
       </c>
     </row>
     <row r="83">
@@ -5660,7 +5660,7 @@
         <v>6.500000000000002</v>
       </c>
       <c r="H83" t="n">
-        <v>-3.9</v>
+        <v>-19.94444444444444</v>
       </c>
       <c r="I83" t="n">
         <v>100.43</v>
@@ -5693,7 +5693,7 @@
         <v>0.01016</v>
       </c>
       <c r="S83" t="n">
-        <v>47.37683160737636</v>
+        <v>13.05702404187315</v>
       </c>
     </row>
     <row r="84">
@@ -5723,7 +5723,7 @@
         <v>4.055555555555554</v>
       </c>
       <c r="H84" t="n">
-        <v>8.1</v>
+        <v>-13.27777777777778</v>
       </c>
       <c r="I84" t="n">
         <v>100.53</v>
@@ -5756,7 +5756,7 @@
         <v>0.01016</v>
       </c>
       <c r="S84" t="n">
-        <v>132.2323134510809</v>
+        <v>27.02055842056368</v>
       </c>
     </row>
     <row r="85">
@@ -5786,7 +5786,7 @@
         <v>1.444444444444445</v>
       </c>
       <c r="H85" t="n">
-        <v>9.199999999999999</v>
+        <v>-12.66666666666667</v>
       </c>
       <c r="I85" t="n">
         <v>101.66</v>
@@ -5819,7 +5819,7 @@
         <v>0.01016</v>
       </c>
       <c r="S85" t="n">
-        <v>171.4476475123693</v>
+        <v>34.17014667031321</v>
       </c>
     </row>
     <row r="86">
@@ -5849,7 +5849,7 @@
         <v>1.444444444444445</v>
       </c>
       <c r="H86" t="n">
-        <v>-2.2</v>
+        <v>-19</v>
       </c>
       <c r="I86" t="n">
         <v>102.13</v>
@@ -5882,7 +5882,7 @@
         <v>0.01016</v>
       </c>
       <c r="S86" t="n">
-        <v>76.69736282558004</v>
+        <v>20.19657664151905</v>
       </c>
     </row>
     <row r="87">
@@ -5912,7 +5912,7 @@
         <v>3.722222222222224</v>
       </c>
       <c r="H87" t="n">
-        <v>-5.4</v>
+        <v>-20.77777777777778</v>
       </c>
       <c r="I87" t="n">
         <v>101.04</v>
@@ -5945,7 +5945,7 @@
         <v>0.01016</v>
       </c>
       <c r="S87" t="n">
-        <v>51.33536568923716</v>
+        <v>14.7418659609562</v>
       </c>
     </row>
     <row r="88">
@@ -5975,7 +5975,7 @@
         <v>4.277777777777779</v>
       </c>
       <c r="H88" t="n">
-        <v>6.9</v>
+        <v>-13.94444444444445</v>
       </c>
       <c r="I88" t="n">
         <v>101.04</v>
@@ -6008,7 +6008,7 @@
         <v>0.01016</v>
       </c>
       <c r="S88" t="n">
-        <v>119.943176667759</v>
+        <v>25.19722614320878</v>
       </c>
     </row>
     <row r="89">
@@ -6038,7 +6038,7 @@
         <v>4.61111111111111</v>
       </c>
       <c r="H89" t="n">
-        <v>2.9</v>
+        <v>-16.16666666666667</v>
       </c>
       <c r="I89" t="n">
         <v>101.21</v>
@@ -6071,7 +6071,7 @@
         <v>0.01016</v>
       </c>
       <c r="S89" t="n">
-        <v>88.65410793663418</v>
+        <v>20.49507760329409</v>
       </c>
     </row>
     <row r="90">
@@ -6101,7 +6101,7 @@
         <v>1.055555555555555</v>
       </c>
       <c r="H90" t="n">
-        <v>9.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I90" t="n">
         <v>102.72</v>
@@ -6134,7 +6134,7 @@
         <v>0.01016</v>
       </c>
       <c r="S90" t="n">
-        <v>179.8999034140935</v>
+        <v>35.61381944482609</v>
       </c>
     </row>
     <row r="91">
@@ -6164,7 +6164,7 @@
         <v>0.6666666666666683</v>
       </c>
       <c r="H91" t="n">
-        <v>4.5</v>
+        <v>-15.27777777777778</v>
       </c>
       <c r="I91" t="n">
         <v>103.28</v>
@@ -6197,7 +6197,7 @@
         <v>0.01016</v>
       </c>
       <c r="S91" t="n">
-        <v>131.3084915625566</v>
+        <v>29.19652145467729</v>
       </c>
     </row>
     <row r="92">
@@ -6227,7 +6227,7 @@
         <v>2.222222222222222</v>
       </c>
       <c r="H92" t="n">
-        <v>-4.3</v>
+        <v>-20.16666666666666</v>
       </c>
       <c r="I92" t="n">
         <v>102.99</v>
@@ -6260,7 +6260,7 @@
         <v>0.01016</v>
       </c>
       <c r="S92" t="n">
-        <v>62.03649400720117</v>
+        <v>17.28422989661175</v>
       </c>
     </row>
     <row r="93">
@@ -6290,7 +6290,7 @@
         <v>4.500000000000001</v>
       </c>
       <c r="H93" t="n">
-        <v>-7.7</v>
+        <v>-22.05555555555556</v>
       </c>
       <c r="I93" t="n">
         <v>101.94</v>
@@ -6323,7 +6323,7 @@
         <v>0.01016</v>
       </c>
       <c r="S93" t="n">
-        <v>40.75322623121072</v>
+        <v>12.48637451364284</v>
       </c>
     </row>
     <row r="94">
@@ -6353,7 +6353,7 @@
         <v>3.055555555555556</v>
       </c>
       <c r="H94" t="n">
-        <v>-1</v>
+        <v>-18.33333333333334</v>
       </c>
       <c r="I94" t="n">
         <v>102.08</v>
@@ -6386,7 +6386,7 @@
         <v>0.01016</v>
       </c>
       <c r="S94" t="n">
-        <v>74.68807420007529</v>
+        <v>19.05775955529296</v>
       </c>
     </row>
     <row r="95">
@@ -6416,7 +6416,7 @@
         <v>3.055555555555556</v>
       </c>
       <c r="H95" t="n">
-        <v>-1.4</v>
+        <v>-18.55555555555556</v>
       </c>
       <c r="I95" t="n">
         <v>102.63</v>
@@ -6449,7 +6449,7 @@
         <v>0.01016</v>
       </c>
       <c r="S95" t="n">
-        <v>72.53037883681493</v>
+        <v>18.70137183319288</v>
       </c>
     </row>
     <row r="96">
@@ -6479,7 +6479,7 @@
         <v>3.666666666666667</v>
       </c>
       <c r="H96" t="n">
-        <v>-6.5</v>
+        <v>-21.38888888888889</v>
       </c>
       <c r="I96" t="n">
         <v>102.63</v>
@@ -6512,7 +6512,7 @@
         <v>0.01016</v>
       </c>
       <c r="S96" t="n">
-        <v>47.39037347876091</v>
+        <v>14.0335525905425</v>
       </c>
     </row>
     <row r="97">
@@ -6542,7 +6542,7 @@
         <v>6.166666666666668</v>
       </c>
       <c r="H97" t="n">
-        <v>-9.5</v>
+        <v>-23.05555555555556</v>
       </c>
       <c r="I97" t="n">
         <v>102.29</v>
@@ -6575,7 +6575,7 @@
         <v>0.01016</v>
       </c>
       <c r="S97" t="n">
-        <v>31.54315059389638</v>
+        <v>10.18261025552822</v>
       </c>
     </row>
     <row r="98">
@@ -6605,7 +6605,7 @@
         <v>5.722222222222221</v>
       </c>
       <c r="H98" t="n">
-        <v>-10.1</v>
+        <v>-23.38888888888889</v>
       </c>
       <c r="I98" t="n">
         <v>101.94</v>
@@ -6638,7 +6638,7 @@
         <v>0.01016</v>
       </c>
       <c r="S98" t="n">
-        <v>31.0258649897805</v>
+        <v>10.19458369401388</v>
       </c>
     </row>
     <row r="99">
@@ -6668,7 +6668,7 @@
         <v>7.388888888888888</v>
       </c>
       <c r="H99" t="n">
-        <v>-10.6</v>
+        <v>-23.66666666666667</v>
       </c>
       <c r="I99" t="n">
         <v>101.54</v>
@@ -6701,7 +6701,7 @@
         <v>0.01016</v>
       </c>
       <c r="S99" t="n">
-        <v>26.59059058046349</v>
+        <v>8.868175139591676</v>
       </c>
     </row>
     <row r="100">
@@ -6731,7 +6731,7 @@
         <v>9.333333333333332</v>
       </c>
       <c r="H100" t="n">
-        <v>-7.8</v>
+        <v>-22.11111111111111</v>
       </c>
       <c r="I100" t="n">
         <v>100.68</v>
@@ -6764,7 +6764,7 @@
         <v>0.01016</v>
       </c>
       <c r="S100" t="n">
-        <v>29.02422927759575</v>
+        <v>8.918250906217432</v>
       </c>
     </row>
     <row r="101">
@@ -6794,7 +6794,7 @@
         <v>8.555555555555555</v>
       </c>
       <c r="H101" t="n">
-        <v>12.2</v>
+        <v>-11</v>
       </c>
       <c r="I101" t="n">
         <v>100.9</v>
@@ -6827,7 +6827,7 @@
         <v>0.01016</v>
       </c>
       <c r="S101" t="n">
-        <v>127.5449585973497</v>
+        <v>23.79308528331998</v>
       </c>
     </row>
     <row r="102">
@@ -6857,7 +6857,7 @@
         <v>7.888888888888891</v>
       </c>
       <c r="H102" t="n">
-        <v>12.8</v>
+        <v>-10.66666666666667</v>
       </c>
       <c r="I102" t="n">
         <v>101.15</v>
@@ -6890,7 +6890,7 @@
         <v>0.01016</v>
       </c>
       <c r="S102" t="n">
-        <v>138.8133144577085</v>
+        <v>25.56330754159574</v>
       </c>
     </row>
     <row r="103">
@@ -6920,7 +6920,7 @@
         <v>8.722222222222225</v>
       </c>
       <c r="H103" t="n">
-        <v>11.9</v>
+        <v>-11.16666666666667</v>
       </c>
       <c r="I103" t="n">
         <v>100.84</v>
@@ -6953,7 +6953,7 @@
         <v>0.01016</v>
       </c>
       <c r="S103" t="n">
-        <v>123.646125064065</v>
+        <v>23.21595258097119</v>
       </c>
     </row>
     <row r="104">
@@ -6983,7 +6983,7 @@
         <v>9.27777777777778</v>
       </c>
       <c r="H104" t="n">
-        <v>16.7</v>
+        <v>-8.5</v>
       </c>
       <c r="I104" t="n">
         <v>100.42</v>
@@ -7016,7 +7016,7 @@
         <v>0.01016</v>
       </c>
       <c r="S104" t="n">
-        <v>162.5049157735236</v>
+        <v>27.59115564341382</v>
       </c>
     </row>
     <row r="105">
@@ -7046,7 +7046,7 @@
         <v>7.222222222222222</v>
       </c>
       <c r="H105" t="n">
-        <v>12.5</v>
+        <v>-10.83333333333333</v>
       </c>
       <c r="I105" t="n">
         <v>100.58</v>
@@ -7079,7 +7079,7 @@
         <v>0.01016</v>
       </c>
       <c r="S105" t="n">
-        <v>142.4465613967662</v>
+        <v>26.40175274686504</v>
       </c>
     </row>
     <row r="106">
@@ -7109,7 +7109,7 @@
         <v>5.166666666666665</v>
       </c>
       <c r="H106" t="n">
-        <v>5.3</v>
+        <v>-14.83333333333333</v>
       </c>
       <c r="I106" t="n">
         <v>101.1</v>
@@ -7142,7 +7142,7 @@
         <v>0.01016</v>
       </c>
       <c r="S106" t="n">
-        <v>100.9315826691345</v>
+        <v>22.0166797788531</v>
       </c>
     </row>
     <row r="107">
@@ -7172,7 +7172,7 @@
         <v>3.38888888888889</v>
       </c>
       <c r="H107" t="n">
-        <v>3.6</v>
+        <v>-15.77777777777778</v>
       </c>
       <c r="I107" t="n">
         <v>101.7</v>
@@ -7205,7 +7205,7 @@
         <v>0.01016</v>
       </c>
       <c r="S107" t="n">
-        <v>101.5000629459297</v>
+        <v>23.06591178886477</v>
       </c>
     </row>
     <row r="108">
@@ -7235,7 +7235,7 @@
         <v>1.055555555555555</v>
       </c>
       <c r="H108" t="n">
-        <v>-12.7</v>
+        <v>-24.83333333333334</v>
       </c>
       <c r="I108" t="n">
         <v>102.41</v>
@@ -7268,7 +7268,7 @@
         <v>0.01016</v>
       </c>
       <c r="S108" t="n">
-        <v>35.04360774762457</v>
+        <v>12.45562586344862</v>
       </c>
     </row>
     <row r="109">
@@ -7298,7 +7298,7 @@
         <v>2.944444444444443</v>
       </c>
       <c r="H109" t="n">
-        <v>-1.2</v>
+        <v>-18.44444444444445</v>
       </c>
       <c r="I109" t="n">
         <v>102.38</v>
@@ -7331,7 +7331,7 @@
         <v>0.01016</v>
       </c>
       <c r="S109" t="n">
-        <v>74.18358996911934</v>
+        <v>19.02793531458394</v>
       </c>
     </row>
     <row r="110">
@@ -7361,7 +7361,7 @@
         <v>7.11111111111111</v>
       </c>
       <c r="H110" t="n">
-        <v>-6</v>
+        <v>-21.11111111111111</v>
       </c>
       <c r="I110" t="n">
         <v>101.69</v>
@@ -7394,7 +7394,7 @@
         <v>0.01016</v>
       </c>
       <c r="S110" t="n">
-        <v>38.75975503975212</v>
+        <v>11.31795622574411</v>
       </c>
     </row>
     <row r="111">
@@ -7424,7 +7424,7 @@
         <v>9.777777777777779</v>
       </c>
       <c r="H111" t="n">
-        <v>-5.9</v>
+        <v>-21.05555555555556</v>
       </c>
       <c r="I111" t="n">
         <v>100.25</v>
@@ -7457,7 +7457,7 @@
         <v>0.01016</v>
       </c>
       <c r="S111" t="n">
-        <v>32.59781753177597</v>
+        <v>9.492107384983353</v>
       </c>
     </row>
     <row r="112">
@@ -7487,7 +7487,7 @@
         <v>8.888888888888889</v>
       </c>
       <c r="H112" t="n">
-        <v>5.5</v>
+        <v>-14.72222222222222</v>
       </c>
       <c r="I112" t="n">
         <v>100.4</v>
@@ -7520,7 +7520,7 @@
         <v>0.01016</v>
       </c>
       <c r="S112" t="n">
-        <v>79.29311779916617</v>
+        <v>17.21458318202133</v>
       </c>
     </row>
     <row r="113">
@@ -7550,7 +7550,7 @@
         <v>12.44444444444444</v>
       </c>
       <c r="H113" t="n">
-        <v>11.4</v>
+        <v>-11.44444444444445</v>
       </c>
       <c r="I113" t="n">
         <v>100.29</v>
@@ -7583,7 +7583,7 @@
         <v>0.01016</v>
       </c>
       <c r="S113" t="n">
-        <v>93.3436883058104</v>
+        <v>17.71801265937945</v>
       </c>
     </row>
     <row r="114">
@@ -7613,7 +7613,7 @@
         <v>8.722222222222225</v>
       </c>
       <c r="H114" t="n">
-        <v>12.6</v>
+        <v>-10.77777777777778</v>
       </c>
       <c r="I114" t="n">
         <v>100.71</v>
@@ -7646,7 +7646,7 @@
         <v>0.01016</v>
       </c>
       <c r="S114" t="n">
-        <v>129.4728025716083</v>
+        <v>23.94563764762031</v>
       </c>
     </row>
     <row r="115">
@@ -7676,7 +7676,7 @@
         <v>9.500000000000002</v>
       </c>
       <c r="H115" t="n">
-        <v>15.9</v>
+        <v>-8.944444444444446</v>
       </c>
       <c r="I115" t="n">
         <v>100.79</v>
@@ -7709,7 +7709,7 @@
         <v>0.01016</v>
       </c>
       <c r="S115" t="n">
-        <v>152.1337483681619</v>
+        <v>26.25487531393302</v>
       </c>
     </row>
     <row r="116">
@@ -7739,7 +7739,7 @@
         <v>9.555555555555557</v>
       </c>
       <c r="H116" t="n">
-        <v>18.8</v>
+        <v>-7.333333333333333</v>
       </c>
       <c r="I116" t="n">
         <v>100.49</v>
@@ -7772,7 +7772,7 @@
         <v>0.01016</v>
       </c>
       <c r="S116" t="n">
-        <v>182.0737957407243</v>
+        <v>29.64395606087729</v>
       </c>
     </row>
     <row r="117">
@@ -7802,7 +7802,7 @@
         <v>6.500000000000002</v>
       </c>
       <c r="H117" t="n">
-        <v>21.7</v>
+        <v>-5.722222222222223</v>
       </c>
       <c r="I117" t="n">
         <v>100.98</v>
@@ -7835,7 +7835,7 @@
         <v>0.01016</v>
       </c>
       <c r="S117" t="n">
-        <v>268.1639647706097</v>
+        <v>41.28561790938679</v>
       </c>
     </row>
     <row r="118">
@@ -7865,7 +7865,7 @@
         <v>6.500000000000002</v>
       </c>
       <c r="H118" t="n">
-        <v>14.8</v>
+        <v>-9.555555555555555</v>
       </c>
       <c r="I118" t="n">
         <v>101.29</v>
@@ -7898,7 +7898,7 @@
         <v>0.01016</v>
       </c>
       <c r="S118" t="n">
-        <v>173.8513849513477</v>
+        <v>30.69230223273022</v>
       </c>
     </row>
     <row r="119">
@@ -7928,7 +7928,7 @@
         <v>6.777777777777779</v>
       </c>
       <c r="H119" t="n">
-        <v>19.5</v>
+        <v>-6.944444444444445</v>
       </c>
       <c r="I119" t="n">
         <v>101.09</v>
@@ -7961,7 +7961,7 @@
         <v>0.01016</v>
       </c>
       <c r="S119" t="n">
-        <v>229.7017258624034</v>
+        <v>36.88920987313435</v>
       </c>
     </row>
     <row r="120">
@@ -7991,7 +7991,7 @@
         <v>0.9444444444444461</v>
       </c>
       <c r="H120" t="n">
-        <v>16.8</v>
+        <v>-8.444444444444445</v>
       </c>
       <c r="I120" t="n">
         <v>102.62</v>
@@ -8024,7 +8024,7 @@
         <v>0.01016</v>
       </c>
       <c r="S120" t="n">
-        <v>292.1705443149112</v>
+        <v>49.5062759210481</v>
       </c>
     </row>
     <row r="121">
@@ -8054,7 +8054,7 @@
         <v>0.05555555555555635</v>
       </c>
       <c r="H121" t="n">
-        <v>7.4</v>
+        <v>-13.66666666666667</v>
       </c>
       <c r="I121" t="n">
         <v>103.13</v>
@@ -8087,7 +8087,7 @@
         <v>0.01016</v>
       </c>
       <c r="S121" t="n">
-        <v>167.7199223409236</v>
+        <v>34.82800166471565</v>
       </c>
     </row>
     <row r="122">
@@ -8117,7 +8117,7 @@
         <v>3.166666666666668</v>
       </c>
       <c r="H122" t="n">
-        <v>-10.7</v>
+        <v>-23.72222222222222</v>
       </c>
       <c r="I122" t="n">
         <v>102.45</v>
@@ -8150,7 +8150,7 @@
         <v>0.01016</v>
       </c>
       <c r="S122" t="n">
-        <v>35.38094964046741</v>
+        <v>11.83514288957846</v>
       </c>
     </row>
     <row r="123">
@@ -8180,7 +8180,7 @@
         <v>7.555555555555556</v>
       </c>
       <c r="H123" t="n">
-        <v>-8.6</v>
+        <v>-22.55555555555556</v>
       </c>
       <c r="I123" t="n">
         <v>101.72</v>
@@ -8213,7 +8213,7 @@
         <v>0.01016</v>
       </c>
       <c r="S123" t="n">
-        <v>30.76773955226444</v>
+        <v>9.674673813550992</v>
       </c>
     </row>
     <row r="124">
@@ -8243,7 +8243,7 @@
         <v>11.61111111111111</v>
       </c>
       <c r="H124" t="n">
-        <v>-0.4</v>
+        <v>-18</v>
       </c>
       <c r="I124" t="n">
         <v>100.96</v>
@@ -8276,7 +8276,7 @@
         <v>0.01016</v>
       </c>
       <c r="S124" t="n">
-        <v>43.46102064513839</v>
+        <v>10.91866032884337</v>
       </c>
     </row>
     <row r="125">
@@ -8306,7 +8306,7 @@
         <v>14.72222222222222</v>
       </c>
       <c r="H125" t="n">
-        <v>0.5</v>
+        <v>-17.5</v>
       </c>
       <c r="I125" t="n">
         <v>99.95</v>
@@ -8339,7 +8339,7 @@
         <v>0.01016</v>
       </c>
       <c r="S125" t="n">
-        <v>37.86192151770801</v>
+        <v>9.295074804398846</v>
       </c>
     </row>
     <row r="126">
@@ -8369,7 +8369,7 @@
         <v>15.44444444444444</v>
       </c>
       <c r="H126" t="n">
-        <v>3.9</v>
+        <v>-15.61111111111111</v>
       </c>
       <c r="I126" t="n">
         <v>99.64</v>
@@ -8402,7 +8402,7 @@
         <v>0.01016</v>
       </c>
       <c r="S126" t="n">
-        <v>46.05388885656472</v>
+        <v>10.38967266228824</v>
       </c>
     </row>
     <row r="127">
@@ -8432,7 +8432,7 @@
         <v>14.11111111111111</v>
       </c>
       <c r="H127" t="n">
-        <v>21.2</v>
+        <v>-6.000000000000001</v>
       </c>
       <c r="I127" t="n">
         <v>99.97999999999999</v>
@@ -8465,7 +8465,7 @@
         <v>0.01016</v>
       </c>
       <c r="S127" t="n">
-        <v>156.4077419586989</v>
+        <v>24.30942687347097</v>
       </c>
     </row>
     <row r="128">
@@ -8495,7 +8495,7 @@
         <v>9.27777777777778</v>
       </c>
       <c r="H128" t="n">
-        <v>29.1</v>
+        <v>-1.61111111111111</v>
       </c>
       <c r="I128" t="n">
         <v>101.04</v>
@@ -8528,7 +8528,7 @@
         <v>0.01016</v>
       </c>
       <c r="S128" t="n">
-        <v>344.7750558080321</v>
+        <v>46.47577251190118</v>
       </c>
     </row>
     <row r="129">
@@ -8558,7 +8558,7 @@
         <v>13</v>
       </c>
       <c r="H129" t="n">
-        <v>20.6</v>
+        <v>-6.333333333333333</v>
       </c>
       <c r="I129" t="n">
         <v>100.97</v>
@@ -8591,7 +8591,7 @@
         <v>0.01016</v>
       </c>
       <c r="S129" t="n">
-        <v>162.0472584839682</v>
+        <v>25.476395775241</v>
       </c>
     </row>
     <row r="130">
@@ -8621,7 +8621,7 @@
         <v>12.38888888888889</v>
       </c>
       <c r="H130" t="n">
-        <v>21.8</v>
+        <v>-5.666666666666667</v>
       </c>
       <c r="I130" t="n">
         <v>100.76</v>
@@ -8654,7 +8654,7 @@
         <v>0.01016</v>
       </c>
       <c r="S130" t="n">
-        <v>181.5695896053895</v>
+        <v>27.90109874111389</v>
       </c>
     </row>
     <row r="131">
@@ -8684,7 +8684,7 @@
         <v>12.33333333333334</v>
       </c>
       <c r="H131" t="n">
-        <v>17.9</v>
+        <v>-7.833333333333335</v>
       </c>
       <c r="I131" t="n">
         <v>100.69</v>
@@ -8717,7 +8717,7 @@
         <v>0.01016</v>
       </c>
       <c r="S131" t="n">
-        <v>143.0683820658101</v>
+        <v>23.71227230677821</v>
       </c>
     </row>
     <row r="132">
@@ -8747,7 +8747,7 @@
         <v>15.5</v>
       </c>
       <c r="H132" t="n">
-        <v>17.1</v>
+        <v>-8.277777777777777</v>
       </c>
       <c r="I132" t="n">
         <v>100.21</v>
@@ -8780,7 +8780,7 @@
         <v>0.01016</v>
       </c>
       <c r="S132" t="n">
-        <v>110.7378569387197</v>
+        <v>18.65042106619464</v>
       </c>
     </row>
     <row r="133">
@@ -8810,7 +8810,7 @@
         <v>13.44444444444445</v>
       </c>
       <c r="H133" t="n">
-        <v>16.5</v>
+        <v>-8.611111111111111</v>
       </c>
       <c r="I133" t="n">
         <v>99.92999999999999</v>
@@ -8843,7 +8843,7 @@
         <v>0.01016</v>
       </c>
       <c r="S133" t="n">
-        <v>121.7493909873215</v>
+        <v>20.75549067818345</v>
       </c>
     </row>
     <row r="134">
@@ -8873,7 +8873,7 @@
         <v>11.55555555555556</v>
       </c>
       <c r="H134" t="n">
-        <v>19.8</v>
+        <v>-6.777777777777778</v>
       </c>
       <c r="I134" t="n">
         <v>100.41</v>
@@ -8906,7 +8906,7 @@
         <v>0.01016</v>
       </c>
       <c r="S134" t="n">
-        <v>169.5903521286512</v>
+        <v>27.07711973713988</v>
       </c>
     </row>
     <row r="135">
@@ -8936,7 +8936,7 @@
         <v>11</v>
       </c>
       <c r="H135" t="n">
-        <v>19.2</v>
+        <v>-7.111111111111112</v>
       </c>
       <c r="I135" t="n">
         <v>101.02</v>
@@ -8969,7 +8969,7 @@
         <v>0.01016</v>
       </c>
       <c r="S135" t="n">
-        <v>169.5058941768855</v>
+        <v>27.38194651852334</v>
       </c>
     </row>
     <row r="136">
@@ -8999,7 +8999,7 @@
         <v>15.83333333333333</v>
       </c>
       <c r="H136" t="n">
-        <v>4.1</v>
+        <v>-15.5</v>
       </c>
       <c r="I136" t="n">
         <v>100.65</v>
@@ -9032,7 +9032,7 @@
         <v>0.01016</v>
       </c>
       <c r="S136" t="n">
-        <v>45.55603966353507</v>
+        <v>10.22766474294783</v>
       </c>
     </row>
     <row r="137">
@@ -9062,7 +9062,7 @@
         <v>13.72222222222222</v>
       </c>
       <c r="H137" t="n">
-        <v>3.8</v>
+        <v>-15.66666666666667</v>
       </c>
       <c r="I137" t="n">
         <v>100.16</v>
@@ -9095,7 +9095,7 @@
         <v>0.01016</v>
       </c>
       <c r="S137" t="n">
-        <v>51.11265586891761</v>
+        <v>11.55895999856634</v>
       </c>
     </row>
     <row r="138">
@@ -9125,7 +9125,7 @@
         <v>11.66666666666667</v>
       </c>
       <c r="H138" t="n">
-        <v>1.4</v>
+        <v>-17</v>
       </c>
       <c r="I138" t="n">
         <v>100.51</v>
@@ -9158,7 +9158,7 @@
         <v>0.01016</v>
       </c>
       <c r="S138" t="n">
-        <v>49.31752591260223</v>
+        <v>11.83476858425998</v>
       </c>
     </row>
     <row r="139">
@@ -9188,7 +9188,7 @@
         <v>11.88888888888889</v>
       </c>
       <c r="H139" t="n">
-        <v>7.1</v>
+        <v>-13.83333333333333</v>
       </c>
       <c r="I139" t="n">
         <v>100.93</v>
@@ -9221,7 +9221,7 @@
         <v>0.01016</v>
       </c>
       <c r="S139" t="n">
-        <v>72.47350810378947</v>
+        <v>15.15440509501619</v>
       </c>
     </row>
     <row r="140">
@@ -9251,7 +9251,7 @@
         <v>13.83333333333333</v>
       </c>
       <c r="H140" t="n">
-        <v>12.9</v>
+        <v>-10.61111111111111</v>
       </c>
       <c r="I140" t="n">
         <v>100.74</v>
@@ -9284,7 +9284,7 @@
         <v>0.01016</v>
       </c>
       <c r="S140" t="n">
-        <v>94.095149921355</v>
+        <v>17.29116085402344</v>
       </c>
     </row>
     <row r="141">
@@ -9314,7 +9314,7 @@
         <v>13.16666666666667</v>
       </c>
       <c r="H141" t="n">
-        <v>12.4</v>
+        <v>-10.88888888888889</v>
       </c>
       <c r="I141" t="n">
         <v>100.41</v>
@@ -9347,7 +9347,7 @@
         <v>0.01016</v>
       </c>
       <c r="S141" t="n">
-        <v>95.10173582038099</v>
+        <v>17.66458656059517</v>
       </c>
     </row>
     <row r="142">
@@ -9377,7 +9377,7 @@
         <v>15.55555555555556</v>
       </c>
       <c r="H142" t="n">
-        <v>6.4</v>
+        <v>-14.22222222222222</v>
       </c>
       <c r="I142" t="n">
         <v>99.59</v>
@@ -9410,7 +9410,7 @@
         <v>0.01016</v>
       </c>
       <c r="S142" t="n">
-        <v>54.41661499226215</v>
+        <v>11.5658528851522</v>
       </c>
     </row>
     <row r="143">
@@ -9440,7 +9440,7 @@
         <v>16.61111111111111</v>
       </c>
       <c r="H143" t="n">
-        <v>9.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I143" t="n">
         <v>99.16</v>
@@ -9473,7 +9473,7 @@
         <v>0.01016</v>
       </c>
       <c r="S143" t="n">
-        <v>62.81750520739806</v>
+        <v>12.43564474451761</v>
       </c>
     </row>
     <row r="144">
@@ -9503,7 +9503,7 @@
         <v>16.5</v>
       </c>
       <c r="H144" t="n">
-        <v>14.6</v>
+        <v>-9.666666666666666</v>
       </c>
       <c r="I144" t="n">
         <v>99.03</v>
@@ -9536,7 +9536,7 @@
         <v>0.01016</v>
       </c>
       <c r="S144" t="n">
-        <v>88.53054327601407</v>
+        <v>15.69476556502736</v>
       </c>
     </row>
     <row r="145">
@@ -9566,7 +9566,7 @@
         <v>20.05555555555555</v>
       </c>
       <c r="H145" t="n">
-        <v>24.3</v>
+        <v>-4.277777777777778</v>
       </c>
       <c r="I145" t="n">
         <v>99.27000000000001</v>
@@ -9599,7 +9599,7 @@
         <v>0.01016</v>
       </c>
       <c r="S145" t="n">
-        <v>129.5304737048747</v>
+        <v>19.0026099851496</v>
       </c>
     </row>
     <row r="146">
@@ -9629,7 +9629,7 @@
         <v>15.27777777777778</v>
       </c>
       <c r="H146" t="n">
-        <v>31.1</v>
+        <v>-0.4999999999999992</v>
       </c>
       <c r="I146" t="n">
         <v>100.04</v>
@@ -9662,7 +9662,7 @@
         <v>0.01016</v>
       </c>
       <c r="S146" t="n">
-        <v>260.6535646986791</v>
+        <v>33.9743871970867</v>
       </c>
     </row>
     <row r="147">
@@ -9692,7 +9692,7 @@
         <v>11.27777777777778</v>
       </c>
       <c r="H147" t="n">
-        <v>40.7</v>
+        <v>4.833333333333335</v>
       </c>
       <c r="I147" t="n">
         <v>100.69</v>
@@ -9725,7 +9725,7 @@
         <v>0.01016</v>
       </c>
       <c r="S147" t="n">
-        <v>574.5045786863</v>
+        <v>64.516283674832</v>
       </c>
     </row>
     <row r="148">
@@ -9755,7 +9755,7 @@
         <v>10.27777777777778</v>
       </c>
       <c r="H148" t="n">
-        <v>39.1</v>
+        <v>3.944444444444446</v>
       </c>
       <c r="I148" t="n">
         <v>100.59</v>
@@ -9788,7 +9788,7 @@
         <v>0.01016</v>
       </c>
       <c r="S148" t="n">
-        <v>563.5963730163721</v>
+        <v>64.79466778066828</v>
       </c>
     </row>
     <row r="149">
@@ -9818,7 +9818,7 @@
         <v>16.11111111111111</v>
       </c>
       <c r="H149" t="n">
-        <v>29.2</v>
+        <v>-1.555555555555556</v>
       </c>
       <c r="I149" t="n">
         <v>99.83</v>
@@ -9851,7 +9851,7 @@
         <v>0.01016</v>
       </c>
       <c r="S149" t="n">
-        <v>221.5506688021525</v>
+        <v>29.81425881459416</v>
       </c>
     </row>
     <row r="150">
@@ -9881,7 +9881,7 @@
         <v>16.38888888888889</v>
       </c>
       <c r="H150" t="n">
-        <v>30.7</v>
+        <v>-0.7222222222222227</v>
       </c>
       <c r="I150" t="n">
         <v>99.62</v>
@@ -9914,7 +9914,7 @@
         <v>0.01016</v>
       </c>
       <c r="S150" t="n">
-        <v>237.2820917899895</v>
+        <v>31.13444223001801</v>
       </c>
     </row>
     <row r="151">
@@ -9944,7 +9944,7 @@
         <v>11.88888888888889</v>
       </c>
       <c r="H151" t="n">
-        <v>41.4</v>
+        <v>5.222222222222221</v>
       </c>
       <c r="I151" t="n">
         <v>100.22</v>
@@ -9977,7 +9977,7 @@
         <v>0.01016</v>
       </c>
       <c r="S151" t="n">
-        <v>572.6619290350021</v>
+        <v>63.66261489370475</v>
       </c>
     </row>
     <row r="152">
@@ -10007,7 +10007,7 @@
         <v>8.388888888888889</v>
       </c>
       <c r="H152" t="n">
-        <v>36.6</v>
+        <v>2.555555555555556</v>
       </c>
       <c r="I152" t="n">
         <v>101.07</v>
@@ -10040,7 +10040,7 @@
         <v>0.01016</v>
       </c>
       <c r="S152" t="n">
-        <v>558.6854636825523</v>
+        <v>66.70047372616048</v>
       </c>
     </row>
     <row r="153">
@@ -10070,7 +10070,7 @@
         <v>10.33333333333333</v>
       </c>
       <c r="H153" t="n">
-        <v>29.8</v>
+        <v>-1.222222222222222</v>
       </c>
       <c r="I153" t="n">
         <v>100.84</v>
@@ -10103,7 +10103,7 @@
         <v>0.01016</v>
       </c>
       <c r="S153" t="n">
-        <v>334.4662090930406</v>
+        <v>44.55390530767996</v>
       </c>
     </row>
     <row r="154">
@@ -10133,7 +10133,7 @@
         <v>13.88888888888889</v>
       </c>
       <c r="H154" t="n">
-        <v>26.2</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="I154" t="n">
         <v>100.46</v>
@@ -10166,7 +10166,7 @@
         <v>0.01016</v>
       </c>
       <c r="S154" t="n">
-        <v>214.4841939627773</v>
+        <v>30.40850910405661</v>
       </c>
     </row>
     <row r="155">
@@ -10196,7 +10196,7 @@
         <v>13.77777777777778</v>
       </c>
       <c r="H155" t="n">
-        <v>27</v>
+        <v>-2.777777777777778</v>
       </c>
       <c r="I155" t="n">
         <v>100.66</v>
@@ -10229,7 +10229,7 @@
         <v>0.01016</v>
       </c>
       <c r="S155" t="n">
-        <v>226.4756757014243</v>
+        <v>31.65839698035887</v>
       </c>
     </row>
     <row r="156">
@@ -10259,7 +10259,7 @@
         <v>14.33333333333333</v>
       </c>
       <c r="H156" t="n">
-        <v>23</v>
+        <v>-5</v>
       </c>
       <c r="I156" t="n">
         <v>100.42</v>
@@ -10292,7 +10292,7 @@
         <v>0.01016</v>
       </c>
       <c r="S156" t="n">
-        <v>172.0628086870512</v>
+        <v>25.85305320172578</v>
       </c>
     </row>
     <row r="157">
@@ -10322,7 +10322,7 @@
         <v>15.44444444444444</v>
       </c>
       <c r="H157" t="n">
-        <v>19.9</v>
+        <v>-6.722222222222223</v>
       </c>
       <c r="I157" t="n">
         <v>100.31</v>
@@ -10355,7 +10355,7 @@
         <v>0.01016</v>
       </c>
       <c r="S157" t="n">
-        <v>132.454676136098</v>
+        <v>21.10699397232898</v>
       </c>
     </row>
     <row r="158">
@@ -10385,7 +10385,7 @@
         <v>14.61111111111111</v>
       </c>
       <c r="H158" t="n">
-        <v>20.4</v>
+        <v>-6.444444444444446</v>
       </c>
       <c r="I158" t="n">
         <v>100.45</v>
@@ -10418,7 +10418,7 @@
         <v>0.01016</v>
       </c>
       <c r="S158" t="n">
-        <v>144.1473779529469</v>
+        <v>22.74952237026466</v>
       </c>
     </row>
     <row r="159">
@@ -10448,7 +10448,7 @@
         <v>13.33333333333333</v>
       </c>
       <c r="H159" t="n">
-        <v>16.1</v>
+        <v>-8.833333333333332</v>
       </c>
       <c r="I159" t="n">
         <v>100.44</v>
@@ -10481,7 +10481,7 @@
         <v>0.01016</v>
       </c>
       <c r="S159" t="n">
-        <v>119.54710676844</v>
+        <v>20.54687438632495</v>
       </c>
     </row>
     <row r="160">
@@ -10511,7 +10511,7 @@
         <v>15.61111111111111</v>
       </c>
       <c r="H160" t="n">
-        <v>7.6</v>
+        <v>-13.55555555555556</v>
       </c>
       <c r="I160" t="n">
         <v>99.92</v>
@@ -10544,7 +10544,7 @@
         <v>0.01016</v>
       </c>
       <c r="S160" t="n">
-        <v>58.87345043199475</v>
+        <v>12.16914337318979</v>
       </c>
     </row>
     <row r="161">
@@ -10574,7 +10574,7 @@
         <v>14.88888888888889</v>
       </c>
       <c r="H161" t="n">
-        <v>12.8</v>
+        <v>-10.66666666666667</v>
       </c>
       <c r="I161" t="n">
         <v>100.19</v>
@@ -10607,7 +10607,7 @@
         <v>0.01016</v>
       </c>
       <c r="S161" t="n">
-        <v>87.30912744123289</v>
+        <v>16.07850143689635</v>
       </c>
     </row>
     <row r="162">
@@ -10637,7 +10637,7 @@
         <v>16.61111111111111</v>
       </c>
       <c r="H162" t="n">
-        <v>13.8</v>
+        <v>-10.11111111111111</v>
       </c>
       <c r="I162" t="n">
         <v>100.13</v>
@@ -10670,7 +10670,7 @@
         <v>0.01016</v>
       </c>
       <c r="S162" t="n">
-        <v>83.46660398930551</v>
+        <v>15.04759266195563</v>
       </c>
     </row>
     <row r="163">
@@ -10700,7 +10700,7 @@
         <v>19.22222222222222</v>
       </c>
       <c r="H163" t="n">
-        <v>8.300000000000001</v>
+        <v>-13.16666666666667</v>
       </c>
       <c r="I163" t="n">
         <v>99.92999999999999</v>
@@ -10733,7 +10733,7 @@
         <v>0.01016</v>
       </c>
       <c r="S163" t="n">
-        <v>49.14547851471155</v>
+        <v>9.996698580627013</v>
       </c>
     </row>
     <row r="164">
@@ -10763,7 +10763,7 @@
         <v>20</v>
       </c>
       <c r="H164" t="n">
-        <v>-1.6</v>
+        <v>-18.66666666666667</v>
       </c>
       <c r="I164" t="n">
         <v>99.59</v>
@@ -10796,7 +10796,7 @@
         <v>0.01016</v>
       </c>
       <c r="S164" t="n">
-        <v>23.26892952217475</v>
+        <v>6.031232966408398</v>
       </c>
     </row>
     <row r="165">
@@ -10826,7 +10826,7 @@
         <v>17.83333333333333</v>
       </c>
       <c r="H165" t="n">
-        <v>6.1</v>
+        <v>-14.38888888888889</v>
       </c>
       <c r="I165" t="n">
         <v>99.66</v>
@@ -10859,7 +10859,7 @@
         <v>0.01016</v>
       </c>
       <c r="S165" t="n">
-        <v>46.11839685134498</v>
+        <v>9.871404549842755</v>
       </c>
     </row>
     <row r="166">
@@ -10889,7 +10889,7 @@
         <v>18.05555555555556</v>
       </c>
       <c r="H166" t="n">
-        <v>16</v>
+        <v>-8.888888888888889</v>
       </c>
       <c r="I166" t="n">
         <v>99.45</v>
@@ -10922,7 +10922,7 @@
         <v>0.01016</v>
       </c>
       <c r="S166" t="n">
-        <v>87.78270357577506</v>
+        <v>15.11833187747128</v>
       </c>
     </row>
     <row r="167">
@@ -10952,7 +10952,7 @@
         <v>14.16666666666667</v>
       </c>
       <c r="H167" t="n">
-        <v>34.4</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="I167" t="n">
         <v>99.86</v>
@@ -10985,7 +10985,7 @@
         <v>0.01016</v>
       </c>
       <c r="S167" t="n">
-        <v>337.2934972600553</v>
+        <v>41.67459864003413</v>
       </c>
     </row>
     <row r="168">
@@ -11015,7 +11015,7 @@
         <v>12.94444444444444</v>
       </c>
       <c r="H168" t="n">
-        <v>37</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="I168" t="n">
         <v>100.02</v>
@@ -11048,7 +11048,7 @@
         <v>0.01016</v>
       </c>
       <c r="S168" t="n">
-        <v>421.5973652929484</v>
+        <v>50.02632206295903</v>
       </c>
     </row>
     <row r="169">
@@ -11078,7 +11078,7 @@
         <v>12.44444444444444</v>
       </c>
       <c r="H169" t="n">
-        <v>36.3</v>
+        <v>2.388888888888888</v>
       </c>
       <c r="I169" t="n">
         <v>99.97999999999999</v>
@@ -11111,7 +11111,7 @@
         <v>0.01016</v>
       </c>
       <c r="S169" t="n">
-        <v>419.2436018673048</v>
+        <v>50.28440983743798</v>
       </c>
     </row>
     <row r="170">
@@ -11141,7 +11141,7 @@
         <v>13</v>
       </c>
       <c r="H170" t="n">
-        <v>32.8</v>
+        <v>0.4444444444444429</v>
       </c>
       <c r="I170" t="n">
         <v>99.97999999999999</v>
@@ -11174,7 +11174,7 @@
         <v>0.01016</v>
       </c>
       <c r="S170" t="n">
-        <v>332.7021475882722</v>
+        <v>42.17416175051878</v>
       </c>
     </row>
     <row r="171">
@@ -11204,7 +11204,7 @@
         <v>15.16666666666667</v>
       </c>
       <c r="H171" t="n">
-        <v>28.2</v>
+        <v>-2.111111111111112</v>
       </c>
       <c r="I171" t="n">
         <v>99.87</v>
@@ -11237,7 +11237,7 @@
         <v>0.01016</v>
       </c>
       <c r="S171" t="n">
-        <v>222.092298759126</v>
+        <v>30.40389706417402</v>
       </c>
     </row>
     <row r="172">
@@ -11267,7 +11267,7 @@
         <v>16.77777777777778</v>
       </c>
       <c r="H172" t="n">
-        <v>34</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="I172" t="n">
         <v>99.89</v>
@@ -11300,7 +11300,7 @@
         <v>0.01016</v>
       </c>
       <c r="S172" t="n">
-        <v>278.9734115188699</v>
+        <v>34.68845635862397</v>
       </c>
     </row>
     <row r="173">
@@ -11330,7 +11330,7 @@
         <v>22.44444444444445</v>
       </c>
       <c r="H173" t="n">
-        <v>31.7</v>
+        <v>-0.1666666666666671</v>
       </c>
       <c r="I173" t="n">
         <v>99.17</v>
@@ -11363,7 +11363,7 @@
         <v>0.01016</v>
       </c>
       <c r="S173" t="n">
-        <v>172.3099955900923</v>
+        <v>22.23802378167496</v>
       </c>
     </row>
     <row r="174">
@@ -11393,7 +11393,7 @@
         <v>20.5</v>
       </c>
       <c r="H174" t="n">
-        <v>30.9</v>
+        <v>-0.6111111111111119</v>
       </c>
       <c r="I174" t="n">
         <v>99.2</v>
@@ -11426,7 +11426,7 @@
         <v>0.01016</v>
       </c>
       <c r="S174" t="n">
-        <v>185.466591217283</v>
+        <v>24.25468996403194</v>
       </c>
     </row>
     <row r="175">
@@ -11456,7 +11456,7 @@
         <v>12</v>
       </c>
       <c r="H175" t="n">
-        <v>44</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="I175" t="n">
         <v>100.66</v>
@@ -11489,7 +11489,7 @@
         <v>0.01016</v>
       </c>
       <c r="S175" t="n">
-        <v>651.6752103753206</v>
+        <v>69.83631238921193</v>
       </c>
     </row>
     <row r="176">
@@ -11519,7 +11519,7 @@
         <v>16.05555555555556</v>
       </c>
       <c r="H176" t="n">
-        <v>37.6</v>
+        <v>3.111111111111112</v>
       </c>
       <c r="I176" t="n">
         <v>100.59</v>
@@ -11552,7 +11552,7 @@
         <v>0.01016</v>
       </c>
       <c r="S176" t="n">
-        <v>356.2685240390117</v>
+        <v>41.89039546375094</v>
       </c>
     </row>
     <row r="177">
@@ -11582,7 +11582,7 @@
         <v>14.94444444444444</v>
       </c>
       <c r="H177" t="n">
-        <v>35.1</v>
+        <v>1.722222222222223</v>
       </c>
       <c r="I177" t="n">
         <v>100.43</v>
@@ -11615,7 +11615,7 @@
         <v>0.01016</v>
       </c>
       <c r="S177" t="n">
-        <v>333.4861467568724</v>
+        <v>40.75212462645052</v>
       </c>
     </row>
     <row r="178">
@@ -11645,7 +11645,7 @@
         <v>17.22222222222222</v>
       </c>
       <c r="H178" t="n">
-        <v>34</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="I178" t="n">
         <v>100.25</v>
@@ -11678,7 +11678,7 @@
         <v>0.01016</v>
       </c>
       <c r="S178" t="n">
-        <v>271.2217308145237</v>
+        <v>33.72458730617662</v>
       </c>
     </row>
     <row r="179">
@@ -11708,7 +11708,7 @@
         <v>13.33333333333333</v>
       </c>
       <c r="H179" t="n">
-        <v>37.6</v>
+        <v>3.111111111111112</v>
       </c>
       <c r="I179" t="n">
         <v>100.57</v>
@@ -11741,7 +11741,7 @@
         <v>0.01016</v>
       </c>
       <c r="S179" t="n">
-        <v>424.7016819427426</v>
+        <v>49.93683194071206</v>
       </c>
     </row>
     <row r="180">
@@ -11771,7 +11771,7 @@
         <v>19.11111111111111</v>
       </c>
       <c r="H180" t="n">
-        <v>24.3</v>
+        <v>-4.277777777777778</v>
       </c>
       <c r="I180" t="n">
         <v>99.86</v>
@@ -11804,7 +11804,7 @@
         <v>0.01016</v>
       </c>
       <c r="S180" t="n">
-        <v>137.3631491344682</v>
+        <v>20.15169307016905</v>
       </c>
     </row>
     <row r="181">
@@ -11834,7 +11834,7 @@
         <v>20.66666666666667</v>
       </c>
       <c r="H181" t="n">
-        <v>25.3</v>
+        <v>-3.722222222222222</v>
       </c>
       <c r="I181" t="n">
         <v>99.48999999999999</v>
@@ -11867,7 +11867,7 @@
         <v>0.01016</v>
       </c>
       <c r="S181" t="n">
-        <v>132.4124256815983</v>
+        <v>19.07698687493657</v>
       </c>
     </row>
     <row r="182">
@@ -11897,7 +11897,7 @@
         <v>18.77777777777778</v>
       </c>
       <c r="H182" t="n">
-        <v>31.5</v>
+        <v>-0.2777777777777778</v>
       </c>
       <c r="I182" t="n">
         <v>99.59999999999999</v>
@@ -11930,7 +11930,7 @@
         <v>0.01016</v>
       </c>
       <c r="S182" t="n">
-        <v>213.5999128524946</v>
+        <v>27.65775253221302</v>
       </c>
     </row>
     <row r="183">
@@ -11960,7 +11960,7 @@
         <v>19.38888888888889</v>
       </c>
       <c r="H183" t="n">
-        <v>26</v>
+        <v>-3.333333333333333</v>
       </c>
       <c r="I183" t="n">
         <v>99.81</v>
@@ -11993,7 +11993,7 @@
         <v>0.01016</v>
       </c>
       <c r="S183" t="n">
-        <v>149.4055027213281</v>
+        <v>21.25740525035892</v>
       </c>
     </row>
     <row r="184">
@@ -12023,7 +12023,7 @@
         <v>21.5</v>
       </c>
       <c r="H184" t="n">
-        <v>14.1</v>
+        <v>-9.944444444444445</v>
       </c>
       <c r="I184" t="n">
         <v>99.31</v>
@@ -12056,7 +12056,7 @@
         <v>0.01016</v>
       </c>
       <c r="S184" t="n">
-        <v>62.7244906221855</v>
+        <v>11.23691540055679</v>
       </c>
     </row>
     <row r="185">
@@ -12086,7 +12086,7 @@
         <v>24.44444444444445</v>
       </c>
       <c r="H185" t="n">
-        <v>24.3</v>
+        <v>-4.277777777777778</v>
       </c>
       <c r="I185" t="n">
         <v>98.87</v>
@@ -12119,7 +12119,7 @@
         <v>0.01016</v>
       </c>
       <c r="S185" t="n">
-        <v>99.13761415914078</v>
+        <v>14.54386263588179</v>
       </c>
     </row>
     <row r="186">
@@ -12149,7 +12149,7 @@
         <v>24.94444444444445</v>
       </c>
       <c r="H186" t="n">
-        <v>30.9</v>
+        <v>-0.6111111111111119</v>
       </c>
       <c r="I186" t="n">
         <v>99.14</v>
@@ -12182,7 +12182,7 @@
         <v>0.01016</v>
       </c>
       <c r="S186" t="n">
-        <v>141.6050749618948</v>
+        <v>18.51863005618343</v>
       </c>
     </row>
     <row r="187">
@@ -12212,7 +12212,7 @@
         <v>20.33333333333333</v>
       </c>
       <c r="H187" t="n">
-        <v>23.7</v>
+        <v>-4.611111111111112</v>
       </c>
       <c r="I187" t="n">
         <v>99.32000000000001</v>
@@ -12245,7 +12245,7 @@
         <v>0.01016</v>
       </c>
       <c r="S187" t="n">
-        <v>122.8114394479828</v>
+        <v>18.21583729645002</v>
       </c>
     </row>
     <row r="188">
@@ -12275,7 +12275,7 @@
         <v>20.72222222222222</v>
       </c>
       <c r="H188" t="n">
-        <v>25.7</v>
+        <v>-3.5</v>
       </c>
       <c r="I188" t="n">
         <v>99.12</v>
@@ -12308,7 +12308,7 @@
         <v>0.01016</v>
       </c>
       <c r="S188" t="n">
-        <v>135.1359336012751</v>
+        <v>19.33028780618702</v>
       </c>
     </row>
     <row r="189">
@@ -12338,7 +12338,7 @@
         <v>19.44444444444445</v>
       </c>
       <c r="H189" t="n">
-        <v>25.3</v>
+        <v>-3.722222222222222</v>
       </c>
       <c r="I189" t="n">
         <v>99.21000000000001</v>
@@ -12371,7 +12371,7 @@
         <v>0.01016</v>
       </c>
       <c r="S189" t="n">
-        <v>142.8263876338686</v>
+        <v>20.57735222552133</v>
       </c>
     </row>
     <row r="190">
@@ -12401,7 +12401,7 @@
         <v>18.05555555555556</v>
       </c>
       <c r="H190" t="n">
-        <v>28.7</v>
+        <v>-1.833333333333334</v>
       </c>
       <c r="I190" t="n">
         <v>99.61</v>
@@ -12434,7 +12434,7 @@
         <v>0.01016</v>
       </c>
       <c r="S190" t="n">
-        <v>190.2729574450454</v>
+        <v>25.82483016457682</v>
       </c>
     </row>
     <row r="191">
@@ -12464,7 +12464,7 @@
         <v>15.72222222222222</v>
       </c>
       <c r="H191" t="n">
-        <v>32.1</v>
+        <v>0.05555555555555635</v>
       </c>
       <c r="I191" t="n">
         <v>99.91</v>
@@ -12497,7 +12497,7 @@
         <v>0.01016</v>
       </c>
       <c r="S191" t="n">
-        <v>268.1478077752309</v>
+        <v>34.38045946574084</v>
       </c>
     </row>
     <row r="192">
@@ -12527,7 +12527,7 @@
         <v>16.16666666666667</v>
       </c>
       <c r="H192" t="n">
-        <v>28.8</v>
+        <v>-1.777777777777777</v>
       </c>
       <c r="I192" t="n">
         <v>99.84999999999999</v>
@@ -12560,7 +12560,7 @@
         <v>0.01016</v>
       </c>
       <c r="S192" t="n">
-        <v>215.7085404299432</v>
+        <v>29.22696970081745</v>
       </c>
     </row>
     <row r="193">
@@ -12590,7 +12590,7 @@
         <v>13.88888888888889</v>
       </c>
       <c r="H193" t="n">
-        <v>34.9</v>
+        <v>1.61111111111111</v>
       </c>
       <c r="I193" t="n">
         <v>100.24</v>
@@ -12623,7 +12623,7 @@
         <v>0.01016</v>
       </c>
       <c r="S193" t="n">
-        <v>353.1105944018883</v>
+        <v>43.2859858119136</v>
       </c>
     </row>
     <row r="194">
@@ -12653,7 +12653,7 @@
         <v>15.77777777777778</v>
       </c>
       <c r="H194" t="n">
-        <v>33</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I194" t="n">
         <v>100.42</v>
@@ -12686,7 +12686,7 @@
         <v>0.01016</v>
       </c>
       <c r="S194" t="n">
-        <v>281.1246604585394</v>
+        <v>35.52101022720188</v>
       </c>
     </row>
     <row r="195">
@@ -12716,7 +12716,7 @@
         <v>16.11111111111111</v>
       </c>
       <c r="H195" t="n">
-        <v>30.2</v>
+        <v>-1</v>
       </c>
       <c r="I195" t="n">
         <v>100.45</v>
@@ -12749,7 +12749,7 @@
         <v>0.01016</v>
       </c>
       <c r="S195" t="n">
-        <v>234.6976678774914</v>
+        <v>31.05401573572808</v>
       </c>
     </row>
     <row r="196">
@@ -12779,7 +12779,7 @@
         <v>13.44444444444445</v>
       </c>
       <c r="H196" t="n">
-        <v>40.3</v>
+        <v>4.61111111111111</v>
       </c>
       <c r="I196" t="n">
         <v>100.76</v>
@@ -12812,7 +12812,7 @@
         <v>0.01016</v>
       </c>
       <c r="S196" t="n">
-        <v>487.7311247019801</v>
+        <v>55.09141584169599</v>
       </c>
     </row>
     <row r="197">
@@ -12842,7 +12842,7 @@
         <v>13.11111111111111</v>
       </c>
       <c r="H197" t="n">
-        <v>30.9</v>
+        <v>-0.6111111111111119</v>
       </c>
       <c r="I197" t="n">
         <v>100.79</v>
@@ -12875,7 +12875,7 @@
         <v>0.01016</v>
       </c>
       <c r="S197" t="n">
-        <v>296.5329213081228</v>
+        <v>38.77956683870391</v>
       </c>
     </row>
     <row r="198">
@@ -12905,7 +12905,7 @@
         <v>18.5</v>
       </c>
       <c r="H198" t="n">
-        <v>26.3</v>
+        <v>-3.166666666666667</v>
       </c>
       <c r="I198" t="n">
         <v>99.81</v>
@@ -12938,7 +12938,7 @@
         <v>0.01016</v>
       </c>
       <c r="S198" t="n">
-        <v>160.7650745410003</v>
+        <v>22.7520870010673</v>
       </c>
     </row>
     <row r="199">
@@ -12968,7 +12968,7 @@
         <v>12.22222222222222</v>
       </c>
       <c r="H199" t="n">
-        <v>30.3</v>
+        <v>-0.9444444444444441</v>
       </c>
       <c r="I199" t="n">
         <v>100.66</v>
@@ -13001,7 +13001,7 @@
         <v>0.01016</v>
       </c>
       <c r="S199" t="n">
-        <v>303.7119121343579</v>
+        <v>40.11827261605338</v>
       </c>
     </row>
     <row r="200">
@@ -13031,7 +13031,7 @@
         <v>16.94444444444445</v>
       </c>
       <c r="H200" t="n">
-        <v>18.9</v>
+        <v>-7.277777777777779</v>
       </c>
       <c r="I200" t="n">
         <v>100.8</v>
@@ -13064,7 +13064,7 @@
         <v>0.01016</v>
       </c>
       <c r="S200" t="n">
-        <v>113.1019538194181</v>
+        <v>18.37827447622087</v>
       </c>
     </row>
     <row r="201">
@@ -13094,7 +13094,7 @@
         <v>18.05555555555556</v>
       </c>
       <c r="H201" t="n">
-        <v>20.8</v>
+        <v>-6.222222222222222</v>
       </c>
       <c r="I201" t="n">
         <v>100.29</v>
@@ -13127,7 +13127,7 @@
         <v>0.01016</v>
       </c>
       <c r="S201" t="n">
-        <v>118.6272594272279</v>
+        <v>18.57873823909794</v>
       </c>
     </row>
     <row r="202">
@@ -13157,7 +13157,7 @@
         <v>17.27777777777778</v>
       </c>
       <c r="H202" t="n">
-        <v>19.8</v>
+        <v>-6.777777777777778</v>
       </c>
       <c r="I202" t="n">
         <v>100.08</v>
@@ -13190,7 +13190,7 @@
         <v>0.01016</v>
       </c>
       <c r="S202" t="n">
-        <v>117.1226000532771</v>
+        <v>18.70001816590339</v>
       </c>
     </row>
     <row r="203">
@@ -13220,7 +13220,7 @@
         <v>19.55555555555556</v>
       </c>
       <c r="H203" t="n">
-        <v>21.1</v>
+        <v>-6.055555555555555</v>
       </c>
       <c r="I203" t="n">
         <v>99.7</v>
@@ -13253,7 +13253,7 @@
         <v>0.01016</v>
       </c>
       <c r="S203" t="n">
-        <v>110.01766785139</v>
+        <v>17.13191788910828</v>
       </c>
     </row>
     <row r="204">
@@ -13283,7 +13283,7 @@
         <v>21.77777777777778</v>
       </c>
       <c r="H204" t="n">
-        <v>24</v>
+        <v>-4.444444444444445</v>
       </c>
       <c r="I204" t="n">
         <v>99.51000000000001</v>
@@ -13316,7 +13316,7 @@
         <v>0.01016</v>
       </c>
       <c r="S204" t="n">
-        <v>114.4239882859491</v>
+        <v>16.87865761527049</v>
       </c>
     </row>
     <row r="205">
@@ -13346,7 +13346,7 @@
         <v>18.55555555555556</v>
       </c>
       <c r="H205" t="n">
-        <v>25.8</v>
+        <v>-3.444444444444444</v>
       </c>
       <c r="I205" t="n">
         <v>99.505</v>
@@ -13379,7 +13379,7 @@
         <v>0.01016</v>
       </c>
       <c r="S205" t="n">
-        <v>155.5322930035745</v>
+        <v>22.20814909626406</v>
       </c>
     </row>
     <row r="206">
@@ -13409,7 +13409,7 @@
         <v>20.22222222222222</v>
       </c>
       <c r="H206" t="n">
-        <v>26.2</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="I206" t="n">
         <v>99.5</v>
@@ -13442,7 +13442,7 @@
         <v>0.01016</v>
       </c>
       <c r="S206" t="n">
-        <v>143.5647511900117</v>
+        <v>20.35390097016063</v>
       </c>
     </row>
     <row r="207">
@@ -13472,7 +13472,7 @@
         <v>17.22222222222222</v>
       </c>
       <c r="H207" t="n">
-        <v>39.1</v>
+        <v>3.944444444444446</v>
       </c>
       <c r="I207" t="n">
         <v>99.52000000000001</v>
@@ -13505,7 +13505,7 @@
         <v>0.01016</v>
       </c>
       <c r="S207" t="n">
-        <v>358.795071501652</v>
+        <v>41.24939153683184</v>
       </c>
     </row>
     <row r="208">
@@ -13535,7 +13535,7 @@
         <v>14.61111111111111</v>
       </c>
       <c r="H208" t="n">
-        <v>43.5</v>
+        <v>6.388888888888889</v>
       </c>
       <c r="I208" t="n">
         <v>100.22</v>
@@ -13568,7 +13568,7 @@
         <v>0.01016</v>
       </c>
       <c r="S208" t="n">
-        <v>535.4541802566439</v>
+        <v>57.78199367918925</v>
       </c>
     </row>
     <row r="209">
@@ -13598,7 +13598,7 @@
         <v>20.16666666666666</v>
       </c>
       <c r="H209" t="n">
-        <v>43.9</v>
+        <v>6.611111111111111</v>
       </c>
       <c r="I209" t="n">
         <v>99.78999999999999</v>
@@ -13631,7 +13631,7 @@
         <v>0.01016</v>
       </c>
       <c r="S209" t="n">
-        <v>384.8074439283952</v>
+        <v>41.29485148756348</v>
       </c>
     </row>
     <row r="210">
@@ -13661,7 +13661,7 @@
         <v>21.38888888888889</v>
       </c>
       <c r="H210" t="n">
-        <v>42</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="I210" t="n">
         <v>99.59999999999999</v>
@@ -13694,7 +13694,7 @@
         <v>0.01016</v>
       </c>
       <c r="S210" t="n">
-        <v>323.0530531505104</v>
+        <v>35.60665934433763</v>
       </c>
     </row>
     <row r="211">
@@ -13724,7 +13724,7 @@
         <v>19.38888888888889</v>
       </c>
       <c r="H211" t="n">
-        <v>47.1</v>
+        <v>8.388888888888889</v>
       </c>
       <c r="I211" t="n">
         <v>99.64</v>
@@ -13757,7 +13757,7 @@
         <v>0.01016</v>
       </c>
       <c r="S211" t="n">
-        <v>476.2190954957301</v>
+        <v>48.93202275730928</v>
       </c>
     </row>
     <row r="212">
@@ -13787,7 +13787,7 @@
         <v>20.22222222222222</v>
       </c>
       <c r="H212" t="n">
-        <v>41.1</v>
+        <v>5.055555555555556</v>
       </c>
       <c r="I212" t="n">
         <v>99.61</v>
@@ -13820,7 +13820,7 @@
         <v>0.01016</v>
       </c>
       <c r="S212" t="n">
-        <v>330.9660773374969</v>
+        <v>36.95266080234249</v>
       </c>
     </row>
     <row r="213">
@@ -13850,7 +13850,7 @@
         <v>21.38888888888889</v>
       </c>
       <c r="H213" t="n">
-        <v>38.7</v>
+        <v>3.722222222222224</v>
       </c>
       <c r="I213" t="n">
         <v>99.28999999999999</v>
@@ -13883,7 +13883,7 @@
         <v>0.01016</v>
       </c>
       <c r="S213" t="n">
-        <v>270.8550824436498</v>
+        <v>31.32509952398047</v>
       </c>
     </row>
     <row r="214">
@@ -13913,7 +13913,7 @@
         <v>25.5</v>
       </c>
       <c r="H214" t="n">
-        <v>37.1</v>
+        <v>2.833333333333334</v>
       </c>
       <c r="I214" t="n">
         <v>98.89</v>
@@ -13946,7 +13946,7 @@
         <v>0.01016</v>
       </c>
       <c r="S214" t="n">
-        <v>193.7176567071614</v>
+        <v>22.95128387716764</v>
       </c>
     </row>
     <row r="215">
@@ -13976,7 +13976,7 @@
         <v>22.66666666666667</v>
       </c>
       <c r="H215" t="n">
-        <v>43.5</v>
+        <v>6.388888888888889</v>
       </c>
       <c r="I215" t="n">
         <v>99.07000000000001</v>
@@ -14009,7 +14009,7 @@
         <v>0.01016</v>
       </c>
       <c r="S215" t="n">
-        <v>323.3076395746883</v>
+        <v>34.88881154571291</v>
       </c>
     </row>
     <row r="216">
@@ -14039,7 +14039,7 @@
         <v>18.44444444444445</v>
       </c>
       <c r="H216" t="n">
-        <v>45.2</v>
+        <v>7.333333333333335</v>
       </c>
       <c r="I216" t="n">
         <v>99.69</v>
@@ -14072,7 +14072,7 @@
         <v>0.01016</v>
       </c>
       <c r="S216" t="n">
-        <v>458.2645229368036</v>
+        <v>48.30622070051479</v>
       </c>
     </row>
     <row r="217">
@@ -14102,7 +14102,7 @@
         <v>18.44444444444445</v>
       </c>
       <c r="H217" t="n">
-        <v>34.6</v>
+        <v>1.444444444444445</v>
       </c>
       <c r="I217" t="n">
         <v>100.13</v>
@@ -14135,7 +14135,7 @@
         <v>0.01016</v>
       </c>
       <c r="S217" t="n">
-        <v>259.6637086798545</v>
+        <v>31.98166716935423</v>
       </c>
     </row>
     <row r="218">
@@ -14165,7 +14165,7 @@
         <v>23</v>
       </c>
       <c r="H218" t="n">
-        <v>23</v>
+        <v>-5</v>
       </c>
       <c r="I218" t="n">
         <v>99.58</v>
@@ -14198,7 +14198,7 @@
         <v>0.01016</v>
       </c>
       <c r="S218" t="n">
-        <v>99.99999999999999</v>
+        <v>15.02535812300231</v>
       </c>
     </row>
     <row r="219">
@@ -14228,7 +14228,7 @@
         <v>21.55555555555555</v>
       </c>
       <c r="H219" t="n">
-        <v>27.6</v>
+        <v>-2.444444444444444</v>
       </c>
       <c r="I219" t="n">
         <v>99.19</v>
@@ -14261,7 +14261,7 @@
         <v>0.01016</v>
       </c>
       <c r="S219" t="n">
-        <v>143.6099480858842</v>
+        <v>19.86539206190574</v>
       </c>
     </row>
     <row r="220">
@@ -14291,7 +14291,7 @@
         <v>15.77777777777778</v>
       </c>
       <c r="H220" t="n">
-        <v>40.5</v>
+        <v>4.722222222222222</v>
       </c>
       <c r="I220" t="n">
         <v>99.92</v>
@@ -14324,7 +14324,7 @@
         <v>0.01016</v>
       </c>
       <c r="S220" t="n">
-        <v>424.0039731904514</v>
+        <v>47.75378801335545</v>
       </c>
     </row>
     <row r="221">
@@ -14354,7 +14354,7 @@
         <v>17.11111111111111</v>
       </c>
       <c r="H221" t="n">
-        <v>31.2</v>
+        <v>-0.4444444444444449</v>
       </c>
       <c r="I221" t="n">
         <v>100.11</v>
@@ -14387,7 +14387,7 @@
         <v>0.01016</v>
       </c>
       <c r="S221" t="n">
-        <v>233.2080198512247</v>
+        <v>30.34673063158039</v>
       </c>
     </row>
     <row r="222">
@@ -14417,7 +14417,7 @@
         <v>18.61111111111111</v>
       </c>
       <c r="H222" t="n">
-        <v>31.4</v>
+        <v>-0.3333333333333341</v>
       </c>
       <c r="I222" t="n">
         <v>99.62</v>
@@ -14450,7 +14450,7 @@
         <v>0.01016</v>
       </c>
       <c r="S222" t="n">
-        <v>214.6147274196787</v>
+        <v>27.83504173469072</v>
       </c>
     </row>
     <row r="223">
@@ -14480,7 +14480,7 @@
         <v>20.55555555555556</v>
       </c>
       <c r="H223" t="n">
-        <v>30.6</v>
+        <v>-0.777777777777777</v>
       </c>
       <c r="I223" t="n">
         <v>99.09</v>
@@ -14513,7 +14513,7 @@
         <v>0.01016</v>
       </c>
       <c r="S223" t="n">
-        <v>181.6867340633396</v>
+        <v>23.87942692237207</v>
       </c>
     </row>
     <row r="224">
@@ -14543,7 +14543,7 @@
         <v>18.5</v>
       </c>
       <c r="H224" t="n">
-        <v>32.1</v>
+        <v>0.05555555555555635</v>
       </c>
       <c r="I224" t="n">
         <v>100</v>
@@ -14576,7 +14576,7 @@
         <v>0.01016</v>
       </c>
       <c r="S224" t="n">
-        <v>224.8784193733075</v>
+        <v>28.83269285745781</v>
       </c>
     </row>
     <row r="225">
@@ -14606,7 +14606,7 @@
         <v>16.55555555555555</v>
       </c>
       <c r="H225" t="n">
-        <v>27.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I225" t="n">
         <v>99.89</v>
@@ -14639,7 +14639,7 @@
         <v>0.01016</v>
       </c>
       <c r="S225" t="n">
-        <v>195.0684854904758</v>
+        <v>27.03063273271005</v>
       </c>
     </row>
     <row r="226">
@@ -14669,7 +14669,7 @@
         <v>16.66666666666667</v>
       </c>
       <c r="H226" t="n">
-        <v>26.4</v>
+        <v>-3.111111111111112</v>
       </c>
       <c r="I226" t="n">
         <v>100.19</v>
@@ -14702,7 +14702,7 @@
         <v>0.01016</v>
       </c>
       <c r="S226" t="n">
-        <v>181.5583282096616</v>
+        <v>25.64935683932248</v>
       </c>
     </row>
     <row r="227">
@@ -14732,7 +14732,7 @@
         <v>13.77777777777778</v>
       </c>
       <c r="H227" t="n">
-        <v>33.4</v>
+        <v>0.777777777777777</v>
       </c>
       <c r="I227" t="n">
         <v>100.64</v>
@@ -14765,7 +14765,7 @@
         <v>0.01016</v>
       </c>
       <c r="S227" t="n">
-        <v>327.1044925246649</v>
+        <v>41.06535442428257</v>
       </c>
     </row>
     <row r="228">
@@ -14795,7 +14795,7 @@
         <v>12.77777777777778</v>
       </c>
       <c r="H228" t="n">
-        <v>28.8</v>
+        <v>-1.777777777777777</v>
       </c>
       <c r="I228" t="n">
         <v>101.15</v>
@@ -14828,7 +14828,7 @@
         <v>0.01016</v>
       </c>
       <c r="S228" t="n">
-        <v>268.5507500346373</v>
+        <v>36.38671245352607</v>
       </c>
     </row>
     <row r="229">
@@ -14858,7 +14858,7 @@
         <v>13.66666666666667</v>
       </c>
       <c r="H229" t="n">
-        <v>23.8</v>
+        <v>-4.555555555555555</v>
       </c>
       <c r="I229" t="n">
         <v>100.99</v>
@@ -14891,7 +14891,7 @@
         <v>0.01016</v>
       </c>
       <c r="S229" t="n">
-        <v>188.5645225624322</v>
+        <v>27.91725373020075</v>
       </c>
     </row>
     <row r="230">
@@ -14921,7 +14921,7 @@
         <v>15.27777777777778</v>
       </c>
       <c r="H230" t="n">
-        <v>22.4</v>
+        <v>-5.333333333333334</v>
       </c>
       <c r="I230" t="n">
         <v>100.7</v>
@@ -14954,7 +14954,7 @@
         <v>0.01016</v>
       </c>
       <c r="S230" t="n">
-        <v>156.104328563551</v>
+        <v>23.71898196767377</v>
       </c>
     </row>
     <row r="231">
@@ -14984,7 +14984,7 @@
         <v>11.66666666666667</v>
       </c>
       <c r="H231" t="n">
-        <v>29.1</v>
+        <v>-1.61111111111111</v>
       </c>
       <c r="I231" t="n">
         <v>101.48</v>
@@ -15017,7 +15017,7 @@
         <v>0.01016</v>
       </c>
       <c r="S231" t="n">
-        <v>293.9871661454876</v>
+        <v>39.62955099281828</v>
       </c>
     </row>
     <row r="232">
@@ -15047,7 +15047,7 @@
         <v>7.5</v>
       </c>
       <c r="H232" t="n">
-        <v>27.6</v>
+        <v>-2.444444444444444</v>
       </c>
       <c r="I232" t="n">
         <v>102</v>
@@ -15080,7 +15080,7 @@
         <v>0.01016</v>
       </c>
       <c r="S232" t="n">
-        <v>356.4235602308451</v>
+        <v>49.30364406128474</v>
       </c>
     </row>
     <row r="233">
@@ -15110,7 +15110,7 @@
         <v>13.44444444444445</v>
       </c>
       <c r="H233" t="n">
-        <v>7.3</v>
+        <v>-13.72222222222222</v>
       </c>
       <c r="I233" t="n">
         <v>101.07</v>
@@ -15143,7 +15143,7 @@
         <v>0.01016</v>
       </c>
       <c r="S233" t="n">
-        <v>66.34826140179328</v>
+        <v>13.80947813636853</v>
       </c>
     </row>
     <row r="234">
@@ -15173,7 +15173,7 @@
         <v>13.5</v>
       </c>
       <c r="H234" t="n">
-        <v>12.2</v>
+        <v>-11</v>
       </c>
       <c r="I234" t="n">
         <v>101.15</v>
@@ -15206,7 +15206,7 @@
         <v>0.01016</v>
       </c>
       <c r="S234" t="n">
-        <v>91.84050573507436</v>
+        <v>17.13253906268678</v>
       </c>
     </row>
     <row r="235">
@@ -15236,7 +15236,7 @@
         <v>15.61111111111111</v>
       </c>
       <c r="H235" t="n">
-        <v>8</v>
+        <v>-13.33333333333333</v>
       </c>
       <c r="I235" t="n">
         <v>100.2</v>
@@ -15269,7 +15269,7 @@
         <v>0.01016</v>
       </c>
       <c r="S235" t="n">
-        <v>60.49997864021178</v>
+        <v>12.39098677095106</v>
       </c>
     </row>
     <row r="236">
@@ -15299,7 +15299,7 @@
         <v>16.83333333333333</v>
       </c>
       <c r="H236" t="n">
-        <v>11.8</v>
+        <v>-11.22222222222222</v>
       </c>
       <c r="I236" t="n">
         <v>99.71000000000001</v>
@@ -15332,7 +15332,7 @@
         <v>0.01016</v>
       </c>
       <c r="S236" t="n">
-        <v>72.19173183396322</v>
+        <v>13.58424836815663</v>
       </c>
     </row>
     <row r="237">
@@ -15362,7 +15362,7 @@
         <v>16</v>
       </c>
       <c r="H237" t="n">
-        <v>17.8</v>
+        <v>-7.888888888888889</v>
       </c>
       <c r="I237" t="n">
         <v>100.09</v>
@@ -15395,7 +15395,7 @@
         <v>0.01016</v>
       </c>
       <c r="S237" t="n">
-        <v>112.0995501703564</v>
+        <v>18.61656270986158</v>
       </c>
     </row>
     <row r="238">
@@ -15425,7 +15425,7 @@
         <v>15</v>
       </c>
       <c r="H238" t="n">
-        <v>18.4</v>
+        <v>-7.555555555555556</v>
       </c>
       <c r="I238" t="n">
         <v>100.46</v>
@@ -15458,7 +15458,7 @@
         <v>0.01016</v>
       </c>
       <c r="S238" t="n">
-        <v>124.1204027171286</v>
+        <v>20.36855476707846</v>
       </c>
     </row>
     <row r="239">
@@ -15488,7 +15488,7 @@
         <v>13.11111111111111</v>
       </c>
       <c r="H239" t="n">
-        <v>21.6</v>
+        <v>-5.777777777777778</v>
       </c>
       <c r="I239" t="n">
         <v>100.36</v>
@@ -15521,7 +15521,7 @@
         <v>0.01016</v>
       </c>
       <c r="S239" t="n">
-        <v>171.0711921829933</v>
+        <v>26.38739847788957</v>
       </c>
     </row>
     <row r="240">
@@ -15551,7 +15551,7 @@
         <v>11.94444444444444</v>
       </c>
       <c r="H240" t="n">
-        <v>19.5</v>
+        <v>-6.944444444444445</v>
       </c>
       <c r="I240" t="n">
         <v>100.44</v>
@@ -15584,7 +15584,7 @@
         <v>0.01016</v>
       </c>
       <c r="S240" t="n">
-        <v>162.2378707781093</v>
+        <v>26.05477534848463</v>
       </c>
     </row>
     <row r="241">
@@ -15614,7 +15614,7 @@
         <v>9.222222222222223</v>
       </c>
       <c r="H241" t="n">
-        <v>16.8</v>
+        <v>-8.444444444444445</v>
       </c>
       <c r="I241" t="n">
         <v>101.47</v>
@@ -15647,7 +15647,7 @@
         <v>0.01016</v>
       </c>
       <c r="S241" t="n">
-        <v>164.1536189724133</v>
+        <v>27.81469423395307</v>
       </c>
     </row>
     <row r="242">
@@ -15677,7 +15677,7 @@
         <v>11.44444444444445</v>
       </c>
       <c r="H242" t="n">
-        <v>15.9</v>
+        <v>-8.944444444444446</v>
       </c>
       <c r="I242" t="n">
         <v>101.23</v>
@@ -15710,7 +15710,7 @@
         <v>0.01016</v>
       </c>
       <c r="S242" t="n">
-        <v>133.6270338405004</v>
+        <v>23.06103116293994</v>
       </c>
     </row>
     <row r="243">
@@ -15740,7 +15740,7 @@
         <v>9.333333333333332</v>
       </c>
       <c r="H243" t="n">
-        <v>16.5</v>
+        <v>-8.611111111111111</v>
       </c>
       <c r="I243" t="n">
         <v>101.35</v>
@@ -15773,7 +15773,7 @@
         <v>0.01016</v>
       </c>
       <c r="S243" t="n">
-        <v>159.8519638871306</v>
+        <v>27.25110917962751</v>
       </c>
     </row>
     <row r="244">
@@ -15803,7 +15803,7 @@
         <v>12.5</v>
       </c>
       <c r="H244" t="n">
-        <v>8.699999999999999</v>
+        <v>-12.94444444444444</v>
       </c>
       <c r="I244" t="n">
         <v>100.6</v>
@@ -15836,7 +15836,7 @@
         <v>0.01016</v>
       </c>
       <c r="S244" t="n">
-        <v>77.62807555464731</v>
+        <v>15.64736478468755</v>
       </c>
     </row>
     <row r="245">
@@ -15866,7 +15866,7 @@
         <v>7.944444444444443</v>
       </c>
       <c r="H245" t="n">
-        <v>29</v>
+        <v>-1.666666666666667</v>
       </c>
       <c r="I245" t="n">
         <v>101.41</v>
@@ -15899,7 +15899,7 @@
         <v>0.01016</v>
       </c>
       <c r="S245" t="n">
-        <v>375.1626176260033</v>
+        <v>50.65836807019974</v>
       </c>
     </row>
     <row r="246">
@@ -15929,7 +15929,7 @@
         <v>8.222222222222221</v>
       </c>
       <c r="H246" t="n">
-        <v>24.4</v>
+        <v>-4.222222222222223</v>
       </c>
       <c r="I246" t="n">
         <v>101.45</v>
@@ -15962,7 +15962,7 @@
         <v>0.01016</v>
       </c>
       <c r="S246" t="n">
-        <v>280.7209977718285</v>
+        <v>41.1078946558579</v>
       </c>
     </row>
     <row r="247">
@@ -15992,7 +15992,7 @@
         <v>7.666666666666665</v>
       </c>
       <c r="H247" t="n">
-        <v>12.6</v>
+        <v>-10.77777777777778</v>
       </c>
       <c r="I247" t="n">
         <v>101.65</v>
@@ -16025,7 +16025,7 @@
         <v>0.01016</v>
       </c>
       <c r="S247" t="n">
-        <v>139.0958040682165</v>
+        <v>25.72538522659809</v>
       </c>
     </row>
     <row r="248">
@@ -16055,7 +16055,7 @@
         <v>5.777777777777778</v>
       </c>
       <c r="H248" t="n">
-        <v>10.2</v>
+        <v>-12.11111111111111</v>
       </c>
       <c r="I248" t="n">
         <v>102.16</v>
@@ -16088,7 +16088,7 @@
         <v>0.01016</v>
       </c>
       <c r="S248" t="n">
-        <v>135.1027293796769</v>
+        <v>26.33106296871671</v>
       </c>
     </row>
     <row r="249">
@@ -16118,7 +16118,7 @@
         <v>5.611111111111112</v>
       </c>
       <c r="H249" t="n">
-        <v>-1.1</v>
+        <v>-18.38888888888889</v>
       </c>
       <c r="I249" t="n">
         <v>101.99</v>
@@ -16151,7 +16151,7 @@
         <v>0.01016</v>
       </c>
       <c r="S249" t="n">
-        <v>61.99018511070046</v>
+        <v>15.85894627097311</v>
       </c>
     </row>
     <row r="250">
@@ -16181,7 +16181,7 @@
         <v>7.722222222222221</v>
       </c>
       <c r="H250" t="n">
-        <v>7.3</v>
+        <v>-13.72222222222222</v>
       </c>
       <c r="I250" t="n">
         <v>102.27</v>
@@ -16214,7 +16214,7 @@
         <v>0.01016</v>
       </c>
       <c r="S250" t="n">
-        <v>97.15786281131835</v>
+        <v>20.22207295145386</v>
       </c>
     </row>
     <row r="251">
@@ -16244,7 +16244,7 @@
         <v>7.444444444444444</v>
       </c>
       <c r="H251" t="n">
-        <v>8.800000000000001</v>
+        <v>-12.88888888888889</v>
       </c>
       <c r="I251" t="n">
         <v>101.46</v>
@@ -16277,7 +16277,7 @@
         <v>0.01016</v>
       </c>
       <c r="S251" t="n">
-        <v>109.6497340607169</v>
+        <v>22.05188841993507</v>
       </c>
     </row>
     <row r="252">
@@ -16307,7 +16307,7 @@
         <v>1.61111111111111</v>
       </c>
       <c r="H252" t="n">
-        <v>1.6</v>
+        <v>-16.88888888888889</v>
       </c>
       <c r="I252" t="n">
         <v>102.24</v>
@@ -16340,7 +16340,7 @@
         <v>0.01016</v>
       </c>
       <c r="S252" t="n">
-        <v>99.92045481279816</v>
+        <v>23.85788027864717</v>
       </c>
     </row>
     <row r="253">
@@ -16370,7 +16370,7 @@
         <v>3.38888888888889</v>
       </c>
       <c r="H253" t="n">
-        <v>-9.1</v>
+        <v>-22.83333333333334</v>
       </c>
       <c r="I253" t="n">
         <v>102.7</v>
@@ -16403,7 +16403,7 @@
         <v>0.01016</v>
       </c>
       <c r="S253" t="n">
-        <v>39.51305620723774</v>
+        <v>12.60676964155204</v>
       </c>
     </row>
     <row r="254">
@@ -16433,7 +16433,7 @@
         <v>3.833333333333333</v>
       </c>
       <c r="H254" t="n">
-        <v>-7.6</v>
+        <v>-22</v>
       </c>
       <c r="I254" t="n">
         <v>102.6</v>
@@ -16466,7 +16466,7 @@
         <v>0.01016</v>
       </c>
       <c r="S254" t="n">
-        <v>43.03586696292335</v>
+        <v>13.14807210589585</v>
       </c>
     </row>
     <row r="255">
@@ -16496,7 +16496,7 @@
         <v>2.166666666666666</v>
       </c>
       <c r="H255" t="n">
-        <v>-1.3</v>
+        <v>-18.5</v>
       </c>
       <c r="I255" t="n">
         <v>102.99</v>
@@ -16529,7 +16529,7 @@
         <v>0.01016</v>
       </c>
       <c r="S255" t="n">
-        <v>77.8267990611984</v>
+        <v>20.01460527952989</v>
       </c>
     </row>
     <row r="256">
@@ -16559,7 +16559,7 @@
         <v>6.555555555555554</v>
       </c>
       <c r="H256" t="n">
-        <v>-3.1</v>
+        <v>-19.5</v>
       </c>
       <c r="I256" t="n">
         <v>102.62</v>
@@ -16592,7 +16592,7 @@
         <v>0.01016</v>
       </c>
       <c r="S256" t="n">
-        <v>50.10239068752917</v>
+        <v>13.51350904662631</v>
       </c>
     </row>
     <row r="257">
@@ -16622,7 +16622,7 @@
         <v>4.888888888888888</v>
       </c>
       <c r="H257" t="n">
-        <v>-2.2</v>
+        <v>-19</v>
       </c>
       <c r="I257" t="n">
         <v>101.91</v>
@@ -16655,7 +16655,7 @@
         <v>0.01016</v>
       </c>
       <c r="S257" t="n">
-        <v>60.1162301132908</v>
+        <v>15.83029721169674</v>
       </c>
     </row>
     <row r="258">
@@ -16685,7 +16685,7 @@
         <v>4.944444444444444</v>
       </c>
       <c r="H258" t="n">
-        <v>-4.8</v>
+        <v>-20.44444444444444</v>
       </c>
       <c r="I258" t="n">
         <v>101.74</v>
@@ -16718,7 +16718,7 @@
         <v>0.01016</v>
       </c>
       <c r="S258" t="n">
-        <v>49.31281870975022</v>
+        <v>13.92856979708782</v>
       </c>
     </row>
     <row r="259">
@@ -16748,7 +16748,7 @@
         <v>5.055555555555556</v>
       </c>
       <c r="H259" t="n">
-        <v>2.3</v>
+        <v>-16.5</v>
       </c>
       <c r="I259" t="n">
         <v>102.1</v>
@@ -16781,7 +16781,7 @@
         <v>0.01016</v>
       </c>
       <c r="S259" t="n">
-        <v>82.36072695253088</v>
+        <v>19.324692986287</v>
       </c>
     </row>
     <row r="260">
@@ -16811,7 +16811,7 @@
         <v>3.222222222222221</v>
       </c>
       <c r="H260" t="n">
-        <v>1.4</v>
+        <v>-17</v>
       </c>
       <c r="I260" t="n">
         <v>102.73</v>
@@ -16844,7 +16844,7 @@
         <v>0.01016</v>
       </c>
       <c r="S260" t="n">
-        <v>87.8306471089479</v>
+        <v>21.07679499134377</v>
       </c>
     </row>
     <row r="261">
@@ -16874,7 +16874,7 @@
         <v>2.000000000000001</v>
       </c>
       <c r="H261" t="n">
-        <v>4.8</v>
+        <v>-15.11111111111111</v>
       </c>
       <c r="I261" t="n">
         <v>102.87</v>
@@ -16907,7 +16907,7 @@
         <v>0.01016</v>
       </c>
       <c r="S261" t="n">
-        <v>121.851837015567</v>
+        <v>26.89934838377504</v>
       </c>
     </row>
     <row r="262">
@@ -16937,7 +16937,7 @@
         <v>6.222222222222224</v>
       </c>
       <c r="H262" t="n">
-        <v>3.3</v>
+        <v>-15.94444444444444</v>
       </c>
       <c r="I262" t="n">
         <v>101.74</v>
@@ -16970,7 +16970,7 @@
         <v>0.01016</v>
       </c>
       <c r="S262" t="n">
-        <v>81.54561503082284</v>
+        <v>18.66754423895019</v>
       </c>
     </row>
     <row r="263">
@@ -17000,7 +17000,7 @@
         <v>3.777777777777776</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>-16.66666666666667</v>
       </c>
       <c r="I263" t="n">
         <v>101.84</v>
@@ -17033,7 +17033,7 @@
         <v>0.01016</v>
       </c>
       <c r="S263" t="n">
-        <v>88.16133485435833</v>
+        <v>20.84068946912696</v>
       </c>
     </row>
     <row r="264">
@@ -17063,7 +17063,7 @@
         <v>2.833333333333334</v>
       </c>
       <c r="H264" t="n">
-        <v>5.2</v>
+        <v>-14.88888888888889</v>
       </c>
       <c r="I264" t="n">
         <v>102.58</v>
@@ -17096,7 +17096,7 @@
         <v>0.01016</v>
       </c>
       <c r="S264" t="n">
-        <v>118.0828500632017</v>
+        <v>25.81936897449773</v>
       </c>
     </row>
     <row r="265">
@@ -17126,7 +17126,7 @@
         <v>4.055555555555554</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>-16.11111111111111</v>
       </c>
       <c r="I265" t="n">
         <v>102.4</v>
@@ -17159,7 +17159,7 @@
         <v>0.01016</v>
       </c>
       <c r="S265" t="n">
-        <v>92.8275793036652</v>
+        <v>21.40717837648157</v>
       </c>
     </row>
     <row r="266">
@@ -17189,7 +17189,7 @@
         <v>-1.111111111111111</v>
       </c>
       <c r="H266" t="n">
-        <v>1.8</v>
+        <v>-16.77777777777778</v>
       </c>
       <c r="I266" t="n">
         <v>102.27</v>
@@ -17222,7 +17222,7 @@
         <v>0.01016</v>
       </c>
       <c r="S266" t="n">
-        <v>123.4493730491934</v>
+        <v>29.32861086061316</v>
       </c>
     </row>
     <row r="267">
@@ -17252,7 +17252,7 @@
         <v>2.388888888888888</v>
       </c>
       <c r="H267" t="n">
-        <v>1.3</v>
+        <v>-17.05555555555556</v>
       </c>
       <c r="I267" t="n">
         <v>102.09</v>
@@ -17285,7 +17285,7 @@
         <v>0.01016</v>
       </c>
       <c r="S267" t="n">
-        <v>92.5118080654909</v>
+        <v>22.25607120620024</v>
       </c>
     </row>
     <row r="268">
@@ -17315,7 +17315,7 @@
         <v>1.111111111111111</v>
       </c>
       <c r="H268" t="n">
-        <v>1.2</v>
+        <v>-17.11111111111111</v>
       </c>
       <c r="I268" t="n">
         <v>102.28</v>
@@ -17348,7 +17348,7 @@
         <v>0.01016</v>
       </c>
       <c r="S268" t="n">
-        <v>100.64100447738</v>
+        <v>24.27284566068245</v>
       </c>
     </row>
     <row r="269">
@@ -17378,7 +17378,7 @@
         <v>2.277777777777779</v>
       </c>
       <c r="H269" t="n">
-        <v>-2.5</v>
+        <v>-19.16666666666667</v>
       </c>
       <c r="I269" t="n">
         <v>102.14</v>
@@ -17411,7 +17411,7 @@
         <v>0.01016</v>
       </c>
       <c r="S269" t="n">
-        <v>70.67644783675804</v>
+        <v>18.75979002160959</v>
       </c>
     </row>
     <row r="270">
@@ -17441,7 +17441,7 @@
         <v>-3.055555555555556</v>
       </c>
       <c r="H270" t="n">
-        <v>4.7</v>
+        <v>-15.16666666666667</v>
       </c>
       <c r="I270" t="n">
         <v>102.91</v>
@@ -17474,7 +17474,7 @@
         <v>0.01016</v>
       </c>
       <c r="S270" t="n">
-        <v>174.9193111744543</v>
+        <v>38.70693959004303</v>
       </c>
     </row>
     <row r="271">
@@ -17504,7 +17504,7 @@
         <v>-4.111111111111111</v>
       </c>
       <c r="H271" t="n">
-        <v>-5</v>
+        <v>-20.55555555555556</v>
       </c>
       <c r="I271" t="n">
         <v>102.93</v>
@@ -17537,7 +17537,7 @@
         <v>0.01016</v>
       </c>
       <c r="S271" t="n">
-        <v>93.52073457087732</v>
+        <v>26.56098099377325</v>
       </c>
     </row>
     <row r="272">
@@ -17567,7 +17567,7 @@
         <v>-4.944444444444444</v>
       </c>
       <c r="H272" t="n">
-        <v>-6.4</v>
+        <v>-21.33333333333333</v>
       </c>
       <c r="I272" t="n">
         <v>102.96</v>
@@ -17600,7 +17600,7 @@
         <v>0.01016</v>
       </c>
       <c r="S272" t="n">
-        <v>89.51854561760044</v>
+        <v>26.43436684458511</v>
       </c>
     </row>
     <row r="273">
@@ -17630,7 +17630,7 @@
         <v>-4.277777777777778</v>
       </c>
       <c r="H273" t="n">
-        <v>-2.4</v>
+        <v>-19.11111111111111</v>
       </c>
       <c r="I273" t="n">
         <v>102.45</v>
@@ -17663,7 +17663,7 @@
         <v>0.01016</v>
       </c>
       <c r="S273" t="n">
-        <v>115.03676226891</v>
+        <v>30.45343513694196</v>
       </c>
     </row>
     <row r="274">
@@ -17693,7 +17693,7 @@
         <v>-3.277777777777777</v>
       </c>
       <c r="H274" t="n">
-        <v>-3.1</v>
+        <v>-19.5</v>
       </c>
       <c r="I274" t="n">
         <v>102.67</v>
@@ -17726,7 +17726,7 @@
         <v>0.01016</v>
       </c>
       <c r="S274" t="n">
-        <v>101.333351713281</v>
+        <v>27.33141365733742</v>
       </c>
     </row>
     <row r="275">
@@ -17756,7 +17756,7 @@
         <v>-2.944444444444445</v>
       </c>
       <c r="H275" t="n">
-        <v>-4.8</v>
+        <v>-20.44444444444444</v>
       </c>
       <c r="I275" t="n">
         <v>102.61</v>
@@ -17789,7 +17789,7 @@
         <v>0.01016</v>
       </c>
       <c r="S275" t="n">
-        <v>87.019268864165</v>
+        <v>24.57888216043963</v>
       </c>
     </row>
     <row r="276">
@@ -17819,7 +17819,7 @@
         <v>-3.38888888888889</v>
       </c>
       <c r="H276" t="n">
-        <v>-3.9</v>
+        <v>-19.94444444444444</v>
       </c>
       <c r="I276" t="n">
         <v>102.27</v>
@@ -17852,7 +17852,7 @@
         <v>0.01016</v>
       </c>
       <c r="S276" t="n">
-        <v>96.24959929359321</v>
+        <v>26.5263270961631</v>
       </c>
     </row>
     <row r="277">
@@ -17882,7 +17882,7 @@
         <v>-4.166666666666667</v>
       </c>
       <c r="H277" t="n">
-        <v>4.6</v>
+        <v>-15.22222222222222</v>
       </c>
       <c r="I277" t="n">
         <v>102.59</v>
@@ -17915,7 +17915,7 @@
         <v>0.01016</v>
       </c>
       <c r="S277" t="n">
-        <v>188.7481204478144</v>
+        <v>41.86745716087903</v>
       </c>
     </row>
     <row r="278">
@@ -17945,7 +17945,7 @@
         <v>-3.777777777777778</v>
       </c>
       <c r="H278" t="n">
-        <v>9.6</v>
+        <v>-12.44444444444444</v>
       </c>
       <c r="I278" t="n">
         <v>102.58</v>
@@ -17978,7 +17978,7 @@
         <v>0.01016</v>
       </c>
       <c r="S278" t="n">
-        <v>258.2294868098558</v>
+        <v>51.00588701559317</v>
       </c>
     </row>
     <row r="279">
@@ -18008,7 +18008,7 @@
         <v>-5.499999999999999</v>
       </c>
       <c r="H279" t="n">
-        <v>1.4</v>
+        <v>-17</v>
       </c>
       <c r="I279" t="n">
         <v>102.83</v>
@@ -18041,7 +18041,7 @@
         <v>0.01016</v>
       </c>
       <c r="S279" t="n">
-        <v>166.4214090638202</v>
+        <v>39.93628689377323</v>
       </c>
     </row>
     <row r="280">
@@ -18071,7 +18071,7 @@
         <v>-4.944444444444444</v>
       </c>
       <c r="H280" t="n">
-        <v>-5.1</v>
+        <v>-20.61111111111111</v>
       </c>
       <c r="I280" t="n">
         <v>102.99</v>
@@ -18104,7 +18104,7 @@
         <v>0.01016</v>
       </c>
       <c r="S280" t="n">
-        <v>98.83003669731788</v>
+        <v>28.14637566863421</v>
       </c>
     </row>
     <row r="281">
@@ -18134,7 +18134,7 @@
         <v>-0.4999999999999992</v>
       </c>
       <c r="H281" t="n">
-        <v>-2.2</v>
+        <v>-19</v>
       </c>
       <c r="I281" t="n">
         <v>102.48</v>
@@ -18167,7 +18167,7 @@
         <v>0.01016</v>
       </c>
       <c r="S281" t="n">
-        <v>88.27225527810725</v>
+        <v>23.24457195612246</v>
       </c>
     </row>
     <row r="282">
@@ -18197,7 +18197,7 @@
         <v>-0.6666666666666663</v>
       </c>
       <c r="H282" t="n">
-        <v>-3</v>
+        <v>-19.44444444444445</v>
       </c>
       <c r="I282" t="n">
         <v>101.91</v>
@@ -18230,7 +18230,7 @@
         <v>0.01016</v>
       </c>
       <c r="S282" t="n">
-        <v>84.2059028476626</v>
+        <v>22.65106755462077</v>
       </c>
     </row>
     <row r="283">
@@ -18260,7 +18260,7 @@
         <v>3.111111111111112</v>
       </c>
       <c r="H283" t="n">
-        <v>-4</v>
+        <v>-20</v>
       </c>
       <c r="I283" t="n">
         <v>100.83</v>
@@ -18293,7 +18293,7 @@
         <v>0.01016</v>
       </c>
       <c r="S283" t="n">
-        <v>59.56929712810171</v>
+        <v>16.46187434248496</v>
       </c>
     </row>
     <row r="284">
@@ -18323,7 +18323,7 @@
         <v>-2.944444444444445</v>
       </c>
       <c r="H284" t="n">
-        <v>-11.9</v>
+        <v>-24.38888888888889</v>
       </c>
       <c r="I284" t="n">
         <v>102.03</v>
@@ -18356,7 +18356,7 @@
         <v>0.01016</v>
       </c>
       <c r="S284" t="n">
-        <v>50.07589441405317</v>
+        <v>17.36811926227578</v>
       </c>
     </row>
     <row r="285">
@@ -18386,7 +18386,7 @@
         <v>-3.777777777777778</v>
       </c>
       <c r="H285" t="n">
-        <v>1.1</v>
+        <v>-17.16666666666667</v>
       </c>
       <c r="I285" t="n">
         <v>102.25</v>
@@ -18419,7 +18419,7 @@
         <v>0.01016</v>
       </c>
       <c r="S285" t="n">
-        <v>143.0359217319377</v>
+        <v>34.58492240939366</v>
       </c>
     </row>
     <row r="286">
@@ -18449,7 +18449,7 @@
         <v>-3.38888888888889</v>
       </c>
       <c r="H286" t="n">
-        <v>1.8</v>
+        <v>-16.77777777777778</v>
       </c>
       <c r="I286" t="n">
         <v>102.73</v>
@@ -18482,7 +18482,7 @@
         <v>0.01016</v>
       </c>
       <c r="S286" t="n">
-        <v>146.09006429082</v>
+        <v>34.70749620154034</v>
       </c>
     </row>
     <row r="287">
@@ -18512,7 +18512,7 @@
         <v>-1.833333333333334</v>
       </c>
       <c r="H287" t="n">
-        <v>-9.199999999999999</v>
+        <v>-22.88888888888889</v>
       </c>
       <c r="I287" t="n">
         <v>102.26</v>
@@ -18545,7 +18545,7 @@
         <v>0.01016</v>
       </c>
       <c r="S287" t="n">
-        <v>57.13346584045939</v>
+        <v>18.28200104594679</v>
       </c>
     </row>
     <row r="288">
@@ -18575,7 +18575,7 @@
         <v>-5.333333333333334</v>
       </c>
       <c r="H288" t="n">
-        <v>-5.4</v>
+        <v>-20.77777777777778</v>
       </c>
       <c r="I288" t="n">
         <v>102.1</v>
@@ -18608,7 +18608,7 @@
         <v>0.01016</v>
       </c>
       <c r="S288" t="n">
-        <v>99.49544797786287</v>
+        <v>28.57189265377065</v>
       </c>
     </row>
     <row r="289">
@@ -18638,7 +18638,7 @@
         <v>-5.499999999999999</v>
       </c>
       <c r="H289" t="n">
-        <v>-3.9</v>
+        <v>-19.94444444444444</v>
       </c>
       <c r="I289" t="n">
         <v>102.39</v>
@@ -18671,7 +18671,7 @@
         <v>0.01016</v>
       </c>
       <c r="S289" t="n">
-        <v>112.8312862170304</v>
+        <v>31.09622925020296</v>
       </c>
     </row>
     <row r="290">
@@ -18701,7 +18701,7 @@
         <v>-6.944444444444445</v>
       </c>
       <c r="H290" t="n">
-        <v>-1.5</v>
+        <v>-18.61111111111111</v>
       </c>
       <c r="I290" t="n">
         <v>102.88</v>
@@ -18734,7 +18734,7 @@
         <v>0.01016</v>
       </c>
       <c r="S290" t="n">
-        <v>150.5619824680104</v>
+        <v>38.9229835579459</v>
       </c>
     </row>
     <row r="291">
@@ -18764,7 +18764,7 @@
         <v>-8.666666666666668</v>
       </c>
       <c r="H291" t="n">
-        <v>-1.1</v>
+        <v>-18.38888888888889</v>
       </c>
       <c r="I291" t="n">
         <v>102.9</v>
@@ -18797,7 +18797,7 @@
         <v>0.01016</v>
       </c>
       <c r="S291" t="n">
-        <v>177.1694492153193</v>
+        <v>45.32525223059299</v>
       </c>
     </row>
     <row r="292">
@@ -18827,7 +18827,7 @@
         <v>-8.388888888888889</v>
       </c>
       <c r="H292" t="n">
-        <v>-1.9</v>
+        <v>-18.83333333333333</v>
       </c>
       <c r="I292" t="n">
         <v>102.89</v>
@@ -18860,7 +18860,7 @@
         <v>0.01016</v>
       </c>
       <c r="S292" t="n">
-        <v>163.4789189622888</v>
+        <v>42.70885459603574</v>
       </c>
     </row>
     <row r="293">
@@ -18890,7 +18890,7 @@
         <v>-7.611111111111111</v>
       </c>
       <c r="H293" t="n">
-        <v>-5.4</v>
+        <v>-20.77777777777778</v>
       </c>
       <c r="I293" t="n">
         <v>103.05</v>
@@ -18923,7 +18923,7 @@
         <v>0.01016</v>
       </c>
       <c r="S293" t="n">
-        <v>118.4578078096314</v>
+        <v>34.01727252377243</v>
       </c>
     </row>
     <row r="294">
@@ -18953,7 +18953,7 @@
         <v>-9.833333333333334</v>
       </c>
       <c r="H294" t="n">
-        <v>-3.8</v>
+        <v>-19.88888888888889</v>
       </c>
       <c r="I294" t="n">
         <v>102.52</v>
@@ -18986,7 +18986,7 @@
         <v>0.01016</v>
       </c>
       <c r="S294" t="n">
-        <v>158.9591143482285</v>
+        <v>43.6904676666782</v>
       </c>
     </row>
     <row r="295">
@@ -19016,7 +19016,7 @@
         <v>-6.222222222222222</v>
       </c>
       <c r="H295" t="n">
-        <v>-0.1</v>
+        <v>-17.83333333333334</v>
       </c>
       <c r="I295" t="n">
         <v>102.43</v>
@@ -19049,7 +19049,7 @@
         <v>0.01016</v>
       </c>
       <c r="S295" t="n">
-        <v>157.7919548804258</v>
+        <v>39.33691423215181</v>
       </c>
     </row>
     <row r="296">
@@ -19079,7 +19079,7 @@
         <v>-5.722222222222223</v>
       </c>
       <c r="H296" t="n">
-        <v>-15</v>
+        <v>-26.11111111111111</v>
       </c>
       <c r="I296" t="n">
         <v>103.13</v>
@@ -19112,7 +19112,7 @@
         <v>0.01016</v>
       </c>
       <c r="S296" t="n">
-        <v>47.9639616986252</v>
+        <v>18.32047435931234</v>
       </c>
     </row>
     <row r="297">
@@ -19142,7 +19142,7 @@
         <v>-9.388888888888889</v>
       </c>
       <c r="H297" t="n">
-        <v>-8.300000000000001</v>
+        <v>-22.38888888888889</v>
       </c>
       <c r="I297" t="n">
         <v>103.72</v>
@@ -19175,7 +19175,7 @@
         <v>0.01016</v>
       </c>
       <c r="S297" t="n">
-        <v>108.8811048171025</v>
+        <v>33.94076116735861</v>
       </c>
     </row>
     <row r="298">
@@ -19205,7 +19205,7 @@
         <v>-8.888888888888889</v>
       </c>
       <c r="H298" t="n">
-        <v>-10.6</v>
+        <v>-23.66666666666667</v>
       </c>
       <c r="I298" t="n">
         <v>103.1</v>
@@ -19238,7 +19238,7 @@
         <v>0.01016</v>
       </c>
       <c r="S298" t="n">
-        <v>87.39433463477936</v>
+        <v>29.14671125502309</v>
       </c>
     </row>
     <row r="299">
@@ -19268,7 +19268,7 @@
         <v>-9</v>
       </c>
       <c r="H299" t="n">
-        <v>-8.6</v>
+        <v>-22.55555555555556</v>
       </c>
       <c r="I299" t="n">
         <v>103.21</v>
@@ -19301,7 +19301,7 @@
         <v>0.01016</v>
       </c>
       <c r="S299" t="n">
-        <v>103.1737440729977</v>
+        <v>32.44217269629024</v>
       </c>
     </row>
     <row r="300">
@@ -19331,7 +19331,7 @@
         <v>-8.777777777777779</v>
       </c>
       <c r="H300" t="n">
-        <v>-19.6</v>
+        <v>-28.66666666666667</v>
       </c>
       <c r="I300" t="n">
         <v>104.27</v>
@@ -19364,7 +19364,7 @@
         <v>0.01016</v>
       </c>
       <c r="S300" t="n">
-        <v>41.22933054932793</v>
+        <v>18.32264412488659</v>
       </c>
     </row>
     <row r="301">
@@ -19394,7 +19394,7 @@
         <v>-13.66666666666667</v>
       </c>
       <c r="H301" t="n">
-        <v>-18.5</v>
+        <v>-28.05555555555556</v>
       </c>
       <c r="I301" t="n">
         <v>104.8</v>
@@ -19427,7 +19427,7 @@
         <v>0.01016</v>
       </c>
       <c r="S301" t="n">
-        <v>66.88812387694234</v>
+        <v>28.6418670782399</v>
       </c>
     </row>
     <row r="302">
@@ -19457,7 +19457,7 @@
         <v>-15.38888888888889</v>
       </c>
       <c r="H302" t="n">
-        <v>-17.1</v>
+        <v>-27.27777777777778</v>
       </c>
       <c r="I302" t="n">
         <v>104.2</v>
@@ -19490,7 +19490,7 @@
         <v>0.01016</v>
       </c>
       <c r="S302" t="n">
-        <v>86.71374666158739</v>
+        <v>35.44732458224083</v>
       </c>
     </row>
     <row r="303">
@@ -19520,7 +19520,7 @@
         <v>-14.33333333333333</v>
       </c>
       <c r="H303" t="n">
-        <v>-23.6</v>
+        <v>-30.88888888888889</v>
       </c>
       <c r="I303" t="n">
         <v>104.1</v>
@@ -19553,7 +19553,7 @@
         <v>0.01016</v>
       </c>
       <c r="S303" t="n">
-        <v>45.33037284490365</v>
+        <v>23.17765603666931</v>
       </c>
     </row>
     <row r="304">
@@ -19583,7 +19583,7 @@
         <v>-13.83333333333333</v>
       </c>
       <c r="H304" t="n">
-        <v>-15</v>
+        <v>-26.11111111111111</v>
       </c>
       <c r="I304" t="n">
         <v>104.16</v>
@@ -19616,7 +19616,7 @@
         <v>0.01016</v>
       </c>
       <c r="S304" t="n">
-        <v>90.87794003390553</v>
+        <v>34.71204027473012</v>
       </c>
     </row>
     <row r="305">
@@ -19646,7 +19646,7 @@
         <v>-13.44444444444444</v>
       </c>
       <c r="H305" t="n">
-        <v>-15.2</v>
+        <v>-26.22222222222222</v>
       </c>
       <c r="I305" t="n">
         <v>103.63</v>
@@ -19679,7 +19679,7 @@
         <v>0.01016</v>
       </c>
       <c r="S305" t="n">
-        <v>86.60458671229098</v>
+        <v>33.29131344366372</v>
       </c>
     </row>
     <row r="306">
@@ -19709,7 +19709,7 @@
         <v>-13.94444444444445</v>
       </c>
       <c r="H306" t="n">
-        <v>-15.5</v>
+        <v>-26.38888888888889</v>
       </c>
       <c r="I306" t="n">
         <v>103.91</v>
@@ -19742,7 +19742,7 @@
         <v>0.01016</v>
       </c>
       <c r="S306" t="n">
-        <v>87.99600667699249</v>
+        <v>34.15235720871533</v>
       </c>
     </row>
     <row r="307">
@@ -19772,7 +19772,7 @@
         <v>-14.22222222222222</v>
       </c>
       <c r="H307" t="n">
-        <v>-14.4</v>
+        <v>-25.77777777777778</v>
       </c>
       <c r="I307" t="n">
         <v>104.11</v>
@@ -19805,7 +19805,7 @@
         <v>0.01016</v>
       </c>
       <c r="S307" t="n">
-        <v>98.55433509323653</v>
+        <v>36.93519709071428</v>
       </c>
     </row>
     <row r="308">
@@ -19835,7 +19835,7 @@
         <v>-13.88888888888889</v>
       </c>
       <c r="H308" t="n">
-        <v>-20.3</v>
+        <v>-29.05555555555555</v>
       </c>
       <c r="I308" t="n">
         <v>104.27</v>
@@ -19868,7 +19868,7 @@
         <v>0.01016</v>
       </c>
       <c r="S308" t="n">
-        <v>58.37706260808684</v>
+        <v>26.5720181821303</v>
       </c>
     </row>
     <row r="309">
@@ -19898,7 +19898,7 @@
         <v>-13.5</v>
       </c>
       <c r="H309" t="n">
-        <v>-21.7</v>
+        <v>-29.83333333333334</v>
       </c>
       <c r="I309" t="n">
         <v>104.28</v>
@@ -19931,7 +19931,7 @@
         <v>0.01016</v>
       </c>
       <c r="S309" t="n">
-        <v>50.07701976954473</v>
+        <v>23.93012851921849</v>
       </c>
     </row>
     <row r="310">
@@ -19961,7 +19961,7 @@
         <v>-13.44444444444444</v>
       </c>
       <c r="H310" t="n">
-        <v>-15.5</v>
+        <v>-26.38888888888889</v>
       </c>
       <c r="I310" t="n">
         <v>104.37</v>
@@ -19994,7 +19994,7 @@
         <v>0.01016</v>
       </c>
       <c r="S310" t="n">
-        <v>84.48337887446094</v>
+        <v>32.78906216859291</v>
       </c>
     </row>
     <row r="311">
@@ -20024,7 +20024,7 @@
         <v>-15.05555555555556</v>
       </c>
       <c r="H311" t="n">
-        <v>-16.5</v>
+        <v>-26.94444444444445</v>
       </c>
       <c r="I311" t="n">
         <v>104.14</v>
@@ -20057,7 +20057,7 @@
         <v>0.01016</v>
       </c>
       <c r="S311" t="n">
-        <v>88.70554770185713</v>
+        <v>35.55764395926086</v>
       </c>
     </row>
     <row r="312">
@@ -20087,7 +20087,7 @@
         <v>-12.27777777777778</v>
       </c>
       <c r="H312" t="n">
-        <v>-15.9</v>
+        <v>-26.61111111111111</v>
       </c>
       <c r="I312" t="n">
         <v>104.17</v>
@@ -20120,7 +20120,7 @@
         <v>0.01016</v>
       </c>
       <c r="S312" t="n">
-        <v>74.36773692376781</v>
+        <v>29.23664795270585</v>
       </c>
     </row>
     <row r="313">
@@ -20150,7 +20150,7 @@
         <v>-13.38888888888889</v>
       </c>
       <c r="H313" t="n">
-        <v>-14.7</v>
+        <v>-25.94444444444445</v>
       </c>
       <c r="I313" t="n">
         <v>104.18</v>
@@ -20183,7 +20183,7 @@
         <v>0.01016</v>
       </c>
       <c r="S313" t="n">
-        <v>89.83932918710971</v>
+        <v>33.98996192983517</v>
       </c>
     </row>
     <row r="314">
@@ -20213,7 +20213,7 @@
         <v>-11.77777777777778</v>
       </c>
       <c r="H314" t="n">
-        <v>-17.4</v>
+        <v>-27.44444444444445</v>
       </c>
       <c r="I314" t="n">
         <v>103.78</v>
@@ -20246,7 +20246,7 @@
         <v>0.01016</v>
       </c>
       <c r="S314" t="n">
-        <v>63.02010566595219</v>
+        <v>26.01712612034933</v>
       </c>
     </row>
     <row r="315">
@@ -20276,7 +20276,7 @@
         <v>-11.77777777777778</v>
       </c>
       <c r="H315" t="n">
-        <v>-14.8</v>
+        <v>-26</v>
       </c>
       <c r="I315" t="n">
         <v>103.61</v>
@@ -20309,7 +20309,7 @@
         <v>0.01016</v>
       </c>
       <c r="S315" t="n">
-        <v>78.24120747185626</v>
+        <v>29.69592656583608</v>
       </c>
     </row>
     <row r="316">
@@ -20339,7 +20339,7 @@
         <v>-8.611111111111111</v>
       </c>
       <c r="H316" t="n">
-        <v>-17.7</v>
+        <v>-27.61111111111111</v>
       </c>
       <c r="I316" t="n">
         <v>103.26</v>
@@ -20372,7 +20372,7 @@
         <v>0.01016</v>
       </c>
       <c r="S316" t="n">
-        <v>47.83911414084629</v>
+        <v>19.94650524062825</v>
       </c>
     </row>
     <row r="317">
@@ -20402,7 +20402,7 @@
         <v>-7.666666666666667</v>
       </c>
       <c r="H317" t="n">
-        <v>-14.9</v>
+        <v>-26.05555555555556</v>
       </c>
       <c r="I317" t="n">
         <v>102.76</v>
@@ -20435,7 +20435,7 @@
         <v>0.01016</v>
       </c>
       <c r="S317" t="n">
-        <v>56.14188354856727</v>
+        <v>21.37605102356476</v>
       </c>
     </row>
     <row r="318">
@@ -20465,7 +20465,7 @@
         <v>-15.11111111111111</v>
       </c>
       <c r="H318" t="n">
-        <v>-13.5</v>
+        <v>-25.27777777777778</v>
       </c>
       <c r="I318" t="n">
         <v>104.42</v>
@@ -20498,7 +20498,7 @@
         <v>0.01016</v>
       </c>
       <c r="S318" t="n">
-        <v>114.1068186336664</v>
+        <v>41.57430047552197</v>
       </c>
     </row>
     <row r="319">
@@ -20528,7 +20528,7 @@
         <v>-18.27777777777778</v>
       </c>
       <c r="H319" t="n">
-        <v>-20.1</v>
+        <v>-28.94444444444445</v>
       </c>
       <c r="I319" t="n">
         <v>104.79</v>
@@ -20561,7 +20561,7 @@
         <v>0.01016</v>
       </c>
       <c r="S319" t="n">
-        <v>85.57072959793385</v>
+        <v>38.6834393742881</v>
       </c>
     </row>
     <row r="320">
@@ -20591,7 +20591,7 @@
         <v>-16.88888888888889</v>
       </c>
       <c r="H320" t="n">
-        <v>-19.6</v>
+        <v>-28.66666666666667</v>
       </c>
       <c r="I320" t="n">
         <v>104.28</v>
@@ -20624,7 +20624,7 @@
         <v>0.01016</v>
       </c>
       <c r="S320" t="n">
-        <v>79.46094562321612</v>
+        <v>35.31307952573309</v>
       </c>
     </row>
     <row r="321">
@@ -20654,7 +20654,7 @@
         <v>-16.88888888888889</v>
       </c>
       <c r="H321" t="n">
-        <v>-17.7</v>
+        <v>-27.61111111111111</v>
       </c>
       <c r="I321" t="n">
         <v>104.06</v>
@@ -20687,7 +20687,7 @@
         <v>0.01016</v>
       </c>
       <c r="S321" t="n">
-        <v>93.40697744666778</v>
+        <v>38.94601308180169</v>
       </c>
     </row>
     <row r="322">
@@ -20717,7 +20717,7 @@
         <v>-14.55555555555556</v>
       </c>
       <c r="H322" t="n">
-        <v>-18</v>
+        <v>-27.77777777777778</v>
       </c>
       <c r="I322" t="n">
         <v>103.72</v>
@@ -20750,7 +20750,7 @@
         <v>0.01016</v>
       </c>
       <c r="S322" t="n">
-        <v>75.04640390417752</v>
+        <v>31.60355681762655</v>
       </c>
     </row>
     <row r="323">
@@ -20780,7 +20780,7 @@
         <v>-10.55555555555556</v>
       </c>
       <c r="H323" t="n">
-        <v>-25.4</v>
+        <v>-31.88888888888889</v>
       </c>
       <c r="I323" t="n">
         <v>103.04</v>
@@ -20813,7 +20813,7 @@
         <v>0.01016</v>
       </c>
       <c r="S323" t="n">
-        <v>28.4460018894439</v>
+        <v>15.53457882013842</v>
       </c>
     </row>
     <row r="324">
@@ -20843,7 +20843,7 @@
         <v>-12.38888888888889</v>
       </c>
       <c r="H324" t="n">
-        <v>-25.4</v>
+        <v>-31.88888888888889</v>
       </c>
       <c r="I324" t="n">
         <v>104</v>
@@ -20876,7 +20876,7 @@
         <v>0.01016</v>
       </c>
       <c r="S324" t="n">
-        <v>32.93480274891957</v>
+        <v>17.98594724198005</v>
       </c>
     </row>
     <row r="325">
@@ -20906,7 +20906,7 @@
         <v>-15.94444444444444</v>
       </c>
       <c r="H325" t="n">
-        <v>-23.7</v>
+        <v>-30.94444444444445</v>
       </c>
       <c r="I325" t="n">
         <v>103.62</v>
@@ -20939,7 +20939,7 @@
         <v>0.01016</v>
       </c>
       <c r="S325" t="n">
-        <v>51.31612964105934</v>
+        <v>26.33316215176178</v>
       </c>
     </row>
     <row r="326">
@@ -20969,7 +20969,7 @@
         <v>-10.44444444444444</v>
       </c>
       <c r="H326" t="n">
-        <v>-19.5</v>
+        <v>-28.61111111111111</v>
       </c>
       <c r="I326" t="n">
         <v>102.93</v>
@@ -21002,7 +21002,7 @@
         <v>0.01016</v>
       </c>
       <c r="S326" t="n">
-        <v>47.40933531647542</v>
+        <v>20.99755108164384</v>
       </c>
     </row>
     <row r="327">
@@ -21032,7 +21032,7 @@
         <v>-6.833333333333334</v>
       </c>
       <c r="H327" t="n">
-        <v>-21.4</v>
+        <v>-29.66666666666667</v>
       </c>
       <c r="I327" t="n">
         <v>103.08</v>
@@ -21065,7 +21065,7 @@
         <v>0.01016</v>
       </c>
       <c r="S327" t="n">
-        <v>30.35019432420718</v>
+        <v>14.35174630414146</v>
       </c>
     </row>
     <row r="328">
@@ -21095,7 +21095,7 @@
         <v>-9.888888888888889</v>
       </c>
       <c r="H328" t="n">
-        <v>-18.9</v>
+        <v>-28.27777777777778</v>
       </c>
       <c r="I328" t="n">
         <v>103.58</v>
@@ -21128,7 +21128,7 @@
         <v>0.01016</v>
       </c>
       <c r="S328" t="n">
-        <v>47.76187569244303</v>
+        <v>20.72855106283437</v>
       </c>
     </row>
     <row r="329">
@@ -21158,7 +21158,7 @@
         <v>-8.444444444444445</v>
       </c>
       <c r="H329" t="n">
-        <v>-16.9</v>
+        <v>-27.16666666666667</v>
       </c>
       <c r="I329" t="n">
         <v>103.39</v>
@@ -21191,7 +21191,7 @@
         <v>0.01016</v>
       </c>
       <c r="S329" t="n">
-        <v>50.50783421665025</v>
+        <v>20.51200924074027</v>
       </c>
     </row>
     <row r="330">
@@ -21221,7 +21221,7 @@
         <v>-8.055555555555555</v>
       </c>
       <c r="H330" t="n">
-        <v>-17.9</v>
+        <v>-27.72222222222222</v>
       </c>
       <c r="I330" t="n">
         <v>103.16</v>
@@ -21254,7 +21254,7 @@
         <v>0.01016</v>
       </c>
       <c r="S330" t="n">
-        <v>45.04797532507447</v>
+        <v>18.90768901801282</v>
       </c>
     </row>
     <row r="331">
@@ -21284,7 +21284,7 @@
         <v>-3.944444444444446</v>
       </c>
       <c r="H331" t="n">
-        <v>-5.7</v>
+        <v>-20.94444444444445</v>
       </c>
       <c r="I331" t="n">
         <v>101.78</v>
@@ -21317,7 +21317,7 @@
         <v>0.01016</v>
       </c>
       <c r="S331" t="n">
-        <v>87.58184310458564</v>
+        <v>25.36107596918469</v>
       </c>
     </row>
     <row r="332">
@@ -21347,7 +21347,7 @@
         <v>-3.222222222222223</v>
       </c>
       <c r="H332" t="n">
-        <v>-9.300000000000001</v>
+        <v>-22.94444444444444</v>
       </c>
       <c r="I332" t="n">
         <v>102.09</v>
@@ -21380,7 +21380,7 @@
         <v>0.01016</v>
       </c>
       <c r="S332" t="n">
-        <v>62.83187588347811</v>
+        <v>20.16438500874476</v>
       </c>
     </row>
     <row r="333">
@@ -21410,7 +21410,7 @@
         <v>-5.166666666666667</v>
       </c>
       <c r="H333" t="n">
-        <v>-7.5</v>
+        <v>-21.94444444444445</v>
       </c>
       <c r="I333" t="n">
         <v>102.43</v>
@@ -21443,7 +21443,7 @@
         <v>0.01016</v>
       </c>
       <c r="S333" t="n">
-        <v>83.65318649343939</v>
+        <v>25.48431439353391</v>
       </c>
     </row>
     <row r="334">
@@ -21473,7 +21473,7 @@
         <v>-1.222222222222222</v>
       </c>
       <c r="H334" t="n">
-        <v>-8.6</v>
+        <v>-22.55555555555556</v>
       </c>
       <c r="I334" t="n">
         <v>102.22</v>
@@ -21506,7 +21506,7 @@
         <v>0.01016</v>
       </c>
       <c r="S334" t="n">
-        <v>57.24774179114242</v>
+        <v>18.00110233807969</v>
       </c>
     </row>
     <row r="335">
@@ -21536,7 +21536,7 @@
         <v>-5.777777777777778</v>
       </c>
       <c r="H335" t="n">
-        <v>-11.7</v>
+        <v>-24.27777777777778</v>
       </c>
       <c r="I335" t="n">
         <v>101.96</v>
@@ -21569,7 +21569,7 @@
         <v>0.01016</v>
       </c>
       <c r="S335" t="n">
-        <v>62.97575230879801</v>
+        <v>21.70993162228611</v>
       </c>
     </row>
     <row r="336">
@@ -21599,7 +21599,7 @@
         <v>-1.444444444444445</v>
       </c>
       <c r="H336" t="n">
-        <v>-13.9</v>
+        <v>-25.5</v>
       </c>
       <c r="I336" t="n">
         <v>101.83</v>
@@ -21632,7 +21632,7 @@
         <v>0.01016</v>
       </c>
       <c r="S336" t="n">
-        <v>38.12503936878615</v>
+        <v>14.06529800173302</v>
       </c>
     </row>
     <row r="337">
@@ -21662,7 +21662,7 @@
         <v>-2.388888888888889</v>
       </c>
       <c r="H337" t="n">
-        <v>-13.7</v>
+        <v>-25.38888888888889</v>
       </c>
       <c r="I337" t="n">
         <v>101.64</v>
@@ -21695,7 +21695,7 @@
         <v>0.01016</v>
       </c>
       <c r="S337" t="n">
-        <v>41.54628862445021</v>
+        <v>15.23190748291421</v>
       </c>
     </row>
     <row r="338">
@@ -21725,7 +21725,7 @@
         <v>-5.444444444444445</v>
       </c>
       <c r="H338" t="n">
-        <v>-4</v>
+        <v>-20</v>
       </c>
       <c r="I338" t="n">
         <v>102.32</v>
@@ -21758,7 +21758,7 @@
         <v>0.01016</v>
       </c>
       <c r="S338" t="n">
-        <v>111.5169633503871</v>
+        <v>30.8175238962749</v>
       </c>
     </row>
     <row r="339">
@@ -21788,7 +21788,7 @@
         <v>-7.833333333333335</v>
       </c>
       <c r="H339" t="n">
-        <v>-18.9</v>
+        <v>-28.27777777777778</v>
       </c>
       <c r="I339" t="n">
         <v>102.57</v>
@@ -21821,7 +21821,7 @@
         <v>0.01016</v>
       </c>
       <c r="S339" t="n">
-        <v>40.67365442328611</v>
+        <v>17.65227831616678</v>
       </c>
     </row>
     <row r="340">
@@ -21851,7 +21851,7 @@
         <v>-9.055555555555557</v>
       </c>
       <c r="H340" t="n">
-        <v>-19</v>
+        <v>-28.33333333333334</v>
       </c>
       <c r="I340" t="n">
         <v>102.37</v>
@@ -21884,7 +21884,7 @@
         <v>0.01016</v>
       </c>
       <c r="S340" t="n">
-        <v>44.35510609148159</v>
+        <v>19.31502855468587</v>
       </c>
     </row>
     <row r="341">
@@ -21914,7 +21914,7 @@
         <v>-6.777777777777778</v>
       </c>
       <c r="H341" t="n">
-        <v>-12.9</v>
+        <v>-24.94444444444445</v>
       </c>
       <c r="I341" t="n">
         <v>101.42</v>
@@ -21947,7 +21947,7 @@
         <v>0.01016</v>
       </c>
       <c r="S341" t="n">
-        <v>61.72047937182429</v>
+        <v>22.07310885311768</v>
       </c>
     </row>
     <row r="342">
@@ -21977,7 +21977,7 @@
         <v>-8</v>
       </c>
       <c r="H342" t="n">
-        <v>0.2</v>
+        <v>-17.66666666666667</v>
       </c>
       <c r="I342" t="n">
         <v>102.76</v>
@@ -22010,7 +22010,7 @@
         <v>0.01016</v>
       </c>
       <c r="S342" t="n">
-        <v>184.9205732769596</v>
+        <v>45.74682452542766</v>
       </c>
     </row>
     <row r="343">
@@ -22040,7 +22040,7 @@
         <v>-5.166666666666667</v>
       </c>
       <c r="H343" t="n">
-        <v>-9.1</v>
+        <v>-22.83333333333334</v>
       </c>
       <c r="I343" t="n">
         <v>102.65</v>
@@ -22073,7 +22073,7 @@
         <v>0.01016</v>
       </c>
       <c r="S343" t="n">
-        <v>73.86448294435073</v>
+        <v>23.56670454160438</v>
       </c>
     </row>
     <row r="344">
@@ -22103,7 +22103,7 @@
         <v>-4.500000000000001</v>
       </c>
       <c r="H344" t="n">
-        <v>0.1</v>
+        <v>-17.72222222222222</v>
       </c>
       <c r="I344" t="n">
         <v>102.39</v>
@@ -22136,7 +22136,7 @@
         <v>0.01016</v>
       </c>
       <c r="S344" t="n">
-        <v>140.4880771933575</v>
+        <v>34.84390679921995</v>
       </c>
     </row>
     <row r="345">
@@ -22166,7 +22166,7 @@
         <v>-0.4444444444444449</v>
       </c>
       <c r="H345" t="n">
-        <v>4.6</v>
+        <v>-15.22222222222222</v>
       </c>
       <c r="I345" t="n">
         <v>101.65</v>
@@ -22199,7 +22199,7 @@
         <v>0.01016</v>
       </c>
       <c r="S345" t="n">
-        <v>143.3227297995953</v>
+        <v>31.79135366131419</v>
       </c>
     </row>
     <row r="346">
@@ -22229,7 +22229,7 @@
         <v>2.000000000000001</v>
       </c>
       <c r="H346" t="n">
-        <v>17.7</v>
+        <v>-7.944444444444446</v>
       </c>
       <c r="I346" t="n">
         <v>101.57</v>
@@ -22262,7 +22262,7 @@
         <v>0.01016</v>
       </c>
       <c r="S346" t="n">
-        <v>286.7503189424266</v>
+        <v>47.71631204879575</v>
       </c>
     </row>
     <row r="347">
@@ -22292,7 +22292,7 @@
         <v>1.388888888888889</v>
       </c>
       <c r="H347" t="n">
-        <v>12.2</v>
+        <v>-11</v>
       </c>
       <c r="I347" t="n">
         <v>101.98</v>
@@ -22325,7 +22325,7 @@
         <v>0.01016</v>
       </c>
       <c r="S347" t="n">
-        <v>210.1935101852138</v>
+        <v>39.2108960545078</v>
       </c>
     </row>
     <row r="348">
@@ -22355,7 +22355,7 @@
         <v>-1.61111111111111</v>
       </c>
       <c r="H348" t="n">
-        <v>1.1</v>
+        <v>-17.16666666666667</v>
       </c>
       <c r="I348" t="n">
         <v>101.8</v>
@@ -22388,7 +22388,7 @@
         <v>0.01016</v>
       </c>
       <c r="S348" t="n">
-        <v>121.7934278631127</v>
+        <v>29.44866018002044</v>
       </c>
     </row>
     <row r="349">
@@ -22418,7 +22418,7 @@
         <v>-2.222222222222222</v>
       </c>
       <c r="H349" t="n">
-        <v>5.9</v>
+        <v>-14.5</v>
       </c>
       <c r="I349" t="n">
         <v>101.9</v>
@@ -22451,7 +22451,7 @@
         <v>0.01016</v>
       </c>
       <c r="S349" t="n">
-        <v>178.7396126994894</v>
+        <v>38.43897957315166</v>
       </c>
     </row>
     <row r="350">
@@ -22481,7 +22481,7 @@
         <v>-2.888888888888889</v>
       </c>
       <c r="H350" t="n">
-        <v>-9.300000000000001</v>
+        <v>-22.94444444444444</v>
       </c>
       <c r="I350" t="n">
         <v>101.95</v>
@@ -22514,7 +22514,7 @@
         <v>0.01016</v>
       </c>
       <c r="S350" t="n">
-        <v>61.29234206746332</v>
+        <v>19.67030852028093</v>
       </c>
     </row>
     <row r="351">
@@ -22544,7 +22544,7 @@
         <v>-4.055555555555556</v>
       </c>
       <c r="H351" t="n">
-        <v>-9.800000000000001</v>
+        <v>-23.22222222222222</v>
       </c>
       <c r="I351" t="n">
         <v>102.74</v>
@@ -22577,7 +22577,7 @@
         <v>0.01016</v>
       </c>
       <c r="S351" t="n">
-        <v>64.29472810696012</v>
+        <v>20.93952707953957</v>
       </c>
     </row>
     <row r="352">
@@ -22607,7 +22607,7 @@
         <v>-1</v>
       </c>
       <c r="H352" t="n">
-        <v>-10.4</v>
+        <v>-23.55555555555556</v>
       </c>
       <c r="I352" t="n">
         <v>102.71</v>
@@ -22640,7 +22640,7 @@
         <v>0.01016</v>
       </c>
       <c r="S352" t="n">
-        <v>48.89478071814113</v>
+        <v>16.20984685726349</v>
       </c>
     </row>
     <row r="353">
@@ -22670,7 +22670,7 @@
         <v>-2.777777777777778</v>
       </c>
       <c r="H353" t="n">
-        <v>-5.3</v>
+        <v>-20.72222222222222</v>
       </c>
       <c r="I353" t="n">
         <v>102.62</v>
@@ -22703,7 +22703,7 @@
         <v>0.01016</v>
       </c>
       <c r="S353" t="n">
-        <v>82.75705578805892</v>
+        <v>23.69945452718985</v>
       </c>
     </row>
     <row r="354">
@@ -22733,7 +22733,7 @@
         <v>-2.555555555555556</v>
       </c>
       <c r="H354" t="n">
-        <v>4.1</v>
+        <v>-15.5</v>
       </c>
       <c r="I354" t="n">
         <v>102.98</v>
@@ -22766,7 +22766,7 @@
         <v>0.01016</v>
       </c>
       <c r="S354" t="n">
-        <v>161.6094109597798</v>
+        <v>36.28249704780517</v>
       </c>
     </row>
     <row r="355">
@@ -22796,7 +22796,7 @@
         <v>-3.5</v>
       </c>
       <c r="H355" t="n">
-        <v>4.8</v>
+        <v>-15.11111111111111</v>
       </c>
       <c r="I355" t="n">
         <v>103.29</v>
@@ -22829,7 +22829,7 @@
         <v>0.01016</v>
       </c>
       <c r="S355" t="n">
-        <v>182.0796950569143</v>
+        <v>40.19492254615536</v>
       </c>
     </row>
     <row r="356">
@@ -22859,7 +22859,7 @@
         <v>-1.833333333333334</v>
       </c>
       <c r="H356" t="n">
-        <v>-11.3</v>
+        <v>-24.05555555555555</v>
       </c>
       <c r="I356" t="n">
         <v>103.19</v>
@@ -22892,7 +22892,7 @@
         <v>0.01016</v>
       </c>
       <c r="S356" t="n">
-        <v>48.39076071233276</v>
+        <v>16.48133598806385</v>
       </c>
     </row>
     <row r="357">
@@ -22922,7 +22922,7 @@
         <v>0.8888888888888897</v>
       </c>
       <c r="H357" t="n">
-        <v>-8.1</v>
+        <v>-22.27777777777778</v>
       </c>
       <c r="I357" t="n">
         <v>102.93</v>
@@ -22955,7 +22955,7 @@
         <v>0.01016</v>
       </c>
       <c r="S357" t="n">
-        <v>51.05405080267771</v>
+        <v>15.82318266282263</v>
       </c>
     </row>
     <row r="358">
@@ -22985,7 +22985,7 @@
         <v>-0.9444444444444441</v>
       </c>
       <c r="H358" t="n">
-        <v>-6.8</v>
+        <v>-21.55555555555555</v>
       </c>
       <c r="I358" t="n">
         <v>102.62</v>
@@ -23018,7 +23018,7 @@
         <v>0.01016</v>
       </c>
       <c r="S358" t="n">
-        <v>64.47918005828956</v>
+        <v>19.25627774550308</v>
       </c>
     </row>
     <row r="359">
@@ -23048,7 +23048,7 @@
         <v>0.3888888888888905</v>
       </c>
       <c r="H359" t="n">
-        <v>-7</v>
+        <v>-21.66666666666667</v>
       </c>
       <c r="I359" t="n">
         <v>102.35</v>
@@ -23081,7 +23081,7 @@
         <v>0.01016</v>
       </c>
       <c r="S359" t="n">
-        <v>57.62708444188719</v>
+        <v>17.30766657915071</v>
       </c>
     </row>
     <row r="360">
@@ -23111,7 +23111,7 @@
         <v>-0.6111111111111119</v>
       </c>
       <c r="H360" t="n">
-        <v>-6.6</v>
+        <v>-21.44444444444445</v>
       </c>
       <c r="I360" t="n">
         <v>102.31</v>
@@ -23144,7 +23144,7 @@
         <v>0.01016</v>
       </c>
       <c r="S360" t="n">
-        <v>63.90160228763703</v>
+        <v>18.97634633511102</v>
       </c>
     </row>
     <row r="361">
@@ -23174,7 +23174,7 @@
         <v>-0.777777777777777</v>
       </c>
       <c r="H361" t="n">
-        <v>-7.5</v>
+        <v>-21.94444444444445</v>
       </c>
       <c r="I361" t="n">
         <v>102.68</v>
@@ -23207,7 +23207,7 @@
         <v>0.01016</v>
       </c>
       <c r="S361" t="n">
-        <v>60.35508656226416</v>
+        <v>18.386723395436</v>
       </c>
     </row>
     <row r="362">
@@ -23237,7 +23237,7 @@
         <v>-0.2222222222222214</v>
       </c>
       <c r="H362" t="n">
-        <v>-12.5</v>
+        <v>-24.72222222222222</v>
       </c>
       <c r="I362" t="n">
         <v>102.31</v>
@@ -23270,7 +23270,7 @@
         <v>0.01016</v>
       </c>
       <c r="S362" t="n">
-        <v>39.06168355184498</v>
+        <v>13.79869379405586</v>
       </c>
     </row>
     <row r="363">
@@ -23300,7 +23300,7 @@
         <v>2.444444444444444</v>
       </c>
       <c r="H363" t="n">
-        <v>9.1</v>
+        <v>-12.72222222222222</v>
       </c>
       <c r="I363" t="n">
         <v>102.58</v>
@@ -23333,7 +23333,7 @@
         <v>0.01016</v>
       </c>
       <c r="S363" t="n">
-        <v>158.55722423676</v>
+        <v>31.67232878797068</v>
       </c>
     </row>
     <row r="364">
@@ -23363,7 +23363,7 @@
         <v>1.222222222222224</v>
       </c>
       <c r="H364" t="n">
-        <v>-3</v>
+        <v>-19.44444444444445</v>
       </c>
       <c r="I364" t="n">
         <v>103.18</v>
@@ -23396,7 +23396,7 @@
         <v>0.01016</v>
       </c>
       <c r="S364" t="n">
-        <v>73.44263823459949</v>
+        <v>19.75579031616148</v>
       </c>
     </row>
     <row r="365">
@@ -23426,7 +23426,7 @@
         <v>4.055555555555554</v>
       </c>
       <c r="H365" t="n">
-        <v>-6.8</v>
+        <v>-21.55555555555555</v>
       </c>
       <c r="I365" t="n">
         <v>102.66</v>
@@ -23459,7 +23459,7 @@
         <v>0.01016</v>
       </c>
       <c r="S365" t="n">
-        <v>45.06307455718733</v>
+        <v>13.45778713307247</v>
       </c>
     </row>
     <row r="366">
@@ -23489,7 +23489,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="H366" t="n">
-        <v>-3.5</v>
+        <v>-19.72222222222222</v>
       </c>
       <c r="I366" t="n">
         <v>101.47</v>
@@ -23522,7 +23522,7 @@
         <v>0.01016</v>
       </c>
       <c r="S366" t="n">
-        <v>72.76366008918733</v>
+        <v>19.83787194405876</v>
       </c>
     </row>
     <row r="367">
@@ -23552,7 +23552,7 @@
         <v>1.61111111111111</v>
       </c>
       <c r="H367" t="n">
-        <v>1.3</v>
+        <v>-17.05555555555556</v>
       </c>
       <c r="I367" t="n">
         <v>101.63</v>
@@ -23585,7 +23585,7 @@
         <v>0.01016</v>
       </c>
       <c r="S367" t="n">
-        <v>97.79381802658376</v>
+        <v>23.52679320660392</v>
       </c>
     </row>
     <row r="368">
@@ -23615,7 +23615,7 @@
         <v>4.666666666666666</v>
       </c>
       <c r="H368" t="n">
-        <v>5.5</v>
+        <v>-14.72222222222222</v>
       </c>
       <c r="I368" t="n">
         <v>101.4</v>
@@ -23648,7 +23648,7 @@
         <v>0.01016</v>
       </c>
       <c r="S368" t="n">
-        <v>105.9740968636711</v>
+        <v>23.00703965531842</v>
       </c>
     </row>
     <row r="369">
@@ -23678,7 +23678,7 @@
         <v>1.555555555555554</v>
       </c>
       <c r="H369" t="n">
-        <v>-0.6</v>
+        <v>-18.11111111111111</v>
       </c>
       <c r="I369" t="n">
         <v>101.41</v>
@@ -23711,7 +23711,7 @@
         <v>0.01016</v>
       </c>
       <c r="S369" t="n">
-        <v>85.57195084847045</v>
+        <v>21.6095061535216</v>
       </c>
     </row>
     <row r="370">
@@ -23741,7 +23741,7 @@
         <v>-0.2222222222222214</v>
       </c>
       <c r="H370" t="n">
-        <v>-8.1</v>
+        <v>-22.27777777777778</v>
       </c>
       <c r="I370" t="n">
         <v>101.12</v>
@@ -23774,7 +23774,7 @@
         <v>0.01016</v>
       </c>
       <c r="S370" t="n">
-        <v>55.32886340779012</v>
+        <v>17.14807539193165</v>
       </c>
     </row>
     <row r="371">
@@ -23804,7 +23804,7 @@
         <v>4.000000000000002</v>
       </c>
       <c r="H371" t="n">
-        <v>-5.7</v>
+        <v>-20.94444444444445</v>
       </c>
       <c r="I371" t="n">
         <v>100.4</v>
@@ -23837,7 +23837,7 @@
         <v>0.01016</v>
       </c>
       <c r="S371" t="n">
-        <v>49.20766640590132</v>
+        <v>14.24906489460507</v>
       </c>
     </row>
     <row r="372">
@@ -23867,7 +23867,7 @@
         <v>6.111111111111112</v>
       </c>
       <c r="H372" t="n">
-        <v>-12.2</v>
+        <v>-24.55555555555556</v>
       </c>
       <c r="I372" t="n">
         <v>100.34</v>
@@ -23900,7 +23900,7 @@
         <v>0.01016</v>
       </c>
       <c r="S372" t="n">
-        <v>25.54785942823582</v>
+        <v>8.942345011551428</v>
       </c>
     </row>
     <row r="373">
@@ -23930,7 +23930,7 @@
         <v>3.444444444444446</v>
       </c>
       <c r="H373" t="n">
-        <v>-3</v>
+        <v>-19.44444444444445</v>
       </c>
       <c r="I373" t="n">
         <v>100.67</v>
@@ -23963,7 +23963,7 @@
         <v>0.01016</v>
       </c>
       <c r="S373" t="n">
-        <v>62.69543849921996</v>
+        <v>16.86483446868978</v>
       </c>
     </row>
     <row r="374">
@@ -23993,7 +23993,7 @@
         <v>3.166666666666668</v>
       </c>
       <c r="H374" t="n">
-        <v>4.4</v>
+        <v>-15.33333333333333</v>
       </c>
       <c r="I374" t="n">
         <v>100.9</v>
@@ -24026,7 +24026,7 @@
         <v>0.01016</v>
       </c>
       <c r="S374" t="n">
-        <v>109.065874585549</v>
+        <v>24.30933148235643</v>
       </c>
     </row>
     <row r="375">
@@ -24056,7 +24056,7 @@
         <v>-0.1666666666666671</v>
       </c>
       <c r="H375" t="n">
-        <v>3.3</v>
+        <v>-15.94444444444444</v>
       </c>
       <c r="I375" t="n">
         <v>101.24</v>
@@ -24089,7 +24089,7 @@
         <v>0.01016</v>
       </c>
       <c r="S375" t="n">
-        <v>128.1935407563582</v>
+        <v>29.34625721214373</v>
       </c>
     </row>
     <row r="376">
@@ -24119,7 +24119,7 @@
         <v>4.833333333333335</v>
       </c>
       <c r="H376" t="n">
-        <v>-16.2</v>
+        <v>-26.77777777777778</v>
       </c>
       <c r="I376" t="n">
         <v>101.49</v>
@@ -24152,7 +24152,7 @@
         <v>0.01016</v>
       </c>
       <c r="S376" t="n">
-        <v>20.12355376849488</v>
+        <v>7.988367956456019</v>
       </c>
     </row>
     <row r="377">
@@ -24182,7 +24182,7 @@
         <v>0.777777777777777</v>
       </c>
       <c r="H377" t="n">
-        <v>-10.9</v>
+        <v>-23.83333333333333</v>
       </c>
       <c r="I377" t="n">
         <v>101.87</v>
@@ -24215,7 +24215,7 @@
         <v>0.01016</v>
       </c>
       <c r="S377" t="n">
-        <v>41.30011344339389</v>
+        <v>13.89813028076088</v>
       </c>
     </row>
     <row r="378">
@@ -24245,7 +24245,7 @@
         <v>0.6111111111111119</v>
       </c>
       <c r="H378" t="n">
-        <v>-12.2</v>
+        <v>-24.55555555555556</v>
       </c>
       <c r="I378" t="n">
         <v>101.89</v>
@@ -24278,7 +24278,7 @@
         <v>0.01016</v>
       </c>
       <c r="S378" t="n">
-        <v>37.67227787044354</v>
+        <v>13.18617346532828</v>
       </c>
     </row>
     <row r="379">
@@ -24308,7 +24308,7 @@
         <v>3.888888888888889</v>
       </c>
       <c r="H379" t="n">
-        <v>-12.5</v>
+        <v>-24.72222222222222</v>
       </c>
       <c r="I379" t="n">
         <v>101.31</v>
@@ -24341,7 +24341,7 @@
         <v>0.01016</v>
       </c>
       <c r="S379" t="n">
-        <v>29.11441923547657</v>
+        <v>10.28478343717307</v>
       </c>
     </row>
     <row r="380">
@@ -24371,7 +24371,7 @@
         <v>3.055555555555556</v>
       </c>
       <c r="H380" t="n">
-        <v>-10.4</v>
+        <v>-23.55555555555556</v>
       </c>
       <c r="I380" t="n">
         <v>101.03</v>
@@ -24404,7 +24404,7 @@
         <v>0.01016</v>
       </c>
       <c r="S380" t="n">
-        <v>36.51857010272936</v>
+        <v>12.10682244847153</v>
       </c>
     </row>
     <row r="381">
@@ -24434,7 +24434,7 @@
         <v>5.111111111111112</v>
       </c>
       <c r="H381" t="n">
-        <v>-5.7</v>
+        <v>-20.94444444444445</v>
       </c>
       <c r="I381" t="n">
         <v>100.72</v>
@@ -24467,7 +24467,7 @@
         <v>0.01016</v>
       </c>
       <c r="S381" t="n">
-        <v>45.5291910513966</v>
+        <v>13.18388871642205</v>
       </c>
     </row>
     <row r="382">
@@ -24497,7 +24497,7 @@
         <v>-2.166666666666666</v>
       </c>
       <c r="H382" t="n">
-        <v>-21.8</v>
+        <v>-29.88888888888889</v>
       </c>
       <c r="I382" t="n">
         <v>101.97</v>
@@ -24530,7 +24530,7 @@
         <v>0.01016</v>
       </c>
       <c r="S382" t="n">
-        <v>20.62078483918751</v>
+        <v>9.888657194508168</v>
       </c>
     </row>
     <row r="383">
@@ -24560,7 +24560,7 @@
         <v>2.11111111111111</v>
       </c>
       <c r="H383" t="n">
-        <v>-12.8</v>
+        <v>-24.88888888888889</v>
       </c>
       <c r="I383" t="n">
         <v>101.96</v>
@@ -24593,7 +24593,7 @@
         <v>0.01016</v>
       </c>
       <c r="S383" t="n">
-        <v>32.230087275462</v>
+        <v>11.4909514835026</v>
       </c>
     </row>
     <row r="384">
@@ -24623,7 +24623,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="H384" t="n">
-        <v>-9</v>
+        <v>-22.77777777777778</v>
       </c>
       <c r="I384" t="n">
         <v>101.91</v>
@@ -24656,7 +24656,7 @@
         <v>0.01016</v>
       </c>
       <c r="S384" t="n">
-        <v>45.00985694246954</v>
+        <v>14.31867037813776</v>
       </c>
     </row>
     <row r="385">
@@ -24686,7 +24686,7 @@
         <v>4.833333333333335</v>
       </c>
       <c r="H385" t="n">
-        <v>-2.2</v>
+        <v>-19</v>
       </c>
       <c r="I385" t="n">
         <v>101.24</v>
@@ -24719,7 +24719,7 @@
         <v>0.01016</v>
       </c>
       <c r="S385" t="n">
-        <v>60.34964541835679</v>
+        <v>15.89176203818353</v>
       </c>
     </row>
     <row r="386">
@@ -24749,7 +24749,7 @@
         <v>11</v>
       </c>
       <c r="H386" t="n">
-        <v>-6.7</v>
+        <v>-21.5</v>
       </c>
       <c r="I386" t="n">
         <v>100.72</v>
@@ -24782,7 +24782,7 @@
         <v>0.01016</v>
       </c>
       <c r="S386" t="n">
-        <v>28.26103015241294</v>
+        <v>8.416159373438527</v>
       </c>
     </row>
     <row r="387">
@@ -24812,7 +24812,7 @@
         <v>5.777777777777778</v>
       </c>
       <c r="H387" t="n">
-        <v>9.800000000000001</v>
+        <v>-12.33333333333333</v>
       </c>
       <c r="I387" t="n">
         <v>100.98</v>
@@ -24845,7 +24845,7 @@
         <v>0.01016</v>
       </c>
       <c r="S387" t="n">
-        <v>131.5324569490482</v>
+        <v>25.86456702248011</v>
       </c>
     </row>
     <row r="388">
@@ -24875,7 +24875,7 @@
         <v>0.4999999999999992</v>
       </c>
       <c r="H388" t="n">
-        <v>14.6</v>
+        <v>-9.666666666666666</v>
       </c>
       <c r="I388" t="n">
         <v>102.43</v>
@@ -24908,7 +24908,7 @@
         <v>0.01016</v>
       </c>
       <c r="S388" t="n">
-        <v>262.0417867505169</v>
+        <v>46.4549776732763</v>
       </c>
     </row>
     <row r="389">
@@ -24938,7 +24938,7 @@
         <v>11.11111111111111</v>
       </c>
       <c r="H389" t="n">
-        <v>2.1</v>
+        <v>-16.61111111111111</v>
       </c>
       <c r="I389" t="n">
         <v>100.08</v>
@@ -24971,7 +24971,7 @@
         <v>0.01016</v>
       </c>
       <c r="S389" t="n">
-        <v>53.79317999882724</v>
+        <v>12.68466819915902</v>
       </c>
     </row>
     <row r="390">
@@ -25001,7 +25001,7 @@
         <v>13.33333333333333</v>
       </c>
       <c r="H390" t="n">
-        <v>8.699999999999999</v>
+        <v>-12.94444444444444</v>
       </c>
       <c r="I390" t="n">
         <v>100.39</v>
@@ -25034,7 +25034,7 @@
         <v>0.01016</v>
       </c>
       <c r="S390" t="n">
-        <v>73.50810832413083</v>
+        <v>14.81690969873777</v>
       </c>
     </row>
     <row r="391">
@@ -25064,7 +25064,7 @@
         <v>14</v>
       </c>
       <c r="H391" t="n">
-        <v>7.3</v>
+        <v>-13.72222222222222</v>
       </c>
       <c r="I391" t="n">
         <v>99.59999999999999</v>
@@ -25097,7 +25097,7 @@
         <v>0.01016</v>
       </c>
       <c r="S391" t="n">
-        <v>63.9940006217141</v>
+        <v>13.31947113267431</v>
       </c>
     </row>
     <row r="392">
@@ -25127,7 +25127,7 @@
         <v>10.94444444444445</v>
       </c>
       <c r="H392" t="n">
-        <v>17.9</v>
+        <v>-7.833333333333335</v>
       </c>
       <c r="I392" t="n">
         <v>99.58</v>
@@ -25160,7 +25160,7 @@
         <v>0.01016</v>
       </c>
       <c r="S392" t="n">
-        <v>156.8241126450112</v>
+        <v>25.99215850219666</v>
       </c>
     </row>
     <row r="393">
@@ -25190,7 +25190,7 @@
         <v>3.111111111111112</v>
       </c>
       <c r="H393" t="n">
-        <v>16.7</v>
+        <v>-8.5</v>
       </c>
       <c r="I393" t="n">
         <v>100.8</v>
@@ -25223,7 +25223,7 @@
         <v>0.01016</v>
       </c>
       <c r="S393" t="n">
-        <v>248.7231508698489</v>
+        <v>42.22985584838776</v>
       </c>
     </row>
     <row r="394">
@@ -25253,7 +25253,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="H394" t="n">
-        <v>8.800000000000001</v>
+        <v>-12.88888888888889</v>
       </c>
       <c r="I394" t="n">
         <v>101.26</v>
@@ -25286,7 +25286,7 @@
         <v>0.01016</v>
       </c>
       <c r="S394" t="n">
-        <v>145.8912594131585</v>
+        <v>29.3404977365591</v>
       </c>
     </row>
     <row r="395">
@@ -25316,7 +25316,7 @@
         <v>-0.2777777777777778</v>
       </c>
       <c r="H395" t="n">
-        <v>12.6</v>
+        <v>-10.77777777777778</v>
       </c>
       <c r="I395" t="n">
         <v>102.18</v>
@@ -25349,7 +25349,7 @@
         <v>0.01016</v>
       </c>
       <c r="S395" t="n">
-        <v>243.4000422419241</v>
+        <v>45.01616632355711</v>
       </c>
     </row>
     <row r="396">
@@ -25379,7 +25379,7 @@
         <v>6.222222222222224</v>
       </c>
       <c r="H396" t="n">
-        <v>-1.2</v>
+        <v>-18.44444444444445</v>
       </c>
       <c r="I396" t="n">
         <v>102.15</v>
@@ -25412,7 +25412,7 @@
         <v>0.01016</v>
       </c>
       <c r="S396" t="n">
-        <v>58.99088700021706</v>
+        <v>15.13103885181773</v>
       </c>
     </row>
     <row r="397">
@@ -25442,7 +25442,7 @@
         <v>4.500000000000001</v>
       </c>
       <c r="H397" t="n">
-        <v>-2.8</v>
+        <v>-19.33333333333333</v>
       </c>
       <c r="I397" t="n">
         <v>101.84</v>
@@ -25475,7 +25475,7 @@
         <v>0.01016</v>
       </c>
       <c r="S397" t="n">
-        <v>59.08604127145384</v>
+        <v>15.809164375556</v>
       </c>
     </row>
     <row r="398">
@@ -25505,7 +25505,7 @@
         <v>6.777777777777779</v>
       </c>
       <c r="H398" t="n">
-        <v>-23.5</v>
+        <v>-30.83333333333334</v>
       </c>
       <c r="I398" t="n">
         <v>102.17</v>
@@ -25538,7 +25538,7 @@
         <v>0.01016</v>
       </c>
       <c r="S398" t="n">
-        <v>9.385549982773981</v>
+        <v>4.781601358397862</v>
       </c>
     </row>
     <row r="399">
@@ -25568,7 +25568,7 @@
         <v>8.611111111111111</v>
       </c>
       <c r="H399" t="n">
-        <v>-15.8</v>
+        <v>-26.55555555555555</v>
       </c>
       <c r="I399" t="n">
         <v>101.17</v>
@@ -25601,7 +25601,7 @@
         <v>0.01016</v>
       </c>
       <c r="S399" t="n">
-        <v>16.04697051262825</v>
+        <v>6.288349820004377</v>
       </c>
     </row>
     <row r="400">
@@ -25631,7 +25631,7 @@
         <v>7.166666666666666</v>
       </c>
       <c r="H400" t="n">
-        <v>-2.4</v>
+        <v>-19.11111111111111</v>
       </c>
       <c r="I400" t="n">
         <v>100.56</v>
@@ -25664,7 +25664,7 @@
         <v>0.01016</v>
       </c>
       <c r="S400" t="n">
-        <v>50.60667815068388</v>
+        <v>13.3969972742745</v>
       </c>
     </row>
     <row r="401">
@@ -25694,7 +25694,7 @@
         <v>9.388888888888889</v>
       </c>
       <c r="H401" t="n">
-        <v>-2.8</v>
+        <v>-19.33333333333333</v>
       </c>
       <c r="I401" t="n">
         <v>100.24</v>
@@ -25727,7 +25727,7 @@
         <v>0.01016</v>
       </c>
       <c r="S401" t="n">
-        <v>42.24955349339103</v>
+        <v>11.30436430666004</v>
       </c>
     </row>
     <row r="402">
@@ -25757,7 +25757,7 @@
         <v>8.333333333333334</v>
       </c>
       <c r="H402" t="n">
-        <v>16.7</v>
+        <v>-8.5</v>
       </c>
       <c r="I402" t="n">
         <v>100.15</v>
@@ -25790,7 +25790,7 @@
         <v>0.01016</v>
       </c>
       <c r="S402" t="n">
-        <v>173.2166968795568</v>
+        <v>29.40987243919763</v>
       </c>
     </row>
     <row r="403">
@@ -25820,7 +25820,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="H403" t="n">
-        <v>10.4</v>
+        <v>-12</v>
       </c>
       <c r="I403" t="n">
         <v>100.6</v>
@@ -25853,7 +25853,7 @@
         <v>0.01016</v>
       </c>
       <c r="S403" t="n">
-        <v>125.8610784923623</v>
+        <v>24.42136114469638</v>
       </c>
     </row>
     <row r="404">
@@ -25883,7 +25883,7 @@
         <v>4.444444444444445</v>
       </c>
       <c r="H404" t="n">
-        <v>11.6</v>
+        <v>-11.33333333333333</v>
       </c>
       <c r="I404" t="n">
         <v>101.08</v>
@@ -25916,7 +25916,7 @@
         <v>0.01016</v>
       </c>
       <c r="S404" t="n">
-        <v>162.7034524170249</v>
+        <v>30.7491567998096</v>
       </c>
     </row>
     <row r="405">
@@ -25946,7 +25946,7 @@
         <v>3.888888888888889</v>
       </c>
       <c r="H405" t="n">
-        <v>9.300000000000001</v>
+        <v>-12.61111111111111</v>
       </c>
       <c r="I405" t="n">
         <v>101.37</v>
@@ -25979,7 +25979,7 @@
         <v>0.01016</v>
       </c>
       <c r="S405" t="n">
-        <v>145.1032998676795</v>
+        <v>28.85461802139661</v>
       </c>
     </row>
     <row r="406">
@@ -26009,7 +26009,7 @@
         <v>3.222222222222221</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>-17.77777777777778</v>
       </c>
       <c r="I406" t="n">
         <v>102.07</v>
@@ -26042,7 +26042,7 @@
         <v>0.01016</v>
       </c>
       <c r="S406" t="n">
-        <v>79.39201825290242</v>
+        <v>19.7413774961525</v>
       </c>
     </row>
     <row r="407">
@@ -26072,7 +26072,7 @@
         <v>9.333333333333332</v>
       </c>
       <c r="H407" t="n">
-        <v>0.3</v>
+        <v>-17.61111111111111</v>
       </c>
       <c r="I407" t="n">
         <v>101.91</v>
@@ -26105,7 +26105,7 @@
         <v>0.01016</v>
       </c>
       <c r="S407" t="n">
-        <v>53.23020555338359</v>
+        <v>13.13480995184934</v>
       </c>
     </row>
     <row r="408">
@@ -26135,7 +26135,7 @@
         <v>9.27777777777778</v>
       </c>
       <c r="H408" t="n">
-        <v>-4.9</v>
+        <v>-20.5</v>
       </c>
       <c r="I408" t="n">
         <v>100.86</v>
@@ -26168,7 +26168,7 @@
         <v>0.01016</v>
       </c>
       <c r="S408" t="n">
-        <v>36.36997739056864</v>
+        <v>10.30110051795607</v>
       </c>
     </row>
     <row r="409">
@@ -26198,7 +26198,7 @@
         <v>16.5</v>
       </c>
       <c r="H409" t="n">
-        <v>-3.4</v>
+        <v>-19.66666666666667</v>
       </c>
       <c r="I409" t="n">
         <v>100.24</v>
@@ -26231,7 +26231,7 @@
         <v>0.01016</v>
       </c>
       <c r="S409" t="n">
-        <v>25.37042333759508</v>
+        <v>6.89823588301966</v>
       </c>
     </row>
     <row r="410">
@@ -26261,7 +26261,7 @@
         <v>11.44444444444445</v>
       </c>
       <c r="H410" t="n">
-        <v>13.1</v>
+        <v>-10.5</v>
       </c>
       <c r="I410" t="n">
         <v>100.09</v>
@@ -26294,7 +26294,7 @@
         <v>0.01016</v>
       </c>
       <c r="S410" t="n">
-        <v>111.5036633993087</v>
+        <v>20.40290190436547</v>
       </c>
     </row>
     <row r="411">
@@ -26324,7 +26324,7 @@
         <v>11.72222222222222</v>
       </c>
       <c r="H411" t="n">
-        <v>15.8</v>
+        <v>-9</v>
       </c>
       <c r="I411" t="n">
         <v>100.72</v>
@@ -26357,7 +26357,7 @@
         <v>0.01016</v>
       </c>
       <c r="S411" t="n">
-        <v>130.3583876544193</v>
+        <v>22.54312367829264</v>
       </c>
     </row>
     <row r="412">
@@ -26387,7 +26387,7 @@
         <v>11.83333333333333</v>
       </c>
       <c r="H412" t="n">
-        <v>14.1</v>
+        <v>-9.944444444444445</v>
       </c>
       <c r="I412" t="n">
         <v>100.25</v>
@@ -26420,7 +26420,7 @@
         <v>0.01016</v>
       </c>
       <c r="S412" t="n">
-        <v>115.9832545459438</v>
+        <v>20.77807258833349</v>
       </c>
     </row>
     <row r="413">
@@ -26450,7 +26450,7 @@
         <v>7.722222222222221</v>
       </c>
       <c r="H413" t="n">
-        <v>27</v>
+        <v>-2.777777777777778</v>
       </c>
       <c r="I413" t="n">
         <v>101.09</v>
@@ -26483,7 +26483,7 @@
         <v>0.01016</v>
       </c>
       <c r="S413" t="n">
-        <v>338.9161568050042</v>
+        <v>47.3761352161092</v>
       </c>
     </row>
     <row r="414">
@@ -26513,7 +26513,7 @@
         <v>10.72222222222222</v>
       </c>
       <c r="H414" t="n">
-        <v>16.4</v>
+        <v>-8.666666666666668</v>
       </c>
       <c r="I414" t="n">
         <v>100.85</v>
@@ -26546,7 +26546,7 @@
         <v>0.01016</v>
       </c>
       <c r="S414" t="n">
-        <v>144.7355392232932</v>
+        <v>24.72433697438891</v>
       </c>
     </row>
     <row r="415">
@@ -26576,7 +26576,7 @@
         <v>13.33333333333333</v>
       </c>
       <c r="H415" t="n">
-        <v>18.9</v>
+        <v>-7.277777777777779</v>
       </c>
       <c r="I415" t="n">
         <v>100.15</v>
@@ -26609,7 +26609,7 @@
         <v>0.01016</v>
       </c>
       <c r="S415" t="n">
-        <v>142.6749009415153</v>
+        <v>23.18367103151325</v>
       </c>
     </row>
     <row r="416">
@@ -26639,7 +26639,7 @@
         <v>12.66666666666667</v>
       </c>
       <c r="H416" t="n">
-        <v>22.1</v>
+        <v>-5.499999999999999</v>
       </c>
       <c r="I416" t="n">
         <v>100.22</v>
@@ -26672,7 +26672,7 @@
         <v>0.01016</v>
       </c>
       <c r="S416" t="n">
-        <v>181.5851198878771</v>
+        <v>27.7462808618477</v>
       </c>
     </row>
     <row r="417">
@@ -26702,7 +26702,7 @@
         <v>12</v>
       </c>
       <c r="H417" t="n">
-        <v>13.4</v>
+        <v>-10.33333333333333</v>
       </c>
       <c r="I417" t="n">
         <v>100.11</v>
@@ -26735,7 +26735,7 @@
         <v>0.01016</v>
       </c>
       <c r="S417" t="n">
-        <v>109.6114496188013</v>
+        <v>19.92908282613606</v>
       </c>
     </row>
     <row r="418">
@@ -26765,7 +26765,7 @@
         <v>9.555555555555557</v>
       </c>
       <c r="H418" t="n">
-        <v>17.9</v>
+        <v>-7.833333333333335</v>
       </c>
       <c r="I418" t="n">
         <v>100.4</v>
@@ -26798,7 +26798,7 @@
         <v>0.01016</v>
       </c>
       <c r="S418" t="n">
-        <v>172.0757431139521</v>
+        <v>28.51997638606373</v>
       </c>
     </row>
     <row r="419">
@@ -26828,7 +26828,7 @@
         <v>10.27777777777778</v>
       </c>
       <c r="H419" t="n">
-        <v>20.6</v>
+        <v>-6.333333333333333</v>
       </c>
       <c r="I419" t="n">
         <v>100.34</v>
@@ -26861,7 +26861,7 @@
         <v>0.01016</v>
       </c>
       <c r="S419" t="n">
-        <v>193.9933810413439</v>
+        <v>30.49883225068793</v>
       </c>
     </row>
     <row r="420">
@@ -26891,7 +26891,7 @@
         <v>6.500000000000002</v>
       </c>
       <c r="H420" t="n">
-        <v>28.3</v>
+        <v>-2.055555555555555</v>
       </c>
       <c r="I420" t="n">
         <v>100.99</v>
@@ -26924,7 +26924,7 @@
         <v>0.01016</v>
       </c>
       <c r="S420" t="n">
-        <v>397.6461533973984</v>
+        <v>54.34297244338543</v>
       </c>
     </row>
     <row r="421">
@@ -26954,7 +26954,7 @@
         <v>11.38888888888889</v>
       </c>
       <c r="H421" t="n">
-        <v>21.6</v>
+        <v>-5.777777777777778</v>
       </c>
       <c r="I421" t="n">
         <v>101.21</v>
@@ -26987,7 +26987,7 @@
         <v>0.01016</v>
       </c>
       <c r="S421" t="n">
-        <v>191.5926614390246</v>
+        <v>29.55279517443805</v>
       </c>
     </row>
     <row r="422">
@@ -27017,7 +27017,7 @@
         <v>12.22222222222222</v>
       </c>
       <c r="H422" t="n">
-        <v>21.8</v>
+        <v>-5.666666666666667</v>
       </c>
       <c r="I422" t="n">
         <v>101.16</v>
@@ -27050,7 +27050,7 @@
         <v>0.01016</v>
       </c>
       <c r="S422" t="n">
-        <v>183.5703235118274</v>
+        <v>28.2085438061137</v>
       </c>
     </row>
     <row r="423">
@@ -27080,7 +27080,7 @@
         <v>14.72222222222222</v>
       </c>
       <c r="H423" t="n">
-        <v>11.8</v>
+        <v>-11.22222222222222</v>
       </c>
       <c r="I423" t="n">
         <v>100.14</v>
@@ -27113,7 +27113,7 @@
         <v>0.01016</v>
       </c>
       <c r="S423" t="n">
-        <v>82.63610029066723</v>
+        <v>15.54955508071371</v>
       </c>
     </row>
     <row r="424">
@@ -27143,7 +27143,7 @@
         <v>11.22222222222222</v>
       </c>
       <c r="H424" t="n">
-        <v>15.2</v>
+        <v>-9.333333333333334</v>
       </c>
       <c r="I424" t="n">
         <v>101.15</v>
@@ -27176,7 +27176,7 @@
         <v>0.01016</v>
       </c>
       <c r="S424" t="n">
-        <v>129.6572715151496</v>
+        <v>22.7008752709609</v>
       </c>
     </row>
     <row r="425">
@@ -27206,7 +27206,7 @@
         <v>13.16666666666667</v>
       </c>
       <c r="H425" t="n">
-        <v>12.4</v>
+        <v>-10.88888888888889</v>
       </c>
       <c r="I425" t="n">
         <v>100.8</v>
@@ -27239,7 +27239,7 @@
         <v>0.01016</v>
       </c>
       <c r="S425" t="n">
-        <v>95.10173582038099</v>
+        <v>17.66458656059517</v>
       </c>
     </row>
     <row r="426">
@@ -27269,7 +27269,7 @@
         <v>15.77777777777778</v>
       </c>
       <c r="H426" t="n">
-        <v>12.8</v>
+        <v>-10.66666666666667</v>
       </c>
       <c r="I426" t="n">
         <v>100.82</v>
@@ -27302,7 +27302,7 @@
         <v>0.01016</v>
       </c>
       <c r="S426" t="n">
-        <v>82.46443726441295</v>
+        <v>15.18632257482093</v>
       </c>
     </row>
     <row r="427">
@@ -27332,7 +27332,7 @@
         <v>16.27777777777778</v>
       </c>
       <c r="H427" t="n">
-        <v>17.1</v>
+        <v>-8.277777777777777</v>
       </c>
       <c r="I427" t="n">
         <v>100.55</v>
@@ -27365,7 +27365,7 @@
         <v>0.01016</v>
       </c>
       <c r="S427" t="n">
-        <v>105.3646982054936</v>
+        <v>17.74547604016236</v>
       </c>
     </row>
     <row r="428">
@@ -27395,7 +27395,7 @@
         <v>15.38888888888889</v>
       </c>
       <c r="H428" t="n">
-        <v>20.5</v>
+        <v>-6.388888888888889</v>
       </c>
       <c r="I428" t="n">
         <v>100.5</v>
@@ -27428,7 +27428,7 @@
         <v>0.01016</v>
       </c>
       <c r="S428" t="n">
-        <v>137.9555120865795</v>
+        <v>21.73048364009883</v>
       </c>
     </row>
     <row r="429">
@@ -27458,7 +27458,7 @@
         <v>15.94444444444445</v>
       </c>
       <c r="H429" t="n">
-        <v>19.1</v>
+        <v>-7.166666666666666</v>
       </c>
       <c r="I429" t="n">
         <v>100.12</v>
@@ -27491,7 +27491,7 @@
         <v>0.01016</v>
       </c>
       <c r="S429" t="n">
-        <v>122.0528444151226</v>
+        <v>19.75504085273684</v>
       </c>
     </row>
     <row r="430">
@@ -27521,7 +27521,7 @@
         <v>18.38888888888889</v>
       </c>
       <c r="H430" t="n">
-        <v>17.5</v>
+        <v>-8.055555555555555</v>
       </c>
       <c r="I430" t="n">
         <v>99.67</v>
@@ -27554,7 +27554,7 @@
         <v>0.01016</v>
       </c>
       <c r="S430" t="n">
-        <v>94.55833293120538</v>
+        <v>15.79796249766875</v>
       </c>
     </row>
     <row r="431">
@@ -27584,7 +27584,7 @@
         <v>18.16666666666667</v>
       </c>
       <c r="H431" t="n">
-        <v>17.8</v>
+        <v>-7.888888888888889</v>
       </c>
       <c r="I431" t="n">
         <v>99.59999999999999</v>
@@ -27617,7 +27617,7 @@
         <v>0.01016</v>
       </c>
       <c r="S431" t="n">
-        <v>97.71903639529876</v>
+        <v>16.2283663603977</v>
       </c>
     </row>
     <row r="432">
@@ -27647,7 +27647,7 @@
         <v>21.61111111111111</v>
       </c>
       <c r="H432" t="n">
-        <v>19.8</v>
+        <v>-6.777777777777778</v>
       </c>
       <c r="I432" t="n">
         <v>99.33</v>
@@ -27680,7 +27680,7 @@
         <v>0.01016</v>
       </c>
       <c r="S432" t="n">
-        <v>89.43703111736693</v>
+        <v>14.27968731772047</v>
       </c>
     </row>
     <row r="433">
@@ -27710,7 +27710,7 @@
         <v>14.94444444444444</v>
       </c>
       <c r="H433" t="n">
-        <v>29.3</v>
+        <v>-1.5</v>
       </c>
       <c r="I433" t="n">
         <v>100.05</v>
@@ -27743,7 +27743,7 @@
         <v>0.01016</v>
       </c>
       <c r="S433" t="n">
-        <v>240.1468381732844</v>
+        <v>32.26183199413751</v>
       </c>
     </row>
     <row r="434">
@@ -27773,7 +27773,7 @@
         <v>18</v>
       </c>
       <c r="H434" t="n">
-        <v>25.7</v>
+        <v>-3.5</v>
       </c>
       <c r="I434" t="n">
         <v>99.84999999999999</v>
@@ -27806,7 +27806,7 @@
         <v>0.01016</v>
       </c>
       <c r="S434" t="n">
-        <v>160.1002305779268</v>
+        <v>22.90126284278712</v>
       </c>
     </row>
     <row r="435">
@@ -27836,7 +27836,7 @@
         <v>19.16666666666667</v>
       </c>
       <c r="H435" t="n">
-        <v>26.6</v>
+        <v>-3</v>
       </c>
       <c r="I435" t="n">
         <v>99.42</v>
@@ -27869,7 +27869,7 @@
         <v>0.01016</v>
       </c>
       <c r="S435" t="n">
-        <v>156.9576573452833</v>
+        <v>22.09568980735289</v>
       </c>
     </row>
     <row r="436">
@@ -27899,7 +27899,7 @@
         <v>17.44444444444444</v>
       </c>
       <c r="H436" t="n">
-        <v>24.1</v>
+        <v>-4.388888888888888</v>
       </c>
       <c r="I436" t="n">
         <v>99.77000000000001</v>
@@ -27932,7 +27932,7 @@
         <v>0.01016</v>
       </c>
       <c r="S436" t="n">
-        <v>150.6962632337467</v>
+        <v>22.18855529251518</v>
       </c>
     </row>
     <row r="437">
@@ -27962,7 +27962,7 @@
         <v>16.16666666666667</v>
       </c>
       <c r="H437" t="n">
-        <v>30.4</v>
+        <v>-0.8888888888888897</v>
       </c>
       <c r="I437" t="n">
         <v>99.69</v>
@@ -27995,7 +27995,7 @@
         <v>0.01016</v>
       </c>
       <c r="S437" t="n">
-        <v>236.5669248504209</v>
+        <v>31.19656955445395</v>
       </c>
     </row>
     <row r="438">
@@ -28025,7 +28025,7 @@
         <v>13.55555555555556</v>
       </c>
       <c r="H438" t="n">
-        <v>27</v>
+        <v>-2.777777777777778</v>
       </c>
       <c r="I438" t="n">
         <v>100.78</v>
@@ -28058,7 +28058,7 @@
         <v>0.01016</v>
       </c>
       <c r="S438" t="n">
-        <v>229.7737352091621</v>
+        <v>32.11942343204041</v>
       </c>
     </row>
     <row r="439">
@@ -28088,7 +28088,7 @@
         <v>14.94444444444444</v>
       </c>
       <c r="H439" t="n">
-        <v>14.3</v>
+        <v>-9.833333333333334</v>
       </c>
       <c r="I439" t="n">
         <v>100.67</v>
@@ -28121,7 +28121,7 @@
         <v>0.01016</v>
       </c>
       <c r="S439" t="n">
-        <v>95.92370874895117</v>
+        <v>17.11247373442979</v>
       </c>
     </row>
     <row r="440">
@@ -28151,7 +28151,7 @@
         <v>16.22222222222222</v>
       </c>
       <c r="H440" t="n">
-        <v>24.2</v>
+        <v>-4.333333333333334</v>
       </c>
       <c r="I440" t="n">
         <v>99.64</v>
@@ -28184,7 +28184,7 @@
         <v>0.01016</v>
       </c>
       <c r="S440" t="n">
-        <v>163.8361094095753</v>
+        <v>24.07925221401413</v>
       </c>
     </row>
     <row r="441">
@@ -28214,7 +28214,7 @@
         <v>16.11111111111111</v>
       </c>
       <c r="H441" t="n">
-        <v>33.3</v>
+        <v>0.7222222222222207</v>
       </c>
       <c r="I441" t="n">
         <v>100.14</v>
@@ -28247,7 +28247,7 @@
         <v>0.01016</v>
       </c>
       <c r="S441" t="n">
-        <v>279.8787276743026</v>
+        <v>35.19304341344521</v>
       </c>
     </row>
     <row r="442">
@@ -28277,7 +28277,7 @@
         <v>19.5</v>
       </c>
       <c r="H442" t="n">
-        <v>29</v>
+        <v>-1.666666666666667</v>
       </c>
       <c r="I442" t="n">
         <v>99.45</v>
@@ -28310,7 +28310,7 @@
         <v>0.01016</v>
       </c>
       <c r="S442" t="n">
-        <v>176.8875412292753</v>
+        <v>23.8852000429271</v>
       </c>
     </row>
     <row r="443">
@@ -28340,7 +28340,7 @@
         <v>13.72222222222222</v>
       </c>
       <c r="H443" t="n">
-        <v>45</v>
+        <v>7.222222222222222</v>
       </c>
       <c r="I443" t="n">
         <v>100.25</v>
@@ -28373,7 +28373,7 @@
         <v>0.01016</v>
       </c>
       <c r="S443" t="n">
-        <v>613.1859728075141</v>
+        <v>64.81337532833759</v>
       </c>
     </row>
     <row r="444">
@@ -28403,7 +28403,7 @@
         <v>15.27777777777778</v>
       </c>
       <c r="H444" t="n">
-        <v>29.6</v>
+        <v>-1.333333333333333</v>
       </c>
       <c r="I444" t="n">
         <v>101.03</v>
@@ -28436,7 +28436,7 @@
         <v>0.01016</v>
       </c>
       <c r="S444" t="n">
-        <v>239.1597056694723</v>
+        <v>31.9661195802342</v>
       </c>
     </row>
     <row r="445">
@@ -28466,7 +28466,7 @@
         <v>21.38888888888889</v>
       </c>
       <c r="H445" t="n">
-        <v>26.2</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="I445" t="n">
         <v>99.90000000000001</v>
@@ -28499,7 +28499,7 @@
         <v>0.01016</v>
       </c>
       <c r="S445" t="n">
-        <v>133.6104805729509</v>
+        <v>18.94263367306708</v>
       </c>
     </row>
     <row r="446">
@@ -28529,7 +28529,7 @@
         <v>23.11111111111111</v>
       </c>
       <c r="H446" t="n">
-        <v>20.3</v>
+        <v>-6.5</v>
       </c>
       <c r="I446" t="n">
         <v>99.46000000000001</v>
@@ -28562,7 +28562,7 @@
         <v>0.01016</v>
       </c>
       <c r="S446" t="n">
-        <v>84.20018324501152</v>
+        <v>13.31419587031836</v>
       </c>
     </row>
     <row r="447">
@@ -28592,7 +28592,7 @@
         <v>20.38888888888889</v>
       </c>
       <c r="H447" t="n">
-        <v>25.8</v>
+        <v>-3.444444444444444</v>
       </c>
       <c r="I447" t="n">
         <v>100.1</v>
@@ -28625,7 +28625,7 @@
         <v>0.01016</v>
       </c>
       <c r="S447" t="n">
-        <v>138.7655387598124</v>
+        <v>19.8140573554747</v>
       </c>
     </row>
     <row r="448">
@@ -28655,7 +28655,7 @@
         <v>21.72222222222222</v>
       </c>
       <c r="H448" t="n">
-        <v>22.2</v>
+        <v>-5.444444444444445</v>
       </c>
       <c r="I448" t="n">
         <v>99.72</v>
@@ -28688,7 +28688,7 @@
         <v>0.01016</v>
       </c>
       <c r="S448" t="n">
-        <v>102.9601241417942</v>
+        <v>15.70283140279637</v>
       </c>
     </row>
     <row r="449">
@@ -28718,7 +28718,7 @@
         <v>20</v>
       </c>
       <c r="H449" t="n">
-        <v>27.8</v>
+        <v>-2.333333333333333</v>
       </c>
       <c r="I449" t="n">
         <v>100.03</v>
@@ -28751,7 +28751,7 @@
         <v>0.01016</v>
       </c>
       <c r="S449" t="n">
-        <v>159.9132348367561</v>
+        <v>22.04383800417851</v>
       </c>
     </row>
     <row r="450">
@@ -28781,7 +28781,7 @@
         <v>19.66666666666667</v>
       </c>
       <c r="H450" t="n">
-        <v>25.4</v>
+        <v>-3.666666666666667</v>
       </c>
       <c r="I450" t="n">
         <v>99.84</v>
@@ -28814,7 +28814,7 @@
         <v>0.01016</v>
       </c>
       <c r="S450" t="n">
-        <v>141.7075012839215</v>
+        <v>20.37951577660148</v>
       </c>
     </row>
     <row r="451">
@@ -28844,7 +28844,7 @@
         <v>19.16666666666667</v>
       </c>
       <c r="H451" t="n">
-        <v>27.7</v>
+        <v>-2.388888888888889</v>
       </c>
       <c r="I451" t="n">
         <v>100.04</v>
@@ -28877,7 +28877,7 @@
         <v>0.01016</v>
       </c>
       <c r="S451" t="n">
-        <v>167.4338221553094</v>
+        <v>23.12066785862039</v>
       </c>
     </row>
     <row r="452">
@@ -28907,7 +28907,7 @@
         <v>19.27777777777778</v>
       </c>
       <c r="H452" t="n">
-        <v>21.7</v>
+        <v>-5.722222222222223</v>
       </c>
       <c r="I452" t="n">
         <v>100.21</v>
@@ -28940,7 +28940,7 @@
         <v>0.01016</v>
       </c>
       <c r="S452" t="n">
-        <v>116.1311905439706</v>
+        <v>17.87916569723254</v>
       </c>
     </row>
     <row r="453">
@@ -28970,7 +28970,7 @@
         <v>20.66666666666667</v>
       </c>
       <c r="H453" t="n">
-        <v>29.3</v>
+        <v>-1.5</v>
       </c>
       <c r="I453" t="n">
         <v>99.88</v>
@@ -29003,7 +29003,7 @@
         <v>0.01016</v>
       </c>
       <c r="S453" t="n">
-        <v>167.4401940458415</v>
+        <v>22.49426830044215</v>
       </c>
     </row>
     <row r="454">
@@ -29033,7 +29033,7 @@
         <v>19.27777777777778</v>
       </c>
       <c r="H454" t="n">
-        <v>33</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I454" t="n">
         <v>99.28999999999999</v>
@@ -29066,7 +29066,7 @@
         <v>0.01016</v>
       </c>
       <c r="S454" t="n">
-        <v>225.3757511923484</v>
+        <v>28.4769552055978</v>
       </c>
     </row>
     <row r="455">
@@ -29096,7 +29096,7 @@
         <v>16.83333333333333</v>
       </c>
       <c r="H455" t="n">
-        <v>35.2</v>
+        <v>1.777777777777779</v>
       </c>
       <c r="I455" t="n">
         <v>100.03</v>
@@ -29129,7 +29129,7 @@
         <v>0.01016</v>
       </c>
       <c r="S455" t="n">
-        <v>297.1832092738507</v>
+        <v>36.25902256791024</v>
       </c>
     </row>
     <row r="456">
@@ -29159,7 +29159,7 @@
         <v>18.5</v>
       </c>
       <c r="H456" t="n">
-        <v>32.5</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="I456" t="n">
         <v>99.96000000000001</v>
@@ -29192,7 +29192,7 @@
         <v>0.01016</v>
       </c>
       <c r="S456" t="n">
-        <v>230.0245099010085</v>
+        <v>29.30077024506899</v>
       </c>
     </row>
     <row r="457">
@@ -29222,7 +29222,7 @@
         <v>16.72222222222222</v>
       </c>
       <c r="H457" t="n">
-        <v>36</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="I457" t="n">
         <v>100.15</v>
@@ -29255,7 +29255,7 @@
         <v>0.01016</v>
       </c>
       <c r="S457" t="n">
-        <v>312.8093926629848</v>
+        <v>37.69297689787981</v>
       </c>
     </row>
     <row r="458">
@@ -29285,7 +29285,7 @@
         <v>19.22222222222222</v>
       </c>
       <c r="H458" t="n">
-        <v>28.7</v>
+        <v>-1.833333333333334</v>
       </c>
       <c r="I458" t="n">
         <v>100.005</v>
@@ -29318,7 +29318,7 @@
         <v>0.01016</v>
       </c>
       <c r="S458" t="n">
-        <v>176.8690160368678</v>
+        <v>24.00557789115745</v>
       </c>
     </row>
     <row r="459">
@@ -29348,7 +29348,7 @@
         <v>19.66666666666667</v>
       </c>
       <c r="H459" t="n">
-        <v>33</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I459" t="n">
         <v>99.86</v>
@@ -29381,7 +29381,7 @@
         <v>0.01016</v>
       </c>
       <c r="S459" t="n">
-        <v>219.9880283571154</v>
+        <v>27.79619899723284</v>
       </c>
     </row>
     <row r="460">
@@ -29411,7 +29411,7 @@
         <v>18.83333333333334</v>
       </c>
       <c r="H460" t="n">
-        <v>34</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="I460" t="n">
         <v>100.11</v>
@@ -29444,7 +29444,7 @@
         <v>0.01016</v>
       </c>
       <c r="S460" t="n">
-        <v>245.0801609240469</v>
+        <v>30.47405994819439</v>
       </c>
     </row>
     <row r="461">
@@ -29474,7 +29474,7 @@
         <v>19.16666666666667</v>
       </c>
       <c r="H461" t="n">
-        <v>30.3</v>
+        <v>-0.9444444444444441</v>
       </c>
       <c r="I461" t="n">
         <v>99.51000000000001</v>
@@ -29507,7 +29507,7 @@
         <v>0.01016</v>
       </c>
       <c r="S461" t="n">
-        <v>194.6579545807796</v>
+        <v>25.71298844972636</v>
       </c>
     </row>
     <row r="462">
@@ -29537,7 +29537,7 @@
         <v>19.05555555555555</v>
       </c>
       <c r="H462" t="n">
-        <v>36.4</v>
+        <v>2.444444444444444</v>
       </c>
       <c r="I462" t="n">
         <v>99.22999999999999</v>
@@ -29570,7 +29570,7 @@
         <v>0.01016</v>
       </c>
       <c r="S462" t="n">
-        <v>276.069094463215</v>
+        <v>33.0609493609277</v>
       </c>
     </row>
     <row r="463">
@@ -29600,7 +29600,7 @@
         <v>20.05555555555555</v>
       </c>
       <c r="H463" t="n">
-        <v>39.2</v>
+        <v>4.000000000000002</v>
       </c>
       <c r="I463" t="n">
         <v>99.83</v>
@@ -29633,7 +29633,7 @@
         <v>0.01016</v>
       </c>
       <c r="S463" t="n">
-        <v>302.0900190172329</v>
+        <v>34.67876285542825</v>
       </c>
     </row>
     <row r="464">
@@ -29663,7 +29663,7 @@
         <v>20.22222222222222</v>
       </c>
       <c r="H464" t="n">
-        <v>37.4</v>
+        <v>3</v>
       </c>
       <c r="I464" t="n">
         <v>100.16</v>
@@ -29696,7 +29696,7 @@
         <v>0.01016</v>
       </c>
       <c r="S464" t="n">
-        <v>271.2062242327956</v>
+        <v>31.98557906587495</v>
       </c>
     </row>
     <row r="465">
@@ -29726,7 +29726,7 @@
         <v>23</v>
       </c>
       <c r="H465" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I465" t="n">
         <v>99.45</v>
@@ -29759,7 +29759,7 @@
         <v>0.01016</v>
       </c>
       <c r="S465" t="n">
-        <v>169.4560091257592</v>
+        <v>21.76230983481372</v>
       </c>
     </row>
     <row r="466">
@@ -29789,7 +29789,7 @@
         <v>18.61111111111111</v>
       </c>
       <c r="H466" t="n">
-        <v>37.7</v>
+        <v>3.166666666666668</v>
       </c>
       <c r="I466" t="n">
         <v>99.71000000000001</v>
@@ -29822,7 +29822,7 @@
         <v>0.01016</v>
       </c>
       <c r="S466" t="n">
-        <v>304.7538121508987</v>
+        <v>35.77904495221435</v>
       </c>
     </row>
     <row r="467">
@@ -29852,7 +29852,7 @@
         <v>13.33333333333333</v>
       </c>
       <c r="H467" t="n">
-        <v>40.8</v>
+        <v>4.888888888888888</v>
       </c>
       <c r="I467" t="n">
         <v>100.46</v>
@@ -29885,7 +29885,7 @@
         <v>0.01016</v>
       </c>
       <c r="S467" t="n">
-        <v>504.5526145801076</v>
+        <v>56.57865203101314</v>
       </c>
     </row>
     <row r="468">
@@ -29915,7 +29915,7 @@
         <v>15.05555555555556</v>
       </c>
       <c r="H468" t="n">
-        <v>28.4</v>
+        <v>-2.000000000000001</v>
       </c>
       <c r="I468" t="n">
         <v>100.92</v>
@@ -29948,7 +29948,7 @@
         <v>0.01016</v>
       </c>
       <c r="S468" t="n">
-        <v>226.3063694990233</v>
+        <v>30.87416871445947</v>
       </c>
     </row>
     <row r="469">
@@ -29978,7 +29978,7 @@
         <v>18.77777777777778</v>
       </c>
       <c r="H469" t="n">
-        <v>26.1</v>
+        <v>-3.277777777777777</v>
       </c>
       <c r="I469" t="n">
         <v>100.34</v>
@@ -30011,7 +30011,7 @@
         <v>0.01016</v>
       </c>
       <c r="S469" t="n">
-        <v>156.1349645004209</v>
+        <v>22.17539569073331</v>
       </c>
     </row>
     <row r="470">
@@ -30041,7 +30041,7 @@
         <v>14.22222222222222</v>
       </c>
       <c r="H470" t="n">
-        <v>20.4</v>
+        <v>-6.444444444444446</v>
       </c>
       <c r="I470" t="n">
         <v>100.84</v>
@@ -30074,7 +30074,7 @@
         <v>0.01016</v>
       </c>
       <c r="S470" t="n">
-        <v>147.8192094468748</v>
+        <v>23.32901548278053</v>
       </c>
     </row>
     <row r="471">
@@ -30104,7 +30104,7 @@
         <v>17.33333333333334</v>
       </c>
       <c r="H471" t="n">
-        <v>19.5</v>
+        <v>-6.944444444444445</v>
       </c>
       <c r="I471" t="n">
         <v>100.35</v>
@@ -30137,7 +30137,7 @@
         <v>0.01016</v>
       </c>
       <c r="S471" t="n">
-        <v>114.5563502794623</v>
+        <v>18.39730734235225</v>
       </c>
     </row>
     <row r="472">
@@ -30167,7 +30167,7 @@
         <v>19</v>
       </c>
       <c r="H472" t="n">
-        <v>21.4</v>
+        <v>-5.88888888888889</v>
       </c>
       <c r="I472" t="n">
         <v>99.84999999999999</v>
@@ -30200,7 +30200,7 @@
         <v>0.01016</v>
       </c>
       <c r="S472" t="n">
-        <v>116.0096382599969</v>
+        <v>17.9622135271254</v>
       </c>
     </row>
     <row r="473">
@@ -30230,7 +30230,7 @@
         <v>15.33333333333333</v>
       </c>
       <c r="H473" t="n">
-        <v>19.2</v>
+        <v>-7.111111111111112</v>
       </c>
       <c r="I473" t="n">
         <v>100.27</v>
@@ -30263,7 +30263,7 @@
         <v>0.01016</v>
       </c>
       <c r="S473" t="n">
-        <v>127.7207862302181</v>
+        <v>20.63198896322794</v>
       </c>
     </row>
     <row r="474">
@@ -30293,7 +30293,7 @@
         <v>18.11111111111111</v>
       </c>
       <c r="H474" t="n">
-        <v>20.4</v>
+        <v>-6.444444444444446</v>
       </c>
       <c r="I474" t="n">
         <v>99.36</v>
@@ -30326,7 +30326,7 @@
         <v>0.01016</v>
       </c>
       <c r="S474" t="n">
-        <v>115.332336757031</v>
+        <v>18.20189595072226</v>
       </c>
     </row>
     <row r="475">
@@ -30356,7 +30356,7 @@
         <v>14.72222222222222</v>
       </c>
       <c r="H475" t="n">
-        <v>19.2</v>
+        <v>-7.111111111111112</v>
       </c>
       <c r="I475" t="n">
         <v>101.05</v>
@@ -30389,7 +30389,7 @@
         <v>0.01016</v>
       </c>
       <c r="S475" t="n">
-        <v>132.8455539433429</v>
+        <v>21.45984286248057</v>
       </c>
     </row>
     <row r="476">
@@ -30419,7 +30419,7 @@
         <v>17.55555555555556</v>
       </c>
       <c r="H476" t="n">
-        <v>13.4</v>
+        <v>-10.33333333333333</v>
       </c>
       <c r="I476" t="n">
         <v>100.27</v>
@@ -30452,7 +30452,7 @@
         <v>0.01016</v>
       </c>
       <c r="S476" t="n">
-        <v>76.59759136469542</v>
+        <v>13.92664496180242</v>
       </c>
     </row>
     <row r="477">
@@ -30482,7 +30482,7 @@
         <v>16.88888888888889</v>
       </c>
       <c r="H477" t="n">
-        <v>12.3</v>
+        <v>-10.94444444444444</v>
       </c>
       <c r="I477" t="n">
         <v>99.84999999999999</v>
@@ -30515,7 +30515,7 @@
         <v>0.01016</v>
       </c>
       <c r="S477" t="n">
-        <v>74.34687263790309</v>
+        <v>13.83927361414077</v>
       </c>
     </row>
     <row r="478">
@@ -30545,7 +30545,7 @@
         <v>17.55555555555556</v>
       </c>
       <c r="H478" t="n">
-        <v>19.1</v>
+        <v>-7.166666666666666</v>
       </c>
       <c r="I478" t="n">
         <v>99.59</v>
@@ -30578,7 +30578,7 @@
         <v>0.01016</v>
       </c>
       <c r="S478" t="n">
-        <v>110.1788639333441</v>
+        <v>17.83316045227425</v>
       </c>
     </row>
     <row r="479">
@@ -30608,7 +30608,7 @@
         <v>14.55555555555556</v>
       </c>
       <c r="H479" t="n">
-        <v>19.9</v>
+        <v>-6.722222222222223</v>
       </c>
       <c r="I479" t="n">
         <v>100.69</v>
@@ -30641,7 +30641,7 @@
         <v>0.01016</v>
       </c>
       <c r="S479" t="n">
-        <v>140.2568966200868</v>
+        <v>22.35029791244145</v>
       </c>
     </row>
     <row r="480">
@@ -30671,7 +30671,7 @@
         <v>13.77777777777778</v>
       </c>
       <c r="H480" t="n">
-        <v>20.6</v>
+        <v>-6.333333333333333</v>
       </c>
       <c r="I480" t="n">
         <v>100.78</v>
@@ -30704,7 +30704,7 @@
         <v>0.01016</v>
       </c>
       <c r="S480" t="n">
-        <v>154.0345768415388</v>
+        <v>24.21667530447638</v>
       </c>
     </row>
     <row r="481">
@@ -30734,7 +30734,7 @@
         <v>14.5</v>
       </c>
       <c r="H481" t="n">
-        <v>17.6</v>
+        <v>-8</v>
       </c>
       <c r="I481" t="n">
         <v>100.44</v>
@@ -30767,7 +30767,7 @@
         <v>0.01016</v>
       </c>
       <c r="S481" t="n">
-        <v>121.8965417535695</v>
+        <v>20.32464143226321</v>
       </c>
     </row>
     <row r="482">
@@ -30797,7 +30797,7 @@
         <v>12.27777777777778</v>
       </c>
       <c r="H482" t="n">
-        <v>17.1</v>
+        <v>-8.277777777777777</v>
       </c>
       <c r="I482" t="n">
         <v>100.44</v>
@@ -30830,7 +30830,7 @@
         <v>0.01016</v>
       </c>
       <c r="S482" t="n">
-        <v>136.5165834545134</v>
+        <v>22.99206282593978</v>
       </c>
     </row>
     <row r="483">
@@ -30860,7 +30860,7 @@
         <v>8.333333333333334</v>
       </c>
       <c r="H483" t="n">
-        <v>8.1</v>
+        <v>-13.27777777777778</v>
       </c>
       <c r="I483" t="n">
         <v>101.39</v>
@@ -30893,7 +30893,7 @@
         <v>0.01016</v>
       </c>
       <c r="S483" t="n">
-        <v>98.42800078542939</v>
+        <v>20.11293212703179</v>
       </c>
     </row>
     <row r="484">
@@ -30923,7 +30923,7 @@
         <v>10.94444444444445</v>
       </c>
       <c r="H484" t="n">
-        <v>9.9</v>
+        <v>-12.27777777777778</v>
       </c>
       <c r="I484" t="n">
         <v>101.27</v>
@@ -30956,7 +30956,7 @@
         <v>0.01016</v>
       </c>
       <c r="S484" t="n">
-        <v>93.26753017180685</v>
+        <v>18.29926767876784</v>
       </c>
     </row>
     <row r="485">
@@ -30986,7 +30986,7 @@
         <v>10.66666666666667</v>
       </c>
       <c r="H485" t="n">
-        <v>12.4</v>
+        <v>-10.88888888888889</v>
       </c>
       <c r="I485" t="n">
         <v>101.09</v>
@@ -31019,7 +31019,7 @@
         <v>0.01016</v>
       </c>
       <c r="S485" t="n">
-        <v>112.1497036113967</v>
+        <v>20.83114603639075</v>
       </c>
     </row>
     <row r="486">
@@ -31049,7 +31049,7 @@
         <v>8.555555555555555</v>
       </c>
       <c r="H486" t="n">
-        <v>12.5</v>
+        <v>-10.83333333333333</v>
       </c>
       <c r="I486" t="n">
         <v>101.1</v>
@@ -31082,7 +31082,7 @@
         <v>0.01016</v>
       </c>
       <c r="S486" t="n">
-        <v>130.0849856847591</v>
+        <v>24.11059694563085</v>
       </c>
     </row>
     <row r="487">
@@ -31112,7 +31112,7 @@
         <v>7.722222222222221</v>
       </c>
       <c r="H487" t="n">
-        <v>13.4</v>
+        <v>-10.33333333333333</v>
       </c>
       <c r="I487" t="n">
         <v>101.26</v>
@@ -31145,7 +31145,7 @@
         <v>0.01016</v>
       </c>
       <c r="S487" t="n">
-        <v>146.0125721357816</v>
+        <v>26.54737852542762</v>
       </c>
     </row>
     <row r="488">
@@ -31175,7 +31175,7 @@
         <v>7.833333333333335</v>
       </c>
       <c r="H488" t="n">
-        <v>20.5</v>
+        <v>-6.388888888888889</v>
       </c>
       <c r="I488" t="n">
         <v>101.81</v>
@@ -31208,7 +31208,7 @@
         <v>0.01016</v>
       </c>
       <c r="S488" t="n">
-        <v>227.3634064911648</v>
+        <v>35.8138410737271</v>
       </c>
     </row>
     <row r="489">
@@ -31238,7 +31238,7 @@
         <v>7.055555555555557</v>
       </c>
       <c r="H489" t="n">
-        <v>18.9</v>
+        <v>-7.277777777777779</v>
       </c>
       <c r="I489" t="n">
         <v>101.97</v>
@@ -31271,7 +31271,7 @@
         <v>0.01016</v>
       </c>
       <c r="S489" t="n">
-        <v>217.0904533244561</v>
+        <v>35.2756765257497</v>
       </c>
     </row>
     <row r="490">
@@ -31301,7 +31301,7 @@
         <v>8.222222222222221</v>
       </c>
       <c r="H490" t="n">
-        <v>12.5</v>
+        <v>-10.83333333333333</v>
       </c>
       <c r="I490" t="n">
         <v>101.72</v>
@@ -31334,7 +31334,7 @@
         <v>0.01016</v>
       </c>
       <c r="S490" t="n">
-        <v>133.0589884695298</v>
+        <v>24.66181338372583</v>
       </c>
     </row>
     <row r="491">
@@ -31364,7 +31364,7 @@
         <v>6.777777777777779</v>
       </c>
       <c r="H491" t="n">
-        <v>13.4</v>
+        <v>-10.33333333333333</v>
       </c>
       <c r="I491" t="n">
         <v>101.84</v>
@@ -31397,7 +31397,7 @@
         <v>0.01016</v>
       </c>
       <c r="S491" t="n">
-        <v>155.7609322795098</v>
+        <v>28.31978348311225</v>
       </c>
     </row>
     <row r="492">
@@ -31427,7 +31427,7 @@
         <v>9.666666666666666</v>
       </c>
       <c r="H492" t="n">
-        <v>14.8</v>
+        <v>-9.555555555555555</v>
       </c>
       <c r="I492" t="n">
         <v>101.47</v>
@@ -31460,7 +31460,7 @@
         <v>0.01016</v>
       </c>
       <c r="S492" t="n">
-        <v>140.1799489964968</v>
+        <v>24.74783484050601</v>
       </c>
     </row>
     <row r="493">
@@ -31490,7 +31490,7 @@
         <v>5.555555555555555</v>
       </c>
       <c r="H493" t="n">
-        <v>15.7</v>
+        <v>-9.055555555555557</v>
       </c>
       <c r="I493" t="n">
         <v>102.85</v>
@@ -31523,7 +31523,7 @@
         <v>0.01016</v>
       </c>
       <c r="S493" t="n">
-        <v>196.6260769481585</v>
+        <v>34.07282918795793</v>
       </c>
     </row>
     <row r="494">
@@ -31553,7 +31553,7 @@
         <v>2.833333333333334</v>
       </c>
       <c r="H494" t="n">
-        <v>7.3</v>
+        <v>-13.72222222222222</v>
       </c>
       <c r="I494" t="n">
         <v>102.65</v>
@@ -31586,7 +31586,7 @@
         <v>0.01016</v>
       </c>
       <c r="S494" t="n">
-        <v>136.4894745012702</v>
+        <v>28.40840700490122</v>
       </c>
     </row>
     <row r="495">
@@ -31616,7 +31616,7 @@
         <v>5.777777777777778</v>
       </c>
       <c r="H495" t="n">
-        <v>0.2</v>
+        <v>-17.66666666666667</v>
       </c>
       <c r="I495" t="n">
         <v>101.77</v>
@@ -31649,7 +31649,7 @@
         <v>0.01016</v>
       </c>
       <c r="S495" t="n">
-        <v>67.36429472088957</v>
+        <v>16.6650065769599</v>
       </c>
     </row>
     <row r="496">
@@ -31679,7 +31679,7 @@
         <v>5.388888888888891</v>
       </c>
       <c r="H496" t="n">
-        <v>0.8</v>
+        <v>-17.33333333333333</v>
       </c>
       <c r="I496" t="n">
         <v>101.55</v>
@@ -31712,7 +31712,7 @@
         <v>0.01016</v>
       </c>
       <c r="S496" t="n">
-        <v>72.27269644188637</v>
+        <v>17.60812745509635</v>
       </c>
     </row>
     <row r="497">
@@ -31742,7 +31742,7 @@
         <v>7.777777777777779</v>
       </c>
       <c r="H497" t="n">
-        <v>9.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I497" t="n">
         <v>101.71</v>
@@ -31775,7 +31775,7 @@
         <v>0.01016</v>
       </c>
       <c r="S497" t="n">
-        <v>112.3625095183299</v>
+        <v>22.24380363975148</v>
       </c>
     </row>
     <row r="498">
@@ -31805,7 +31805,7 @@
         <v>2.888888888888891</v>
       </c>
       <c r="H498" t="n">
-        <v>-3.4</v>
+        <v>-19.66666666666667</v>
       </c>
       <c r="I498" t="n">
         <v>102.27</v>
@@ -31838,7 +31838,7 @@
         <v>0.01016</v>
       </c>
       <c r="S498" t="n">
-        <v>63.29271202981255</v>
+        <v>17.20933275128668</v>
       </c>
     </row>
     <row r="499">
@@ -31868,7 +31868,7 @@
         <v>0.4999999999999992</v>
       </c>
       <c r="H499" t="n">
-        <v>-13.3</v>
+        <v>-25.16666666666667</v>
       </c>
       <c r="I499" t="n">
         <v>102.96</v>
@@ -31901,7 +31901,7 @@
         <v>0.01016</v>
       </c>
       <c r="S499" t="n">
-        <v>34.74591292842942</v>
+        <v>12.58103067074452</v>
       </c>
     </row>
     <row r="500">
@@ -31931,7 +31931,7 @@
         <v>5.277777777777778</v>
       </c>
       <c r="H500" t="n">
-        <v>6.5</v>
+        <v>-14.16666666666667</v>
       </c>
       <c r="I500" t="n">
         <v>102.42</v>
@@ -31964,7 +31964,7 @@
         <v>0.01016</v>
       </c>
       <c r="S500" t="n">
-        <v>108.8231594515276</v>
+        <v>23.07548374370077</v>
       </c>
     </row>
     <row r="501">
@@ -31994,7 +31994,7 @@
         <v>3.222222222222221</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
+        <v>-17.22222222222222</v>
       </c>
       <c r="I501" t="n">
         <v>102.18</v>
@@ -32027,7 +32027,7 @@
         <v>0.01016</v>
       </c>
       <c r="S501" t="n">
-        <v>85.3420907112484</v>
+        <v>20.68723646626821</v>
       </c>
     </row>
     <row r="502">
@@ -32057,7 +32057,7 @@
         <v>1.166666666666667</v>
       </c>
       <c r="H502" t="n">
-        <v>1.3</v>
+        <v>-17.05555555555556</v>
       </c>
       <c r="I502" t="n">
         <v>102.34</v>
@@ -32090,7 +32090,7 @@
         <v>0.01016</v>
       </c>
       <c r="S502" t="n">
-        <v>100.9624309765452</v>
+        <v>24.28908373917362</v>
       </c>
     </row>
     <row r="503">
@@ -32120,7 +32120,7 @@
         <v>4.333333333333332</v>
       </c>
       <c r="H503" t="n">
-        <v>4.6</v>
+        <v>-15.22222222222222</v>
       </c>
       <c r="I503" t="n">
         <v>102.39</v>
@@ -32153,7 +32153,7 @@
         <v>0.01016</v>
       </c>
       <c r="S503" t="n">
-        <v>101.8835453908125</v>
+        <v>22.59945668294845</v>
       </c>
     </row>
     <row r="504">
@@ -32183,7 +32183,7 @@
         <v>6.222222222222224</v>
       </c>
       <c r="H504" t="n">
-        <v>4.5</v>
+        <v>-15.27777777777778</v>
       </c>
       <c r="I504" t="n">
         <v>102.22</v>
@@ -32216,7 +32216,7 @@
         <v>0.01016</v>
       </c>
       <c r="S504" t="n">
-        <v>88.72301483463177</v>
+        <v>19.72761529218304</v>
       </c>
     </row>
     <row r="505">
@@ -32246,7 +32246,7 @@
         <v>5.277777777777778</v>
       </c>
       <c r="H505" t="n">
-        <v>8.5</v>
+        <v>-13.05555555555556</v>
       </c>
       <c r="I505" t="n">
         <v>102.02</v>
@@ -32279,7 +32279,7 @@
         <v>0.01016</v>
       </c>
       <c r="S505" t="n">
-        <v>124.7505419783059</v>
+        <v>25.26023368845848</v>
       </c>
     </row>
     <row r="506">
@@ -32309,7 +32309,7 @@
         <v>4.055555555555554</v>
       </c>
       <c r="H506" t="n">
-        <v>12.9</v>
+        <v>-10.61111111111111</v>
       </c>
       <c r="I506" t="n">
         <v>102.13</v>
@@ -32342,7 +32342,7 @@
         <v>0.01016</v>
       </c>
       <c r="S506" t="n">
-        <v>182.1273808424175</v>
+        <v>33.46818449941718</v>
       </c>
     </row>
     <row r="507">
@@ -32372,7 +32372,7 @@
         <v>1.111111111111111</v>
       </c>
       <c r="H507" t="n">
-        <v>3.4</v>
+        <v>-15.88888888888889</v>
       </c>
       <c r="I507" t="n">
         <v>102.02</v>
@@ -32405,7 +32405,7 @@
         <v>0.01016</v>
       </c>
       <c r="S507" t="n">
-        <v>117.7114172298959</v>
+        <v>26.88084442130443</v>
       </c>
     </row>
     <row r="508">
@@ -32435,7 +32435,7 @@
         <v>-2.000000000000001</v>
       </c>
       <c r="H508" t="n">
-        <v>-0.5</v>
+        <v>-18.05555555555556</v>
       </c>
       <c r="I508" t="n">
         <v>102.56</v>
@@ -32468,7 +32468,7 @@
         <v>0.01016</v>
       </c>
       <c r="S508" t="n">
-        <v>111.6252819457702</v>
+        <v>28.11597779313441</v>
       </c>
     </row>
     <row r="509">
@@ -32498,7 +32498,7 @@
         <v>-0.6111111111111119</v>
       </c>
       <c r="H509" t="n">
-        <v>-6.3</v>
+        <v>-21.27777777777778</v>
       </c>
       <c r="I509" t="n">
         <v>102.85</v>
@@ -32531,7 +32531,7 @@
         <v>0.01016</v>
       </c>
       <c r="S509" t="n">
-        <v>65.38646525758192</v>
+        <v>19.25413032365244</v>
       </c>
     </row>
     <row r="510">
@@ -32561,7 +32561,7 @@
         <v>0.4444444444444429</v>
       </c>
       <c r="H510" t="n">
-        <v>-6.8</v>
+        <v>-21.55555555555555</v>
       </c>
       <c r="I510" t="n">
         <v>102.51</v>
@@ -32594,7 +32594,7 @@
         <v>0.01016</v>
       </c>
       <c r="S510" t="n">
-        <v>58.28513883740113</v>
+        <v>17.40646858216232</v>
       </c>
     </row>
     <row r="511">
@@ -32624,7 +32624,7 @@
         <v>-0.6666666666666663</v>
       </c>
       <c r="H511" t="n">
-        <v>-9.199999999999999</v>
+        <v>-22.88888888888889</v>
       </c>
       <c r="I511" t="n">
         <v>102.52</v>
@@ -32657,7 +32657,7 @@
         <v>0.01016</v>
       </c>
       <c r="S511" t="n">
-        <v>52.44958377668453</v>
+        <v>16.7832168302624</v>
       </c>
     </row>
     <row r="512">
@@ -32687,7 +32687,7 @@
         <v>0.4999999999999992</v>
       </c>
       <c r="H512" t="n">
-        <v>-2.4</v>
+        <v>-19.11111111111111</v>
       </c>
       <c r="I512" t="n">
         <v>102.17</v>
@@ -32720,7 +32720,7 @@
         <v>0.01016</v>
       </c>
       <c r="S512" t="n">
-        <v>80.8881510838675</v>
+        <v>21.41334660151038</v>
       </c>
     </row>
     <row r="513">
@@ -32750,7 +32750,7 @@
         <v>-3.722222222222222</v>
       </c>
       <c r="H513" t="n">
-        <v>-9.4</v>
+        <v>-23</v>
       </c>
       <c r="I513" t="n">
         <v>103.28</v>
@@ -32783,7 +32783,7 @@
         <v>0.01016</v>
       </c>
       <c r="S513" t="n">
-        <v>64.71257108390013</v>
+        <v>20.8289434044248</v>
       </c>
     </row>
     <row r="514">
@@ -32813,7 +32813,7 @@
         <v>-2.388888888888889</v>
       </c>
       <c r="H514" t="n">
-        <v>-9</v>
+        <v>-22.77777777777778</v>
       </c>
       <c r="I514" t="n">
         <v>102.67</v>
@@ -32846,7 +32846,7 @@
         <v>0.01016</v>
       </c>
       <c r="S514" t="n">
-        <v>60.46564202208704</v>
+        <v>19.23551097759247</v>
       </c>
     </row>
     <row r="515">
@@ -32876,7 +32876,7 @@
         <v>-5.611111111111112</v>
       </c>
       <c r="H515" t="n">
-        <v>-14.7</v>
+        <v>-25.94444444444445</v>
       </c>
       <c r="I515" t="n">
         <v>104.38</v>
@@ -32909,7 +32909,7 @@
         <v>0.01016</v>
       </c>
       <c r="S515" t="n">
-        <v>48.7491514228247</v>
+        <v>18.44383541113225</v>
       </c>
     </row>
     <row r="516">
@@ -32939,7 +32939,7 @@
         <v>-7.611111111111111</v>
       </c>
       <c r="H516" t="n">
-        <v>-8.5</v>
+        <v>-22.5</v>
       </c>
       <c r="I516" t="n">
         <v>104.38</v>
@@ -32972,7 +32972,7 @@
         <v>0.01016</v>
       </c>
       <c r="S516" t="n">
-        <v>93.33328255131802</v>
+        <v>29.26295932866682</v>
       </c>
     </row>
     <row r="517">
@@ -33002,7 +33002,7 @@
         <v>-5.444444444444445</v>
       </c>
       <c r="H517" t="n">
-        <v>-8.6</v>
+        <v>-22.55555555555556</v>
       </c>
       <c r="I517" t="n">
         <v>103.42</v>
@@ -33035,7 +33035,7 @@
         <v>0.01016</v>
       </c>
       <c r="S517" t="n">
-        <v>78.44278025392813</v>
+        <v>24.66571555234578</v>
       </c>
     </row>
     <row r="518">
@@ -33065,7 +33065,7 @@
         <v>-2.222222222222222</v>
       </c>
       <c r="H518" t="n">
-        <v>-6.4</v>
+        <v>-21.33333333333333</v>
       </c>
       <c r="I518" t="n">
         <v>102.9</v>
@@ -33098,7 +33098,7 @@
         <v>0.01016</v>
       </c>
       <c r="S518" t="n">
-        <v>73.03593102845714</v>
+        <v>21.56713539437197</v>
       </c>
     </row>
     <row r="519">
@@ -33128,7 +33128,7 @@
         <v>-4.500000000000001</v>
       </c>
       <c r="H519" t="n">
-        <v>-9.699999999999999</v>
+        <v>-23.16666666666667</v>
       </c>
       <c r="I519" t="n">
         <v>102.16</v>
@@ -33161,7 +33161,7 @@
         <v>0.01016</v>
       </c>
       <c r="S519" t="n">
-        <v>67.0050500065592</v>
+        <v>21.75795351382749</v>
       </c>
     </row>
     <row r="520">
@@ -33191,7 +33191,7 @@
         <v>-4.555555555555555</v>
       </c>
       <c r="H520" t="n">
-        <v>-9.5</v>
+        <v>-23.05555555555556</v>
       </c>
       <c r="I520" t="n">
         <v>102.91</v>
@@ -33224,7 +33224,7 @@
         <v>0.01016</v>
       </c>
       <c r="S520" t="n">
-        <v>68.35282109675728</v>
+        <v>22.06533348728978</v>
       </c>
     </row>
     <row r="521">
@@ -33254,7 +33254,7 @@
         <v>-2.888888888888889</v>
       </c>
       <c r="H521" t="n">
-        <v>-6.3</v>
+        <v>-21.27777777777778</v>
       </c>
       <c r="I521" t="n">
         <v>103.32</v>
@@ -33287,7 +33287,7 @@
         <v>0.01016</v>
       </c>
       <c r="S521" t="n">
-        <v>77.32455833051762</v>
+        <v>22.76950004025512</v>
       </c>
     </row>
     <row r="522">
@@ -33317,7 +33317,7 @@
         <v>-4.222222222222223</v>
       </c>
       <c r="H522" t="n">
-        <v>-4.5</v>
+        <v>-20.27777777777778</v>
       </c>
       <c r="I522" t="n">
         <v>103.09</v>
@@ -33350,7 +33350,7 @@
         <v>0.01016</v>
       </c>
       <c r="S522" t="n">
-        <v>97.93175294477403</v>
+        <v>27.43460908098792</v>
       </c>
     </row>
     <row r="523">
@@ -33380,7 +33380,7 @@
         <v>-5.277777777777778</v>
       </c>
       <c r="H523" t="n">
-        <v>-3.7</v>
+        <v>-19.83333333333334</v>
       </c>
       <c r="I523" t="n">
         <v>103.12</v>
@@ -33413,7 +33413,7 @@
         <v>0.01016</v>
       </c>
       <c r="S523" t="n">
-        <v>112.6185786430306</v>
+        <v>30.86995891061993</v>
       </c>
     </row>
     <row r="524">
@@ -33443,7 +33443,7 @@
         <v>-6.000000000000001</v>
       </c>
       <c r="H524" t="n">
-        <v>-5.3</v>
+        <v>-20.72222222222222</v>
       </c>
       <c r="I524" t="n">
         <v>103.26</v>
@@ -33476,7 +33476,7 @@
         <v>0.01016</v>
       </c>
       <c r="S524" t="n">
-        <v>105.4681463421799</v>
+        <v>30.20331637588485</v>
       </c>
     </row>
     <row r="525">
@@ -33506,7 +33506,7 @@
         <v>-2.777777777777778</v>
       </c>
       <c r="H525" t="n">
-        <v>-5</v>
+        <v>-20.55555555555556</v>
       </c>
       <c r="I525" t="n">
         <v>103.41</v>
@@ -33539,7 +33539,7 @@
         <v>0.01016</v>
       </c>
       <c r="S525" t="n">
-        <v>84.65889937179234</v>
+        <v>24.04411628593183</v>
       </c>
     </row>
     <row r="526">
@@ -33569,7 +33569,7 @@
         <v>-5.722222222222223</v>
       </c>
       <c r="H526" t="n">
-        <v>-9.800000000000001</v>
+        <v>-23.22222222222222</v>
       </c>
       <c r="I526" t="n">
         <v>103.17</v>
@@ -33602,7 +33602,7 @@
         <v>0.01016</v>
       </c>
       <c r="S526" t="n">
-        <v>72.92493012232273</v>
+        <v>23.75021396046006</v>
       </c>
     </row>
     <row r="527">
@@ -33632,7 +33632,7 @@
         <v>-5.555555555555555</v>
       </c>
       <c r="H527" t="n">
-        <v>-11.2</v>
+        <v>-24</v>
       </c>
       <c r="I527" t="n">
         <v>102.83</v>
@@ -33665,7 +33665,7 @@
         <v>0.01016</v>
       </c>
       <c r="S527" t="n">
-        <v>64.44412886990038</v>
+        <v>21.88287002149724</v>
       </c>
     </row>
     <row r="528">
@@ -33695,7 +33695,7 @@
         <v>-4.888888888888889</v>
       </c>
       <c r="H528" t="n">
-        <v>-10</v>
+        <v>-23.33333333333334</v>
       </c>
       <c r="I528" t="n">
         <v>102.1</v>
@@ -33728,7 +33728,7 @@
         <v>0.01016</v>
       </c>
       <c r="S528" t="n">
-        <v>67.38783991051591</v>
+        <v>22.07702663077037</v>
       </c>
     </row>
     <row r="529">
@@ -33758,7 +33758,7 @@
         <v>-5.444444444444445</v>
       </c>
       <c r="H529" t="n">
-        <v>-5.7</v>
+        <v>-20.94444444444445</v>
       </c>
       <c r="I529" t="n">
         <v>102.3</v>
@@ -33791,7 +33791,7 @@
         <v>0.01016</v>
       </c>
       <c r="S529" t="n">
-        <v>98.07637812590507</v>
+        <v>28.39997867438496</v>
       </c>
     </row>
     <row r="530">
@@ -33821,7 +33821,7 @@
         <v>-5.777777777777778</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>-16.66666666666667</v>
       </c>
       <c r="I530" t="n">
         <v>102.56</v>
@@ -33854,7 +33854,7 @@
         <v>0.01016</v>
       </c>
       <c r="S530" t="n">
-        <v>177.4317688876977</v>
+        <v>41.9435618058091</v>
       </c>
     </row>
     <row r="531">
@@ -33884,7 +33884,7 @@
         <v>-8.388888888888889</v>
       </c>
       <c r="H531" t="n">
-        <v>-5.2</v>
+        <v>-20.66666666666667</v>
       </c>
       <c r="I531" t="n">
         <v>102.08</v>
@@ -33917,7 +33917,7 @@
         <v>0.01016</v>
       </c>
       <c r="S531" t="n">
-        <v>127.7485576438858</v>
+        <v>36.48283397034008</v>
       </c>
     </row>
     <row r="532">
@@ -33947,7 +33947,7 @@
         <v>-7.555555555555556</v>
       </c>
       <c r="H532" t="n">
-        <v>-5.7</v>
+        <v>-20.94444444444445</v>
       </c>
       <c r="I532" t="n">
         <v>101.81</v>
@@ -33980,7 +33980,7 @@
         <v>0.01016</v>
       </c>
       <c r="S532" t="n">
-        <v>115.2916040417168</v>
+        <v>33.38499196939199</v>
       </c>
     </row>
     <row r="533">
@@ -34010,7 +34010,7 @@
         <v>-9.722222222222223</v>
       </c>
       <c r="H533" t="n">
-        <v>-16.3</v>
+        <v>-26.83333333333333</v>
       </c>
       <c r="I533" t="n">
         <v>102.98</v>
@@ -34043,7 +34043,7 @@
         <v>0.01016</v>
       </c>
       <c r="S533" t="n">
-        <v>58.69311377541395</v>
+        <v>23.37480967037277</v>
       </c>
     </row>
     <row r="534">
@@ -34073,7 +34073,7 @@
         <v>-14.16666666666667</v>
       </c>
       <c r="H534" t="n">
-        <v>-17</v>
+        <v>-27.22222222222222</v>
       </c>
       <c r="I534" t="n">
         <v>104.63</v>
@@ -34106,7 +34106,7 @@
         <v>0.01016</v>
       </c>
       <c r="S534" t="n">
-        <v>79.0814592257217</v>
+        <v>32.22152716628811</v>
       </c>
     </row>
     <row r="535">
@@ -34136,7 +34136,7 @@
         <v>-8.666666666666668</v>
       </c>
       <c r="H535" t="n">
-        <v>-0.4</v>
+        <v>-18</v>
       </c>
       <c r="I535" t="n">
         <v>103.46</v>
@@ -34169,7 +34169,7 @@
         <v>0.01016</v>
       </c>
       <c r="S535" t="n">
-        <v>186.4601984969383</v>
+        <v>46.84417305474668</v>
       </c>
     </row>
     <row r="536">
@@ -34199,7 +34199,7 @@
         <v>-7.5</v>
       </c>
       <c r="H536" t="n">
-        <v>-13.8</v>
+        <v>-25.44444444444444</v>
       </c>
       <c r="I536" t="n">
         <v>103.8</v>
@@ -34232,7 +34232,7 @@
         <v>0.01016</v>
       </c>
       <c r="S536" t="n">
-        <v>60.65075722626122</v>
+        <v>22.30568629841938</v>
       </c>
     </row>
     <row r="537">
@@ -34262,7 +34262,7 @@
         <v>-4</v>
       </c>
       <c r="H537" t="n">
-        <v>-13.2</v>
+        <v>-25.11111111111111</v>
       </c>
       <c r="I537" t="n">
         <v>104.05</v>
@@ -34295,7 +34295,7 @@
         <v>0.01016</v>
       </c>
       <c r="S537" t="n">
-        <v>48.78884411081927</v>
+        <v>17.61106127379608</v>
       </c>
     </row>
     <row r="538">
@@ -34325,7 +34325,7 @@
         <v>-8.277777777777777</v>
       </c>
       <c r="H538" t="n">
-        <v>-14.5</v>
+        <v>-25.83333333333334</v>
       </c>
       <c r="I538" t="n">
         <v>104</v>
@@ -34358,7 +34358,7 @@
         <v>0.01016</v>
       </c>
       <c r="S538" t="n">
-        <v>60.83454558828236</v>
+        <v>22.87105115908512</v>
       </c>
     </row>
     <row r="539">
@@ -34388,7 +34388,7 @@
         <v>-9.777777777777779</v>
       </c>
       <c r="H539" t="n">
-        <v>-12.3</v>
+        <v>-24.61111111111111</v>
       </c>
       <c r="I539" t="n">
         <v>104.17</v>
@@ -34421,7 +34421,7 @@
         <v>0.01016</v>
       </c>
       <c r="S539" t="n">
-        <v>81.80505662555963</v>
+        <v>28.72137100270371</v>
       </c>
     </row>
     <row r="540">
@@ -34451,7 +34451,7 @@
         <v>-7.833333333333335</v>
       </c>
       <c r="H540" t="n">
-        <v>-9.6</v>
+        <v>-23.11111111111111</v>
       </c>
       <c r="I540" t="n">
         <v>103.62</v>
@@ -34484,7 +34484,7 @@
         <v>0.01016</v>
       </c>
       <c r="S540" t="n">
-        <v>87.11865022671226</v>
+        <v>28.20606464715946</v>
       </c>
     </row>
     <row r="541">
@@ -34514,7 +34514,7 @@
         <v>-9.444444444444445</v>
       </c>
       <c r="H541" t="n">
-        <v>-8.5</v>
+        <v>-22.5</v>
       </c>
       <c r="I541" t="n">
         <v>103.4</v>
@@ -34547,7 +34547,7 @@
         <v>0.01016</v>
       </c>
       <c r="S541" t="n">
-        <v>107.6677271924483</v>
+        <v>33.75726467254864</v>
       </c>
     </row>
     <row r="542">
@@ -34577,7 +34577,7 @@
         <v>-7.000000000000001</v>
       </c>
       <c r="H542" t="n">
-        <v>-9</v>
+        <v>-22.77777777777778</v>
       </c>
       <c r="I542" t="n">
         <v>103.49</v>
@@ -34610,7 +34610,7 @@
         <v>0.01016</v>
       </c>
       <c r="S542" t="n">
-        <v>85.62745681086149</v>
+        <v>27.2400627924698</v>
       </c>
     </row>
     <row r="543">
@@ -34640,7 +34640,7 @@
         <v>-10.55555555555556</v>
       </c>
       <c r="H543" t="n">
-        <v>-9.6</v>
+        <v>-23.11111111111111</v>
       </c>
       <c r="I543" t="n">
         <v>103.2</v>
@@ -34673,7 +34673,7 @@
         <v>0.01016</v>
       </c>
       <c r="S543" t="n">
-        <v>107.8378607097921</v>
+        <v>34.91424238869963</v>
       </c>
     </row>
   </sheetData>
